--- a/src/WebMarket/WebMarket/App_Data/Products.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="avr" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4246" uniqueCount="1431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4246" uniqueCount="1430">
   <si>
     <t>Точність</t>
   </si>
@@ -2819,9 +2819,6 @@
   </si>
   <si>
     <t>Vimar</t>
-  </si>
-  <si>
-    <t>Энергохит</t>
   </si>
   <si>
     <t>DisplayName</t>
@@ -5174,7 +5171,7 @@
   <sheetData>
     <row r="1" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -5198,7 +5195,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -5363,7 +5360,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C3" s="10">
         <v>1050</v>
@@ -5382,7 +5379,7 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J3" s="10">
         <v>60</v>
@@ -5457,7 +5454,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C4" s="10">
         <v>1950</v>
@@ -5475,7 +5472,7 @@
         <v>930</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J4" s="10">
         <v>60</v>
@@ -5519,7 +5516,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C5" s="10">
         <v>3195</v>
@@ -5537,7 +5534,7 @@
         <v>930</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J5" s="10">
         <v>60</v>
@@ -5581,7 +5578,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C6" s="10">
         <v>3755</v>
@@ -5599,7 +5596,7 @@
         <v>930</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J6" s="10">
         <v>60</v>
@@ -5643,7 +5640,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C7" s="10">
         <v>4860</v>
@@ -5661,7 +5658,7 @@
         <v>930</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J7" s="10">
         <v>60</v>
@@ -5705,7 +5702,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C8" s="10">
         <v>5550</v>
@@ -5723,7 +5720,7 @@
         <v>930</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J8" s="10">
         <v>60</v>
@@ -5767,7 +5764,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C9" s="10">
         <v>5975</v>
@@ -5785,7 +5782,7 @@
         <v>930</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J9" s="10">
         <v>60</v>
@@ -5829,7 +5826,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C10" s="10">
         <v>5200</v>
@@ -5847,7 +5844,7 @@
         <v>930</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J10" s="10">
         <v>60</v>
@@ -5891,7 +5888,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C11" s="10">
         <v>6200</v>
@@ -5909,7 +5906,7 @@
         <v>930</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J11" s="10">
         <v>60</v>
@@ -5953,7 +5950,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C12" s="10">
         <v>7200</v>
@@ -5971,7 +5968,7 @@
         <v>930</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J12" s="10">
         <v>60</v>
@@ -6015,7 +6012,7 @@
         <v>81</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C13" s="10">
         <v>9200</v>
@@ -6033,7 +6030,7 @@
         <v>930</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J13" s="10">
         <v>60</v>
@@ -6077,7 +6074,7 @@
         <v>82</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C14" s="10">
         <v>10200</v>
@@ -6095,7 +6092,7 @@
         <v>930</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J14" s="10">
         <v>60</v>
@@ -6139,7 +6136,7 @@
         <v>83</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C15" s="10">
         <v>16200</v>
@@ -6157,7 +6154,7 @@
         <v>930</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J15" s="10">
         <v>60</v>
@@ -6201,7 +6198,7 @@
         <v>85</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C16" s="10">
         <v>18200</v>
@@ -6219,7 +6216,7 @@
         <v>930</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J16" s="10">
         <v>60</v>
@@ -6263,7 +6260,7 @@
         <v>86</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C17" s="10">
         <v>5500</v>
@@ -6281,7 +6278,7 @@
         <v>930</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J17" s="10">
         <v>60</v>
@@ -6325,7 +6322,7 @@
         <v>87</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C18" s="10">
         <v>6500</v>
@@ -6343,7 +6340,7 @@
         <v>930</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J18" s="10">
         <v>60</v>
@@ -6387,7 +6384,7 @@
         <v>88</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C19" s="10">
         <v>7500</v>
@@ -6405,7 +6402,7 @@
         <v>930</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J19" s="10">
         <v>60</v>
@@ -6449,7 +6446,7 @@
         <v>89</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C20" s="10">
         <v>9500</v>
@@ -6467,7 +6464,7 @@
         <v>930</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J20" s="10">
         <v>60</v>
@@ -6511,7 +6508,7 @@
         <v>90</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C21" s="10">
         <v>10500</v>
@@ -6529,7 +6526,7 @@
         <v>930</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J21" s="10">
         <v>60</v>
@@ -6573,7 +6570,7 @@
         <v>91</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C22" s="10">
         <v>17000</v>
@@ -6591,7 +6588,7 @@
         <v>930</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J22" s="10">
         <v>60</v>
@@ -6635,7 +6632,7 @@
         <v>92</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C23" s="10">
         <v>19000</v>
@@ -6653,7 +6650,7 @@
         <v>930</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J23" s="10">
         <v>60</v>
@@ -6697,7 +6694,7 @@
         <v>93</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C24" s="10">
         <v>5150</v>
@@ -6715,7 +6712,7 @@
         <v>930</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J24" s="10">
         <v>60</v>
@@ -6759,7 +6756,7 @@
         <v>94</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C25" s="10">
         <v>5150</v>
@@ -6777,7 +6774,7 @@
         <v>930</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J25" s="10">
         <v>60</v>
@@ -6821,7 +6818,7 @@
         <v>95</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C26" s="10">
         <v>5150</v>
@@ -6839,7 +6836,7 @@
         <v>930</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J26" s="10">
         <v>60</v>
@@ -6883,7 +6880,7 @@
         <v>96</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C27" s="10">
         <v>5150</v>
@@ -6901,7 +6898,7 @@
         <v>930</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J27" s="10">
         <v>60</v>
@@ -6945,7 +6942,7 @@
         <v>97</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C28" s="10">
         <v>5950</v>
@@ -6963,7 +6960,7 @@
         <v>930</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J28" s="10">
         <v>60</v>
@@ -7007,7 +7004,7 @@
         <v>98</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C29" s="10">
         <v>5950</v>
@@ -7025,7 +7022,7 @@
         <v>930</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J29" s="10">
         <v>60</v>
@@ -7069,7 +7066,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C30" s="10">
         <v>5950</v>
@@ -7087,7 +7084,7 @@
         <v>930</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J30" s="10">
         <v>60</v>
@@ -7131,7 +7128,7 @@
         <v>100</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C31" s="10">
         <v>5950</v>
@@ -7149,7 +7146,7 @@
         <v>930</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J31" s="10">
         <v>60</v>
@@ -7193,7 +7190,7 @@
         <v>101</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C32" s="10">
         <v>6950</v>
@@ -7211,7 +7208,7 @@
         <v>930</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J32" s="10">
         <v>60</v>
@@ -7255,7 +7252,7 @@
         <v>102</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C33" s="10">
         <v>6950</v>
@@ -7273,7 +7270,7 @@
         <v>930</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J33" s="10">
         <v>60</v>
@@ -7317,7 +7314,7 @@
         <v>103</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C34" s="10">
         <v>6950</v>
@@ -7335,7 +7332,7 @@
         <v>930</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J34" s="10">
         <v>60</v>
@@ -7379,7 +7376,7 @@
         <v>104</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C35" s="10">
         <v>6950</v>
@@ -7397,7 +7394,7 @@
         <v>930</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J35" s="10">
         <v>60</v>
@@ -7441,7 +7438,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C36" s="10">
         <v>8450</v>
@@ -7459,7 +7456,7 @@
         <v>930</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J36" s="10">
         <v>60</v>
@@ -7503,7 +7500,7 @@
         <v>106</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C37" s="10">
         <v>8450</v>
@@ -7521,7 +7518,7 @@
         <v>930</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J37" s="10">
         <v>60</v>
@@ -7565,7 +7562,7 @@
         <v>107</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C38" s="10">
         <v>8450</v>
@@ -7583,7 +7580,7 @@
         <v>930</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J38" s="10">
         <v>60</v>
@@ -7627,7 +7624,7 @@
         <v>108</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C39" s="10">
         <v>8450</v>
@@ -7645,7 +7642,7 @@
         <v>930</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J39" s="10">
         <v>60</v>
@@ -7689,7 +7686,7 @@
         <v>109</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C40" s="10">
         <v>9350</v>
@@ -7707,7 +7704,7 @@
         <v>930</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J40" s="10">
         <v>60</v>
@@ -7751,7 +7748,7 @@
         <v>110</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C41" s="10">
         <v>9350</v>
@@ -7769,7 +7766,7 @@
         <v>930</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J41" s="10">
         <v>60</v>
@@ -7813,7 +7810,7 @@
         <v>111</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C42" s="10">
         <v>9350</v>
@@ -7831,7 +7828,7 @@
         <v>930</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J42" s="10">
         <v>60</v>
@@ -7875,7 +7872,7 @@
         <v>112</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C43" s="10">
         <v>9350</v>
@@ -7893,7 +7890,7 @@
         <v>930</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J43" s="10">
         <v>60</v>
@@ -7937,7 +7934,7 @@
         <v>113</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C44" s="10">
         <v>11550</v>
@@ -7955,7 +7952,7 @@
         <v>930</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J44" s="10">
         <v>60</v>
@@ -7999,7 +7996,7 @@
         <v>114</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C45" s="10">
         <v>11550</v>
@@ -8017,7 +8014,7 @@
         <v>930</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J45" s="10">
         <v>60</v>
@@ -8061,7 +8058,7 @@
         <v>115</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C46" s="10">
         <v>11550</v>
@@ -8079,7 +8076,7 @@
         <v>930</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J46" s="10">
         <v>60</v>
@@ -8123,7 +8120,7 @@
         <v>116</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C47" s="10">
         <v>11550</v>
@@ -8141,7 +8138,7 @@
         <v>930</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J47" s="10">
         <v>60</v>
@@ -8185,7 +8182,7 @@
         <v>117</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C48" s="10">
         <v>12850</v>
@@ -8203,7 +8200,7 @@
         <v>930</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J48" s="10">
         <v>60</v>
@@ -8247,7 +8244,7 @@
         <v>118</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C49" s="10">
         <v>12850</v>
@@ -8265,7 +8262,7 @@
         <v>930</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J49" s="10">
         <v>60</v>
@@ -8309,7 +8306,7 @@
         <v>119</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C50" s="10">
         <v>12850</v>
@@ -8327,7 +8324,7 @@
         <v>930</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J50" s="10">
         <v>60</v>
@@ -8371,7 +8368,7 @@
         <v>120</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C51" s="10">
         <v>12850</v>
@@ -8389,7 +8386,7 @@
         <v>930</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="J51" s="10">
         <v>60</v>
@@ -8433,7 +8430,7 @@
         <v>121</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C52" s="6">
         <v>95.2</v>
@@ -8454,7 +8451,7 @@
         <v>122</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J52" s="6">
         <v>24</v>
@@ -8498,7 +8495,7 @@
         <v>124</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C53" s="6">
         <v>105</v>
@@ -8519,7 +8516,7 @@
         <v>122</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J53" s="6">
         <v>24</v>
@@ -8563,7 +8560,7 @@
         <v>125</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C54" s="6">
         <v>135.79999999999998</v>
@@ -8584,7 +8581,7 @@
         <v>122</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J54" s="6">
         <v>24</v>
@@ -8628,7 +8625,7 @@
         <v>127</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C55" s="6">
         <v>182</v>
@@ -8649,7 +8646,7 @@
         <v>128</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J55" s="6">
         <v>24</v>
@@ -8693,7 +8690,7 @@
         <v>130</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C56" s="6">
         <v>315</v>
@@ -8714,7 +8711,7 @@
         <v>128</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J56" s="6">
         <v>24</v>
@@ -8758,7 +8755,7 @@
         <v>132</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C57" s="6">
         <v>434</v>
@@ -8779,7 +8776,7 @@
         <v>128</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="J57" s="6">
         <v>24</v>
@@ -8823,7 +8820,7 @@
         <v>134</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C58" s="6">
         <v>25.2</v>
@@ -8841,7 +8838,7 @@
         <v>927</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J58" s="6">
         <v>24</v>
@@ -8876,7 +8873,7 @@
         <v>136</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C59" s="6">
         <v>25.2</v>
@@ -8894,7 +8891,7 @@
         <v>927</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J59" s="6">
         <v>24</v>
@@ -8929,7 +8926,7 @@
         <v>138</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C60" s="6">
         <v>25.2</v>
@@ -8947,7 +8944,7 @@
         <v>927</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J60" s="6">
         <v>24</v>
@@ -8982,7 +8979,7 @@
         <v>139</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C61" s="6">
         <v>36.4</v>
@@ -9003,7 +9000,7 @@
         <v>122</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J61" s="6">
         <v>24</v>
@@ -9044,7 +9041,7 @@
         <v>141</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C62" s="6">
         <v>47.25</v>
@@ -9065,7 +9062,7 @@
         <v>122</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J62" s="6">
         <v>24</v>
@@ -9106,7 +9103,7 @@
         <v>142</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C63" s="6">
         <v>0</v>
@@ -9124,7 +9121,7 @@
         <v>122</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J63" s="6">
         <v>24</v>
@@ -9165,7 +9162,7 @@
         <v>145</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C64" s="6">
         <v>26.599999999999998</v>
@@ -9183,7 +9180,7 @@
         <v>927</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J64" s="6">
         <v>24</v>
@@ -9218,7 +9215,7 @@
         <v>147</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C65" s="6">
         <v>26.599999999999998</v>
@@ -9236,7 +9233,7 @@
         <v>927</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J65" s="6">
         <v>24</v>
@@ -9271,7 +9268,7 @@
         <v>149</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C66" s="6">
         <v>30.799999999999997</v>
@@ -9289,7 +9286,7 @@
         <v>927</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J66" s="6">
         <v>24</v>
@@ -9324,7 +9321,7 @@
         <v>150</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C67" s="6">
         <v>29.4</v>
@@ -9342,7 +9339,7 @@
         <v>927</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J67" s="6">
         <v>24</v>
@@ -9377,7 +9374,7 @@
         <v>151</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C68" s="6">
         <v>33.599999999999994</v>
@@ -9395,7 +9392,7 @@
         <v>927</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J68" s="6">
         <v>24</v>
@@ -9430,7 +9427,7 @@
         <v>153</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C69" s="6">
         <v>30.799999999999997</v>
@@ -9448,7 +9445,7 @@
         <v>927</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J69" s="6">
         <v>24</v>
@@ -9477,7 +9474,7 @@
         <v>154</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C70" s="6">
         <v>32.199999999999996</v>
@@ -9495,7 +9492,7 @@
         <v>927</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J70" s="6">
         <v>24</v>
@@ -9524,7 +9521,7 @@
         <v>155</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C71" s="6">
         <v>30.799999999999997</v>
@@ -9542,7 +9539,7 @@
         <v>927</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J71" s="6">
         <v>24</v>
@@ -9574,7 +9571,7 @@
         <v>156</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C72" s="6">
         <v>32.199999999999996</v>
@@ -9592,7 +9589,7 @@
         <v>927</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J72" s="6">
         <v>24</v>
@@ -9621,7 +9618,7 @@
         <v>157</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C73" s="6">
         <v>35</v>
@@ -9639,7 +9636,7 @@
         <v>927</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J73" s="6">
         <v>24</v>
@@ -9674,7 +9671,7 @@
         <v>158</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C74" s="6">
         <v>39.199999999999996</v>
@@ -9692,7 +9689,7 @@
         <v>927</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J74" s="6">
         <v>24</v>
@@ -9724,7 +9721,7 @@
         <v>160</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C75" s="6">
         <v>39.9</v>
@@ -9742,7 +9739,7 @@
         <v>927</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J75" s="6">
         <v>24</v>
@@ -9774,7 +9771,7 @@
         <v>162</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C76" s="6">
         <v>42</v>
@@ -9792,7 +9789,7 @@
         <v>927</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J76" s="6">
         <v>24</v>
@@ -9827,7 +9824,7 @@
         <v>163</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C77" s="6">
         <v>49</v>
@@ -9845,7 +9842,7 @@
         <v>927</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J77" s="6">
         <v>24</v>
@@ -9880,7 +9877,7 @@
         <v>164</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C78" s="6">
         <v>53.199999999999996</v>
@@ -9898,7 +9895,7 @@
         <v>927</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J78" s="6">
         <v>24</v>
@@ -9930,7 +9927,7 @@
         <v>165</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C79" s="6">
         <v>54.599999999999994</v>
@@ -9948,7 +9945,7 @@
         <v>927</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J79" s="6">
         <v>24</v>
@@ -9980,7 +9977,7 @@
         <v>167</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C80" s="6">
         <v>53.199999999999996</v>
@@ -9998,7 +9995,7 @@
         <v>927</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J80" s="6">
         <v>24</v>
@@ -10030,7 +10027,7 @@
         <v>169</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C81" s="6">
         <v>53.199999999999996</v>
@@ -10048,7 +10045,7 @@
         <v>927</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J81" s="6">
         <v>24</v>
@@ -10080,7 +10077,7 @@
         <v>171</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C82" s="6">
         <v>57.4</v>
@@ -10098,7 +10095,7 @@
         <v>927</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J82" s="6">
         <v>24</v>
@@ -10130,7 +10127,7 @@
         <v>172</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C83" s="6">
         <v>68.599999999999994</v>
@@ -10148,7 +10145,7 @@
         <v>927</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J83" s="6">
         <v>24</v>
@@ -10183,7 +10180,7 @@
         <v>173</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C84" s="6">
         <v>89.6</v>
@@ -10201,7 +10198,7 @@
         <v>927</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J84" s="6">
         <v>24</v>
@@ -10233,7 +10230,7 @@
         <v>174</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C85" s="6">
         <v>89.6</v>
@@ -10251,7 +10248,7 @@
         <v>927</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J85" s="6">
         <v>24</v>
@@ -10283,7 +10280,7 @@
         <v>175</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C86" s="6">
         <v>92.399999999999991</v>
@@ -10301,7 +10298,7 @@
         <v>927</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J86" s="6">
         <v>24</v>
@@ -10333,7 +10330,7 @@
         <v>177</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C87" s="6">
         <v>89.6</v>
@@ -10351,7 +10348,7 @@
         <v>927</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J87" s="6">
         <v>24</v>
@@ -10383,7 +10380,7 @@
         <v>178</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C88" s="6">
         <v>95.199999999999989</v>
@@ -10401,7 +10398,7 @@
         <v>927</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J88" s="6">
         <v>24</v>
@@ -10436,7 +10433,7 @@
         <v>179</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C89" s="6">
         <v>114.8</v>
@@ -10454,7 +10451,7 @@
         <v>927</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J89" s="6">
         <v>24</v>
@@ -10486,7 +10483,7 @@
         <v>180</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C90" s="6">
         <v>114.8</v>
@@ -10504,7 +10501,7 @@
         <v>927</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J90" s="6">
         <v>24</v>
@@ -10536,7 +10533,7 @@
         <v>181</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C91" s="6">
         <v>114.8</v>
@@ -10557,7 +10554,7 @@
         <v>128</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J91" s="6">
         <v>24</v>
@@ -10589,7 +10586,7 @@
         <v>183</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C92" s="6">
         <v>118.99999999999999</v>
@@ -10610,7 +10607,7 @@
         <v>128</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J92" s="6">
         <v>24</v>
@@ -10642,7 +10639,7 @@
         <v>184</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C93" s="6">
         <v>154</v>
@@ -10660,7 +10657,7 @@
         <v>927</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J93" s="6">
         <v>24</v>
@@ -10695,7 +10692,7 @@
         <v>186</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C94" s="6">
         <v>217</v>
@@ -10713,7 +10710,7 @@
         <v>927</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J94" s="6">
         <v>24</v>
@@ -10748,7 +10745,7 @@
         <v>188</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C95" s="6">
         <v>224</v>
@@ -10766,7 +10763,7 @@
         <v>927</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J95" s="6">
         <v>24</v>
@@ -10798,7 +10795,7 @@
         <v>190</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C96" s="6">
         <v>224</v>
@@ -10816,7 +10813,7 @@
         <v>927</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J96" s="6">
         <v>24</v>
@@ -10848,7 +10845,7 @@
         <v>192</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C97" s="6">
         <v>210</v>
@@ -10866,7 +10863,7 @@
         <v>927</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J97" s="6">
         <v>24</v>
@@ -10898,7 +10895,7 @@
         <v>193</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C98" s="6">
         <v>224</v>
@@ -10916,7 +10913,7 @@
         <v>927</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J98" s="6">
         <v>24</v>
@@ -10948,7 +10945,7 @@
         <v>194</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C99" s="6">
         <v>228.2</v>
@@ -10966,7 +10963,7 @@
         <v>927</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J99" s="6">
         <v>24</v>
@@ -10998,7 +10995,7 @@
         <v>196</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C100" s="6">
         <v>263.2</v>
@@ -11019,7 +11016,7 @@
         <v>128</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J100" s="6">
         <v>24</v>
@@ -11054,7 +11051,7 @@
         <v>198</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C101" s="6">
         <v>322</v>
@@ -11075,7 +11072,7 @@
         <v>122</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J101" s="6">
         <v>24</v>
@@ -11101,7 +11098,7 @@
         <v>199</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C102" s="6">
         <v>406</v>
@@ -11119,7 +11116,7 @@
         <v>927</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J102" s="6">
         <v>24</v>
@@ -11157,7 +11154,7 @@
         <v>201</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C103" s="6">
         <v>461.99999999999994</v>
@@ -11175,7 +11172,7 @@
         <v>927</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J103" s="6">
         <v>24</v>
@@ -11213,7 +11210,7 @@
         <v>202</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C104" s="6">
         <v>49</v>
@@ -11231,7 +11228,7 @@
         <v>927</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J104" s="6">
         <v>24</v>
@@ -11263,7 +11260,7 @@
         <v>203</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C105" s="6">
         <v>75.599999999999994</v>
@@ -11281,7 +11278,7 @@
         <v>927</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J105" s="6">
         <v>24</v>
@@ -11313,7 +11310,7 @@
         <v>204</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C106" s="6">
         <v>91</v>
@@ -11331,7 +11328,7 @@
         <v>927</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J106" s="6">
         <v>24</v>
@@ -11363,7 +11360,7 @@
         <v>205</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C107" s="6">
         <v>217</v>
@@ -11381,7 +11378,7 @@
         <v>927</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J107" s="6">
         <v>24</v>
@@ -11413,7 +11410,7 @@
         <v>206</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C108" s="6">
         <v>224</v>
@@ -11434,7 +11431,7 @@
         <v>128</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J108" s="6">
         <v>24</v>
@@ -11466,7 +11463,7 @@
         <v>207</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C109" s="6">
         <v>266</v>
@@ -11487,7 +11484,7 @@
         <v>128</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J109" s="6">
         <v>24</v>
@@ -11519,7 +11516,7 @@
         <v>208</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C110" s="6">
         <v>329</v>
@@ -11537,7 +11534,7 @@
         <v>927</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J110" s="6">
         <v>24</v>
@@ -11569,7 +11566,7 @@
         <v>209</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C111" s="6">
         <v>336</v>
@@ -11590,7 +11587,7 @@
         <v>128</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J111" s="6">
         <v>24</v>
@@ -11622,7 +11619,7 @@
         <v>210</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C112" s="6">
         <v>546</v>
@@ -11640,7 +11637,7 @@
         <v>927</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J112" s="6">
         <v>24</v>
@@ -11678,7 +11675,7 @@
         <v>212</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C113" s="6">
         <v>665</v>
@@ -11696,7 +11693,7 @@
         <v>927</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J113" s="6">
         <v>24</v>
@@ -11734,7 +11731,7 @@
         <v>213</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C114" s="6">
         <v>518</v>
@@ -11752,7 +11749,7 @@
         <v>927</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J114" s="6">
         <v>24</v>
@@ -11790,7 +11787,7 @@
         <v>215</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C115" s="6">
         <v>588</v>
@@ -11808,7 +11805,7 @@
         <v>927</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J115" s="6">
         <v>24</v>
@@ -11840,7 +11837,7 @@
         <v>216</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C116" s="6">
         <v>728</v>
@@ -11858,7 +11855,7 @@
         <v>927</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J116" s="6">
         <v>24</v>
@@ -11896,7 +11893,7 @@
         <v>218</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C117" s="6">
         <v>770</v>
@@ -11914,7 +11911,7 @@
         <v>927</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J117" s="6">
         <v>24</v>
@@ -11946,7 +11943,7 @@
         <v>219</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C118" s="6">
         <v>1050</v>
@@ -11964,7 +11961,7 @@
         <v>927</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J118" s="6">
         <v>24</v>
@@ -12002,7 +11999,7 @@
         <v>221</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C119" s="6">
         <v>1190</v>
@@ -12020,7 +12017,7 @@
         <v>927</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J119" s="6">
         <v>24</v>
@@ -12058,7 +12055,7 @@
         <v>224</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C120" s="6">
         <v>1889.9999999999998</v>
@@ -12076,7 +12073,7 @@
         <v>927</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J120" s="6">
         <v>24</v>
@@ -12114,7 +12111,7 @@
         <v>225</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C121" s="6">
         <v>4900</v>
@@ -12132,7 +12129,7 @@
         <v>927</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J121" s="6">
         <v>24</v>
@@ -12164,7 +12161,7 @@
         <v>226</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C122" s="6">
         <v>5320</v>
@@ -12182,7 +12179,7 @@
         <v>927</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J122" s="6">
         <v>24</v>
@@ -12214,7 +12211,7 @@
         <v>227</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C123" s="6">
         <v>5600</v>
@@ -12232,7 +12229,7 @@
         <v>927</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J123" s="6">
         <v>24</v>
@@ -12264,7 +12261,7 @@
         <v>228</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C124" s="6">
         <v>7699.9999999999991</v>
@@ -12282,7 +12279,7 @@
         <v>927</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J124" s="6">
         <v>24</v>
@@ -12314,7 +12311,7 @@
         <v>229</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C125" s="6">
         <v>8400</v>
@@ -12332,7 +12329,7 @@
         <v>927</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J125" s="6">
         <v>24</v>
@@ -12364,7 +12361,7 @@
         <v>230</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C126" s="6">
         <v>9800</v>
@@ -12382,7 +12379,7 @@
         <v>927</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="J126" s="6">
         <v>24</v>
@@ -12417,7 +12414,7 @@
         <v>232</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C127" s="24">
         <v>3360</v>
@@ -12435,7 +12432,7 @@
         <v>928</v>
       </c>
       <c r="I127" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J127" s="24">
         <v>60</v>
@@ -12473,7 +12470,7 @@
         <v>234</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C128" s="24">
         <v>3360</v>
@@ -12491,7 +12488,7 @@
         <v>928</v>
       </c>
       <c r="I128" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J128" s="24">
         <v>60</v>
@@ -12529,7 +12526,7 @@
         <v>235</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C129" s="24">
         <v>3360</v>
@@ -12547,7 +12544,7 @@
         <v>928</v>
       </c>
       <c r="I129" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J129" s="24">
         <v>60</v>
@@ -12585,7 +12582,7 @@
         <v>237</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C130" s="24">
         <v>3840</v>
@@ -12603,7 +12600,7 @@
         <v>928</v>
       </c>
       <c r="I130" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J130" s="24">
         <v>60</v>
@@ -12641,7 +12638,7 @@
         <v>238</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C131" s="24">
         <v>3840</v>
@@ -12659,7 +12656,7 @@
         <v>928</v>
       </c>
       <c r="I131" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J131" s="24">
         <v>60</v>
@@ -12715,7 +12712,7 @@
         <v>928</v>
       </c>
       <c r="I132" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J132" s="24">
         <v>60</v>
@@ -12753,7 +12750,7 @@
         <v>242</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C133" s="24">
         <v>4848</v>
@@ -12771,7 +12768,7 @@
         <v>928</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J133" s="24">
         <v>12</v>
@@ -12809,7 +12806,7 @@
         <v>244</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C134" s="24">
         <v>6060</v>
@@ -12827,7 +12824,7 @@
         <v>928</v>
       </c>
       <c r="I134" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J134" s="24">
         <v>60</v>
@@ -12865,7 +12862,7 @@
         <v>246</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C135" s="24">
         <v>6060</v>
@@ -12883,7 +12880,7 @@
         <v>928</v>
       </c>
       <c r="I135" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J135" s="24">
         <v>60</v>
@@ -12921,7 +12918,7 @@
         <v>247</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C136" s="24">
         <v>6060</v>
@@ -12939,7 +12936,7 @@
         <v>928</v>
       </c>
       <c r="I136" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J136" s="24">
         <v>60</v>
@@ -12977,7 +12974,7 @@
         <v>248</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C137" s="24">
         <v>6060</v>
@@ -12995,7 +12992,7 @@
         <v>928</v>
       </c>
       <c r="I137" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J137" s="24">
         <v>60</v>
@@ -13033,7 +13030,7 @@
         <v>249</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C138" s="24">
         <v>6990</v>
@@ -13051,7 +13048,7 @@
         <v>928</v>
       </c>
       <c r="I138" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J138" s="24">
         <v>60</v>
@@ -13089,7 +13086,7 @@
         <v>250</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C139" s="24">
         <v>6990</v>
@@ -13107,7 +13104,7 @@
         <v>928</v>
       </c>
       <c r="I139" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J139" s="24">
         <v>60</v>
@@ -13145,7 +13142,7 @@
         <v>251</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C140" s="24">
         <v>6990</v>
@@ -13163,7 +13160,7 @@
         <v>928</v>
       </c>
       <c r="I140" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J140" s="24">
         <v>60</v>
@@ -13201,7 +13198,7 @@
         <v>252</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C141" s="24">
         <v>6990</v>
@@ -13219,7 +13216,7 @@
         <v>928</v>
       </c>
       <c r="I141" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J141" s="24">
         <v>60</v>
@@ -13257,7 +13254,7 @@
         <v>253</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C142" s="24">
         <v>7890</v>
@@ -13275,7 +13272,7 @@
         <v>928</v>
       </c>
       <c r="I142" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J142" s="24">
         <v>60</v>
@@ -13313,7 +13310,7 @@
         <v>254</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C143" s="24">
         <v>7890</v>
@@ -13331,7 +13328,7 @@
         <v>928</v>
       </c>
       <c r="I143" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J143" s="24">
         <v>60</v>
@@ -13369,7 +13366,7 @@
         <v>255</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C144" s="24">
         <v>7890</v>
@@ -13387,7 +13384,7 @@
         <v>928</v>
       </c>
       <c r="I144" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J144" s="24">
         <v>60</v>
@@ -13425,7 +13422,7 @@
         <v>256</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C145" s="24">
         <v>5824</v>
@@ -13443,7 +13440,7 @@
         <v>928</v>
       </c>
       <c r="I145" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J145" s="24">
         <v>12</v>
@@ -13478,7 +13475,7 @@
         <v>257</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C146" s="24">
         <v>7380</v>
@@ -13496,7 +13493,7 @@
         <v>928</v>
       </c>
       <c r="I146" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J146" s="24">
         <v>60</v>
@@ -13534,7 +13531,7 @@
         <v>259</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C147" s="24">
         <v>7380</v>
@@ -13552,7 +13549,7 @@
         <v>928</v>
       </c>
       <c r="I147" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J147" s="24">
         <v>60</v>
@@ -13590,7 +13587,7 @@
         <v>261</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C148" s="24">
         <v>7380</v>
@@ -13608,7 +13605,7 @@
         <v>928</v>
       </c>
       <c r="I148" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J148" s="24">
         <v>60</v>
@@ -13646,7 +13643,7 @@
         <v>263</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C149" s="24">
         <v>7380</v>
@@ -13664,7 +13661,7 @@
         <v>928</v>
       </c>
       <c r="I149" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J149" s="24">
         <v>60</v>
@@ -13702,7 +13699,7 @@
         <v>265</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C150" s="24">
         <v>8460</v>
@@ -13720,7 +13717,7 @@
         <v>928</v>
       </c>
       <c r="I150" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J150" s="24">
         <v>60</v>
@@ -13758,7 +13755,7 @@
         <v>267</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C151" s="24">
         <v>8460</v>
@@ -13776,7 +13773,7 @@
         <v>928</v>
       </c>
       <c r="I151" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J151" s="24">
         <v>60</v>
@@ -13814,7 +13811,7 @@
         <v>269</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C152" s="24">
         <v>8460</v>
@@ -13832,7 +13829,7 @@
         <v>928</v>
       </c>
       <c r="I152" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J152" s="24">
         <v>60</v>
@@ -13870,7 +13867,7 @@
         <v>271</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C153" s="24">
         <v>8460</v>
@@ -13888,7 +13885,7 @@
         <v>928</v>
       </c>
       <c r="I153" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J153" s="24">
         <v>60</v>
@@ -13926,7 +13923,7 @@
         <v>273</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C154" s="24">
         <v>8910</v>
@@ -13944,7 +13941,7 @@
         <v>928</v>
       </c>
       <c r="I154" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J154" s="24">
         <v>60</v>
@@ -13982,7 +13979,7 @@
         <v>275</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C155" s="24">
         <v>9600</v>
@@ -14000,7 +13997,7 @@
         <v>928</v>
       </c>
       <c r="I155" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J155" s="24">
         <v>60</v>
@@ -14038,7 +14035,7 @@
         <v>277</v>
       </c>
       <c r="B156" s="30" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C156" s="24">
         <v>9600</v>
@@ -14056,7 +14053,7 @@
         <v>928</v>
       </c>
       <c r="I156" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J156" s="24">
         <v>60</v>
@@ -14094,7 +14091,7 @@
         <v>279</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C157" s="24">
         <v>9600</v>
@@ -14112,7 +14109,7 @@
         <v>928</v>
       </c>
       <c r="I157" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J157" s="24">
         <v>60</v>
@@ -14150,7 +14147,7 @@
         <v>281</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C158" s="24">
         <v>9150</v>
@@ -14168,7 +14165,7 @@
         <v>928</v>
       </c>
       <c r="I158" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J158" s="24">
         <v>36</v>
@@ -14206,7 +14203,7 @@
         <v>283</v>
       </c>
       <c r="B159" s="30" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C159" s="24">
         <v>6744</v>
@@ -14224,7 +14221,7 @@
         <v>928</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J159" s="24">
         <v>12</v>
@@ -14262,7 +14259,7 @@
         <v>284</v>
       </c>
       <c r="B160" s="30" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C160" s="24">
         <v>8430</v>
@@ -14280,7 +14277,7 @@
         <v>928</v>
       </c>
       <c r="I160" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J160" s="24">
         <v>60</v>
@@ -14318,7 +14315,7 @@
         <v>285</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C161" s="24">
         <v>8430</v>
@@ -14336,7 +14333,7 @@
         <v>928</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J161" s="24">
         <v>60</v>
@@ -14374,7 +14371,7 @@
         <v>286</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C162" s="24">
         <v>8430</v>
@@ -14392,7 +14389,7 @@
         <v>928</v>
       </c>
       <c r="I162" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J162" s="24">
         <v>60</v>
@@ -14430,7 +14427,7 @@
         <v>287</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C163" s="24">
         <v>8430</v>
@@ -14448,7 +14445,7 @@
         <v>928</v>
       </c>
       <c r="I163" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J163" s="24">
         <v>60</v>
@@ -14486,7 +14483,7 @@
         <v>288</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C164" s="24">
         <v>9720</v>
@@ -14504,7 +14501,7 @@
         <v>928</v>
       </c>
       <c r="I164" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J164" s="24">
         <v>60</v>
@@ -14542,7 +14539,7 @@
         <v>289</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C165" s="24">
         <v>9720</v>
@@ -14560,7 +14557,7 @@
         <v>928</v>
       </c>
       <c r="I165" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J165" s="24">
         <v>60</v>
@@ -14598,7 +14595,7 @@
         <v>290</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C166" s="24">
         <v>9720</v>
@@ -14616,7 +14613,7 @@
         <v>928</v>
       </c>
       <c r="I166" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J166" s="24">
         <v>60</v>
@@ -14654,7 +14651,7 @@
         <v>291</v>
       </c>
       <c r="B167" s="30" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C167" s="24">
         <v>9720</v>
@@ -14672,7 +14669,7 @@
         <v>928</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J167" s="24">
         <v>60</v>
@@ -14710,7 +14707,7 @@
         <v>292</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C168" s="24">
         <v>9720</v>
@@ -14728,7 +14725,7 @@
         <v>928</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J168" s="24">
         <v>36</v>
@@ -14766,7 +14763,7 @@
         <v>293</v>
       </c>
       <c r="B169" s="30" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C169" s="24">
         <v>10230</v>
@@ -14784,7 +14781,7 @@
         <v>928</v>
       </c>
       <c r="I169" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J169" s="24">
         <v>60</v>
@@ -14822,7 +14819,7 @@
         <v>294</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C170" s="24">
         <v>10950</v>
@@ -14840,7 +14837,7 @@
         <v>928</v>
       </c>
       <c r="I170" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J170" s="24">
         <v>60</v>
@@ -14878,7 +14875,7 @@
         <v>295</v>
       </c>
       <c r="B171" s="30" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C171" s="24">
         <v>10950</v>
@@ -14896,7 +14893,7 @@
         <v>928</v>
       </c>
       <c r="I171" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J171" s="24">
         <v>60</v>
@@ -14934,7 +14931,7 @@
         <v>296</v>
       </c>
       <c r="B172" s="30" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C172" s="24">
         <v>10950</v>
@@ -14952,7 +14949,7 @@
         <v>928</v>
       </c>
       <c r="I172" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J172" s="24">
         <v>60</v>
@@ -14990,7 +14987,7 @@
         <v>297</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C173" s="24">
         <v>7940</v>
@@ -15008,7 +15005,7 @@
         <v>928</v>
       </c>
       <c r="I173" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J173" s="24">
         <v>12</v>
@@ -15037,7 +15034,7 @@
         <v>298</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C174" s="24">
         <v>9990</v>
@@ -15055,7 +15052,7 @@
         <v>928</v>
       </c>
       <c r="I174" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J174" s="24">
         <v>60</v>
@@ -15093,7 +15090,7 @@
         <v>299</v>
       </c>
       <c r="B175" s="30" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C175" s="24">
         <v>9990</v>
@@ -15111,7 +15108,7 @@
         <v>928</v>
       </c>
       <c r="I175" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J175" s="24">
         <v>60</v>
@@ -15149,7 +15146,7 @@
         <v>300</v>
       </c>
       <c r="B176" s="30" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C176" s="24">
         <v>9990</v>
@@ -15167,7 +15164,7 @@
         <v>928</v>
       </c>
       <c r="I176" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J176" s="24">
         <v>60</v>
@@ -15205,7 +15202,7 @@
         <v>301</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C177" s="24">
         <v>9990</v>
@@ -15223,7 +15220,7 @@
         <v>928</v>
       </c>
       <c r="I177" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J177" s="24">
         <v>60</v>
@@ -15261,7 +15258,7 @@
         <v>302</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C178" s="24">
         <v>11490</v>
@@ -15279,7 +15276,7 @@
         <v>928</v>
       </c>
       <c r="I178" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J178" s="24">
         <v>60</v>
@@ -15317,7 +15314,7 @@
         <v>303</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C179" s="24">
         <v>11490</v>
@@ -15335,7 +15332,7 @@
         <v>928</v>
       </c>
       <c r="I179" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J179" s="24">
         <v>60</v>
@@ -15373,7 +15370,7 @@
         <v>304</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C180" s="24">
         <v>11490</v>
@@ -15391,7 +15388,7 @@
         <v>928</v>
       </c>
       <c r="I180" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J180" s="24">
         <v>60</v>
@@ -15429,7 +15426,7 @@
         <v>305</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C181" s="24">
         <v>11490</v>
@@ -15447,7 +15444,7 @@
         <v>928</v>
       </c>
       <c r="I181" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J181" s="24">
         <v>60</v>
@@ -15485,7 +15482,7 @@
         <v>306</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C182" s="24">
         <v>11490</v>
@@ -15503,7 +15500,7 @@
         <v>928</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J182" s="24">
         <v>36</v>
@@ -15535,7 +15532,7 @@
         <v>307</v>
       </c>
       <c r="B183" s="30" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C183" s="24">
         <v>12060</v>
@@ -15553,7 +15550,7 @@
         <v>928</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J183" s="24">
         <v>60</v>
@@ -15591,7 +15588,7 @@
         <v>308</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C184" s="24">
         <v>14010</v>
@@ -15609,7 +15606,7 @@
         <v>928</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J184" s="24">
         <v>60</v>
@@ -15647,7 +15644,7 @@
         <v>311</v>
       </c>
       <c r="B185" s="30" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C185" s="24">
         <v>14010</v>
@@ -15665,7 +15662,7 @@
         <v>928</v>
       </c>
       <c r="I185" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J185" s="24">
         <v>60</v>
@@ -15703,7 +15700,7 @@
         <v>313</v>
       </c>
       <c r="B186" s="30" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C186" s="24">
         <v>14010</v>
@@ -15721,7 +15718,7 @@
         <v>928</v>
       </c>
       <c r="I186" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J186" s="24">
         <v>60</v>
@@ -15759,7 +15756,7 @@
         <v>315</v>
       </c>
       <c r="B187" s="30" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C187" s="24">
         <v>9000</v>
@@ -15777,7 +15774,7 @@
         <v>928</v>
       </c>
       <c r="I187" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J187" s="24">
         <v>12</v>
@@ -15809,7 +15806,7 @@
         <v>316</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C188" s="24">
         <v>11250</v>
@@ -15827,7 +15824,7 @@
         <v>928</v>
       </c>
       <c r="I188" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J188" s="24">
         <v>60</v>
@@ -15865,7 +15862,7 @@
         <v>318</v>
       </c>
       <c r="B189" s="30" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C189" s="24">
         <v>11250</v>
@@ -15883,7 +15880,7 @@
         <v>928</v>
       </c>
       <c r="I189" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J189" s="24">
         <v>60</v>
@@ -15921,7 +15918,7 @@
         <v>319</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C190" s="24">
         <v>11250</v>
@@ -15939,7 +15936,7 @@
         <v>928</v>
       </c>
       <c r="I190" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J190" s="24">
         <v>60</v>
@@ -15977,7 +15974,7 @@
         <v>320</v>
       </c>
       <c r="B191" s="30" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C191" s="24">
         <v>11250</v>
@@ -15995,7 +15992,7 @@
         <v>928</v>
       </c>
       <c r="I191" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J191" s="24">
         <v>60</v>
@@ -16033,7 +16030,7 @@
         <v>321</v>
       </c>
       <c r="B192" s="30" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C192" s="24">
         <v>12360</v>
@@ -16051,7 +16048,7 @@
         <v>928</v>
       </c>
       <c r="I192" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J192" s="24">
         <v>60</v>
@@ -16089,7 +16086,7 @@
         <v>322</v>
       </c>
       <c r="B193" s="30" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C193" s="24">
         <v>12360</v>
@@ -16107,7 +16104,7 @@
         <v>928</v>
       </c>
       <c r="I193" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J193" s="24">
         <v>60</v>
@@ -16145,7 +16142,7 @@
         <v>323</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C194" s="24">
         <v>12360</v>
@@ -16163,7 +16160,7 @@
         <v>928</v>
       </c>
       <c r="I194" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J194" s="24">
         <v>60</v>
@@ -16201,7 +16198,7 @@
         <v>324</v>
       </c>
       <c r="B195" s="30" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C195" s="24">
         <v>12360</v>
@@ -16219,7 +16216,7 @@
         <v>928</v>
       </c>
       <c r="I195" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J195" s="24">
         <v>60</v>
@@ -16257,7 +16254,7 @@
         <v>325</v>
       </c>
       <c r="B196" s="30" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C196" s="24">
         <v>12360</v>
@@ -16275,7 +16272,7 @@
         <v>928</v>
       </c>
       <c r="I196" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J196" s="24">
         <v>36</v>
@@ -16307,7 +16304,7 @@
         <v>326</v>
       </c>
       <c r="B197" s="30" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C197" s="24">
         <v>12990</v>
@@ -16325,7 +16322,7 @@
         <v>928</v>
       </c>
       <c r="I197" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J197" s="24">
         <v>60</v>
@@ -16363,7 +16360,7 @@
         <v>327</v>
       </c>
       <c r="B198" s="30" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C198" s="24">
         <v>15750</v>
@@ -16381,7 +16378,7 @@
         <v>928</v>
       </c>
       <c r="I198" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J198" s="24">
         <v>60</v>
@@ -16419,7 +16416,7 @@
         <v>329</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C199" s="24">
         <v>15750</v>
@@ -16437,7 +16434,7 @@
         <v>928</v>
       </c>
       <c r="I199" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J199" s="24">
         <v>60</v>
@@ -16475,7 +16472,7 @@
         <v>331</v>
       </c>
       <c r="B200" s="30" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C200" s="24">
         <v>15750</v>
@@ -16493,7 +16490,7 @@
         <v>928</v>
       </c>
       <c r="I200" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J200" s="24">
         <v>60</v>
@@ -16531,7 +16528,7 @@
         <v>333</v>
       </c>
       <c r="B201" s="30" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C201" s="24">
         <v>12360</v>
@@ -16549,7 +16546,7 @@
         <v>928</v>
       </c>
       <c r="I201" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J201" s="24">
         <v>60</v>
@@ -16587,7 +16584,7 @@
         <v>334</v>
       </c>
       <c r="B202" s="30" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C202" s="24">
         <v>12360</v>
@@ -16605,7 +16602,7 @@
         <v>928</v>
       </c>
       <c r="I202" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J202" s="24">
         <v>60</v>
@@ -16643,7 +16640,7 @@
         <v>335</v>
       </c>
       <c r="B203" s="30" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C203" s="24">
         <v>12360</v>
@@ -16661,7 +16658,7 @@
         <v>928</v>
       </c>
       <c r="I203" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J203" s="24">
         <v>60</v>
@@ -16699,7 +16696,7 @@
         <v>336</v>
       </c>
       <c r="B204" s="30" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C204" s="24">
         <v>12360</v>
@@ -16717,7 +16714,7 @@
         <v>928</v>
       </c>
       <c r="I204" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J204" s="24">
         <v>60</v>
@@ -16755,7 +16752,7 @@
         <v>337</v>
       </c>
       <c r="B205" s="30" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C205" s="24">
         <v>13590</v>
@@ -16773,7 +16770,7 @@
         <v>928</v>
       </c>
       <c r="I205" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J205" s="24">
         <v>60</v>
@@ -16811,7 +16808,7 @@
         <v>338</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C206" s="24">
         <v>13590</v>
@@ -16829,7 +16826,7 @@
         <v>928</v>
       </c>
       <c r="I206" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J206" s="24">
         <v>60</v>
@@ -16867,7 +16864,7 @@
         <v>339</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C207" s="24">
         <v>13590</v>
@@ -16885,7 +16882,7 @@
         <v>928</v>
       </c>
       <c r="I207" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J207" s="24">
         <v>60</v>
@@ -16923,7 +16920,7 @@
         <v>340</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C208" s="24">
         <v>13590</v>
@@ -16941,7 +16938,7 @@
         <v>928</v>
       </c>
       <c r="I208" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J208" s="24">
         <v>60</v>
@@ -16979,7 +16976,7 @@
         <v>341</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C209" s="24">
         <v>13590</v>
@@ -16997,7 +16994,7 @@
         <v>928</v>
       </c>
       <c r="I209" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J209" s="24">
         <v>36</v>
@@ -17035,7 +17032,7 @@
         <v>342</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C210" s="24">
         <v>14940</v>
@@ -17053,7 +17050,7 @@
         <v>928</v>
       </c>
       <c r="I210" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J210" s="24">
         <v>60</v>
@@ -17091,7 +17088,7 @@
         <v>344</v>
       </c>
       <c r="B211" s="30" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C211" s="24">
         <v>17280</v>
@@ -17109,7 +17106,7 @@
         <v>928</v>
       </c>
       <c r="I211" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J211" s="24">
         <v>60</v>
@@ -17147,7 +17144,7 @@
         <v>346</v>
       </c>
       <c r="B212" s="30" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C212" s="24">
         <v>17280</v>
@@ -17165,7 +17162,7 @@
         <v>928</v>
       </c>
       <c r="I212" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J212" s="24">
         <v>60</v>
@@ -17203,7 +17200,7 @@
         <v>348</v>
       </c>
       <c r="B213" s="30" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C213" s="24">
         <v>17280</v>
@@ -17221,7 +17218,7 @@
         <v>928</v>
       </c>
       <c r="I213" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J213" s="24">
         <v>60</v>
@@ -17259,7 +17256,7 @@
         <v>350</v>
       </c>
       <c r="B214" s="30" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C214" s="24">
         <v>14850</v>
@@ -17277,7 +17274,7 @@
         <v>928</v>
       </c>
       <c r="I214" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J214" s="24">
         <v>60</v>
@@ -17315,7 +17312,7 @@
         <v>352</v>
       </c>
       <c r="B215" s="30" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C215" s="24">
         <v>14850</v>
@@ -17333,7 +17330,7 @@
         <v>928</v>
       </c>
       <c r="I215" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J215" s="24">
         <v>60</v>
@@ -17371,7 +17368,7 @@
         <v>353</v>
       </c>
       <c r="B216" s="30" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C216" s="24">
         <v>14850</v>
@@ -17389,7 +17386,7 @@
         <v>928</v>
       </c>
       <c r="I216" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J216" s="24">
         <v>60</v>
@@ -17427,7 +17424,7 @@
         <v>354</v>
       </c>
       <c r="B217" s="30" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C217" s="24">
         <v>14850</v>
@@ -17445,7 +17442,7 @@
         <v>928</v>
       </c>
       <c r="I217" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J217" s="24">
         <v>60</v>
@@ -17483,7 +17480,7 @@
         <v>355</v>
       </c>
       <c r="B218" s="30" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C218" s="24">
         <v>16350</v>
@@ -17501,7 +17498,7 @@
         <v>928</v>
       </c>
       <c r="I218" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J218" s="24">
         <v>60</v>
@@ -17539,7 +17536,7 @@
         <v>356</v>
       </c>
       <c r="B219" s="30" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C219" s="24">
         <v>16350</v>
@@ -17557,7 +17554,7 @@
         <v>928</v>
       </c>
       <c r="I219" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J219" s="24">
         <v>60</v>
@@ -17595,7 +17592,7 @@
         <v>357</v>
       </c>
       <c r="B220" s="30" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C220" s="24">
         <v>16350</v>
@@ -17613,7 +17610,7 @@
         <v>928</v>
       </c>
       <c r="I220" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J220" s="24">
         <v>60</v>
@@ -17651,7 +17648,7 @@
         <v>358</v>
       </c>
       <c r="B221" s="30" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C221" s="24">
         <v>16350</v>
@@ -17669,7 +17666,7 @@
         <v>928</v>
       </c>
       <c r="I221" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J221" s="24">
         <v>36</v>
@@ -17707,7 +17704,7 @@
         <v>359</v>
       </c>
       <c r="B222" s="30" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C222" s="24">
         <v>16110</v>
@@ -17725,7 +17722,7 @@
         <v>928</v>
       </c>
       <c r="I222" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J222" s="24">
         <v>60</v>
@@ -17763,7 +17760,7 @@
         <v>360</v>
       </c>
       <c r="B223" s="30" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C223" s="24">
         <v>16110</v>
@@ -17781,7 +17778,7 @@
         <v>928</v>
       </c>
       <c r="I223" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J223" s="24">
         <v>60</v>
@@ -17819,7 +17816,7 @@
         <v>361</v>
       </c>
       <c r="B224" s="30" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C224" s="24">
         <v>16110</v>
@@ -17837,7 +17834,7 @@
         <v>928</v>
       </c>
       <c r="I224" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J224" s="24">
         <v>60</v>
@@ -17875,7 +17872,7 @@
         <v>362</v>
       </c>
       <c r="B225" s="30" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C225" s="24">
         <v>16110</v>
@@ -17893,7 +17890,7 @@
         <v>928</v>
       </c>
       <c r="I225" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J225" s="24">
         <v>60</v>
@@ -17931,7 +17928,7 @@
         <v>363</v>
       </c>
       <c r="B226" s="30" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C226" s="24">
         <v>17730</v>
@@ -17949,7 +17946,7 @@
         <v>928</v>
       </c>
       <c r="I226" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J226" s="24">
         <v>60</v>
@@ -17987,7 +17984,7 @@
         <v>364</v>
       </c>
       <c r="B227" s="30" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C227" s="24">
         <v>17730</v>
@@ -18005,7 +18002,7 @@
         <v>928</v>
       </c>
       <c r="I227" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J227" s="24">
         <v>60</v>
@@ -18043,7 +18040,7 @@
         <v>365</v>
       </c>
       <c r="B228" s="30" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C228" s="24">
         <v>17730</v>
@@ -18061,7 +18058,7 @@
         <v>928</v>
       </c>
       <c r="I228" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J228" s="24">
         <v>60</v>
@@ -18099,7 +18096,7 @@
         <v>366</v>
       </c>
       <c r="B229" s="30" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C229" s="24">
         <v>17730</v>
@@ -18117,7 +18114,7 @@
         <v>928</v>
       </c>
       <c r="I229" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J229" s="24">
         <v>36</v>
@@ -18155,7 +18152,7 @@
         <v>367</v>
       </c>
       <c r="B230" s="30" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C230" s="24">
         <v>22830</v>
@@ -18173,7 +18170,7 @@
         <v>928</v>
       </c>
       <c r="I230" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J230" s="24">
         <v>60</v>
@@ -18211,7 +18208,7 @@
         <v>368</v>
       </c>
       <c r="B231" s="30" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C231" s="24">
         <v>22830</v>
@@ -18229,7 +18226,7 @@
         <v>928</v>
       </c>
       <c r="I231" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J231" s="24">
         <v>60</v>
@@ -18267,7 +18264,7 @@
         <v>369</v>
       </c>
       <c r="B232" s="30" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C232" s="24">
         <v>22830</v>
@@ -18285,7 +18282,7 @@
         <v>928</v>
       </c>
       <c r="I232" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J232" s="24">
         <v>60</v>
@@ -18323,7 +18320,7 @@
         <v>370</v>
       </c>
       <c r="B233" s="30" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C233" s="24">
         <v>22830</v>
@@ -18341,7 +18338,7 @@
         <v>928</v>
       </c>
       <c r="I233" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J233" s="24">
         <v>60</v>
@@ -18379,7 +18376,7 @@
         <v>371</v>
       </c>
       <c r="B234" s="30" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C234" s="24">
         <v>24890</v>
@@ -18397,7 +18394,7 @@
         <v>928</v>
       </c>
       <c r="I234" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J234" s="24">
         <v>60</v>
@@ -18435,7 +18432,7 @@
         <v>372</v>
       </c>
       <c r="B235" s="30" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C235" s="24">
         <v>24890</v>
@@ -18453,7 +18450,7 @@
         <v>928</v>
       </c>
       <c r="I235" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J235" s="24">
         <v>60</v>
@@ -18491,7 +18488,7 @@
         <v>373</v>
       </c>
       <c r="B236" s="30" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C236" s="24">
         <v>24890</v>
@@ -18509,7 +18506,7 @@
         <v>928</v>
       </c>
       <c r="I236" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J236" s="24">
         <v>60</v>
@@ -18547,7 +18544,7 @@
         <v>374</v>
       </c>
       <c r="B237" s="30" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C237" s="24">
         <v>26640</v>
@@ -18565,7 +18562,7 @@
         <v>928</v>
       </c>
       <c r="I237" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J237" s="24">
         <v>60</v>
@@ -18603,7 +18600,7 @@
         <v>375</v>
       </c>
       <c r="B238" s="30" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C238" s="24">
         <v>26640</v>
@@ -18621,7 +18618,7 @@
         <v>928</v>
       </c>
       <c r="I238" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J238" s="24">
         <v>60</v>
@@ -18659,7 +18656,7 @@
         <v>376</v>
       </c>
       <c r="B239" s="30" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C239" s="24">
         <v>26640</v>
@@ -18677,7 +18674,7 @@
         <v>928</v>
       </c>
       <c r="I239" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J239" s="24">
         <v>60</v>
@@ -18715,7 +18712,7 @@
         <v>377</v>
       </c>
       <c r="B240" s="30" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C240" s="24">
         <v>26640</v>
@@ -18733,7 +18730,7 @@
         <v>928</v>
       </c>
       <c r="I240" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J240" s="24">
         <v>60</v>
@@ -18771,7 +18768,7 @@
         <v>378</v>
       </c>
       <c r="B241" s="30" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C241" s="24">
         <v>29250</v>
@@ -18789,7 +18786,7 @@
         <v>928</v>
       </c>
       <c r="I241" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J241" s="24">
         <v>60</v>
@@ -18827,7 +18824,7 @@
         <v>379</v>
       </c>
       <c r="B242" s="30" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C242" s="24">
         <v>29250</v>
@@ -18845,7 +18842,7 @@
         <v>928</v>
       </c>
       <c r="I242" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J242" s="24">
         <v>60</v>
@@ -18883,7 +18880,7 @@
         <v>380</v>
       </c>
       <c r="B243" s="30" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C243" s="24">
         <v>29250</v>
@@ -18901,7 +18898,7 @@
         <v>928</v>
       </c>
       <c r="I243" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J243" s="24">
         <v>36</v>
@@ -18939,7 +18936,7 @@
         <v>381</v>
       </c>
       <c r="B244" s="30" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C244" s="24">
         <v>115740</v>
@@ -18957,7 +18954,7 @@
         <v>928</v>
       </c>
       <c r="I244" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J244" s="24">
         <v>60</v>
@@ -18995,7 +18992,7 @@
         <v>383</v>
       </c>
       <c r="B245" s="30" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C245" s="24">
         <v>127590</v>
@@ -19013,7 +19010,7 @@
         <v>928</v>
       </c>
       <c r="I245" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J245" s="24">
         <v>60</v>
@@ -19051,7 +19048,7 @@
         <v>384</v>
       </c>
       <c r="B246" s="30" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C246" s="24">
         <v>127590</v>
@@ -19069,7 +19066,7 @@
         <v>928</v>
       </c>
       <c r="I246" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J246" s="24">
         <v>60</v>
@@ -19107,7 +19104,7 @@
         <v>385</v>
       </c>
       <c r="B247" s="30" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C247" s="24">
         <v>127590</v>
@@ -19125,7 +19122,7 @@
         <v>928</v>
       </c>
       <c r="I247" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J247" s="24">
         <v>60</v>
@@ -19160,7 +19157,7 @@
         <v>386</v>
       </c>
       <c r="B248" s="30" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C248" s="24">
         <v>163200</v>
@@ -19178,7 +19175,7 @@
         <v>928</v>
       </c>
       <c r="I248" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J248" s="24">
         <v>60</v>
@@ -19216,7 +19213,7 @@
         <v>388</v>
       </c>
       <c r="B249" s="30" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C249" s="24">
         <v>179520</v>
@@ -19234,7 +19231,7 @@
         <v>928</v>
       </c>
       <c r="I249" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J249" s="24">
         <v>60</v>
@@ -19272,7 +19269,7 @@
         <v>389</v>
       </c>
       <c r="B250" s="30" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C250" s="24">
         <v>179520</v>
@@ -19290,7 +19287,7 @@
         <v>928</v>
       </c>
       <c r="I250" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J250" s="24">
         <v>60</v>
@@ -19328,7 +19325,7 @@
         <v>390</v>
       </c>
       <c r="B251" s="30" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C251" s="24">
         <v>179520</v>
@@ -19346,7 +19343,7 @@
         <v>928</v>
       </c>
       <c r="I251" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J251" s="24">
         <v>60</v>
@@ -19381,7 +19378,7 @@
         <v>391</v>
       </c>
       <c r="B252" s="30" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C252" s="24">
         <v>249090</v>
@@ -19399,7 +19396,7 @@
         <v>928</v>
       </c>
       <c r="I252" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J252" s="24">
         <v>60</v>
@@ -19437,7 +19434,7 @@
         <v>392</v>
       </c>
       <c r="B253" s="30" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C253" s="24">
         <v>274000</v>
@@ -19455,7 +19452,7 @@
         <v>928</v>
       </c>
       <c r="I253" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J253" s="24">
         <v>60</v>
@@ -19493,7 +19490,7 @@
         <v>393</v>
       </c>
       <c r="B254" s="30" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C254" s="24">
         <v>274000</v>
@@ -19511,7 +19508,7 @@
         <v>928</v>
       </c>
       <c r="I254" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J254" s="24">
         <v>60</v>
@@ -19549,7 +19546,7 @@
         <v>394</v>
       </c>
       <c r="B255" s="30" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C255" s="24">
         <v>274000</v>
@@ -19567,7 +19564,7 @@
         <v>928</v>
       </c>
       <c r="I255" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J255" s="24">
         <v>60</v>
@@ -19602,7 +19599,7 @@
         <v>395</v>
       </c>
       <c r="B256" s="30" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C256" s="24">
         <v>1015</v>
@@ -19620,7 +19617,7 @@
         <v>928</v>
       </c>
       <c r="I256" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J256" s="24">
         <v>12</v>
@@ -19658,7 +19655,7 @@
         <v>398</v>
       </c>
       <c r="B257" s="30" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C257" s="24">
         <v>1330</v>
@@ -19676,7 +19673,7 @@
         <v>928</v>
       </c>
       <c r="I257" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J257" s="24">
         <v>12</v>
@@ -19714,7 +19711,7 @@
         <v>400</v>
       </c>
       <c r="B258" s="30" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C258" s="24">
         <v>1715</v>
@@ -19732,7 +19729,7 @@
         <v>928</v>
       </c>
       <c r="I258" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J258" s="24">
         <v>12</v>
@@ -19770,7 +19767,7 @@
         <v>401</v>
       </c>
       <c r="B259" s="30" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C259" s="24">
         <v>2135</v>
@@ -19788,7 +19785,7 @@
         <v>928</v>
       </c>
       <c r="I259" s="24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J259" s="24">
         <v>12</v>
@@ -19823,10 +19820,10 @@
     </row>
     <row r="260" spans="1:36" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A260" s="23" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B260" s="29" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C260" s="23">
         <v>35</v>
@@ -19841,13 +19838,13 @@
         <v>403</v>
       </c>
       <c r="G260" s="23" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H260" s="23" t="s">
         <v>128</v>
       </c>
       <c r="I260" s="23" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J260" s="23">
         <v>24</v>
@@ -19879,10 +19876,10 @@
     </row>
     <row r="261" spans="1:36" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A261" s="23" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B261" s="29" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C261" s="23">
         <v>44.8</v>
@@ -19897,10 +19894,10 @@
         <v>404</v>
       </c>
       <c r="G261" s="23" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="I261" s="23" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J261" s="23">
         <v>24</v>
@@ -19932,10 +19929,10 @@
     </row>
     <row r="262" spans="1:36" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B262" s="29" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C262" s="23">
         <v>64.399999999999991</v>
@@ -19950,10 +19947,10 @@
         <v>405</v>
       </c>
       <c r="G262" s="23" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="I262" s="23" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J262" s="23">
         <v>24</v>
@@ -19985,10 +19982,10 @@
     </row>
     <row r="263" spans="1:36" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A263" s="23" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B263" s="29" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C263" s="23">
         <v>161</v>
@@ -20003,13 +20000,13 @@
         <v>406</v>
       </c>
       <c r="G263" s="23" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H263" s="23" t="s">
         <v>122</v>
       </c>
       <c r="I263" s="23" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J263" s="23">
         <v>24</v>
@@ -20044,10 +20041,10 @@
     </row>
     <row r="264" spans="1:36" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A264" s="23" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B264" s="29" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C264" s="23">
         <v>196</v>
@@ -20062,13 +20059,13 @@
         <v>407</v>
       </c>
       <c r="G264" s="23" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H264" s="23" t="s">
         <v>122</v>
       </c>
       <c r="I264" s="23" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J264" s="23">
         <v>24</v>
@@ -20103,10 +20100,10 @@
     </row>
     <row r="265" spans="1:36" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A265" s="23" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B265" s="29" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C265" s="23">
         <v>230.99999999999997</v>
@@ -20121,13 +20118,13 @@
         <v>408</v>
       </c>
       <c r="G265" s="23" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H265" s="23" t="s">
         <v>122</v>
       </c>
       <c r="I265" s="23" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J265" s="23">
         <v>24</v>
@@ -20162,10 +20159,10 @@
     </row>
     <row r="266" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="23" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B266" s="29" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C266" s="23">
         <v>294</v>
@@ -20180,13 +20177,13 @@
         <v>409</v>
       </c>
       <c r="G266" s="23" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H266" s="23" t="s">
         <v>122</v>
       </c>
       <c r="I266" s="23" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="J266" s="23">
         <v>24</v>
@@ -20234,7 +20231,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -20258,7 +20255,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -20329,7 +20326,7 @@
         <v>926</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C3" s="27">
         <v>68</v>
@@ -20339,14 +20336,14 @@
         <v>0</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="J3" s="27">
         <v>12</v>
@@ -20382,7 +20379,7 @@
         <v>925</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C4" s="27">
         <v>77</v>
@@ -20392,14 +20389,14 @@
         <v>0</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="J4" s="27">
         <v>12</v>
@@ -20435,7 +20432,7 @@
         <v>923</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C5" s="27">
         <v>120</v>
@@ -20448,11 +20445,11 @@
         <v>922</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="J5" s="27">
         <v>12</v>
@@ -20493,7 +20490,7 @@
         <v>919</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C6" s="27">
         <v>134</v>
@@ -20506,11 +20503,11 @@
         <v>918</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="J6" s="27">
         <v>12</v>
@@ -20551,7 +20548,7 @@
         <v>915</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C7" s="27">
         <v>199</v>
@@ -20564,11 +20561,11 @@
         <v>914</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="J7" s="27">
         <v>12</v>
@@ -20609,7 +20606,7 @@
         <v>908</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C8" s="27">
         <v>61</v>
@@ -20622,11 +20619,11 @@
         <v>907</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J8" s="27">
         <v>12</v>
@@ -20662,7 +20659,7 @@
         <v>906</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C9" s="27">
         <v>68</v>
@@ -20672,14 +20669,14 @@
         <v>0</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J9" s="27">
         <v>12</v>
@@ -20715,7 +20712,7 @@
         <v>904</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C10" s="27">
         <v>84</v>
@@ -20725,14 +20722,14 @@
         <v>0</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="J10" s="27">
         <v>12</v>
@@ -20791,7 +20788,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -20815,7 +20812,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -20862,7 +20859,7 @@
         <v>469</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C3" s="15">
         <v>25.2</v>
@@ -20881,7 +20878,7 @@
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="J3" s="15">
         <v>24</v>
@@ -20916,7 +20913,7 @@
         <v>471</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C4" s="15">
         <v>34.799999999999997</v>
@@ -20935,7 +20932,7 @@
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="J4" s="15">
         <v>24</v>
@@ -20968,7 +20965,7 @@
         <v>473</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C5" s="15">
         <v>31.2</v>
@@ -20987,7 +20984,7 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="J5" s="15">
         <v>24</v>
@@ -21020,7 +21017,7 @@
         <v>475</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C6" s="15">
         <v>48</v>
@@ -21039,7 +21036,7 @@
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="J6" s="15">
         <v>24</v>
@@ -21072,7 +21069,7 @@
         <v>477</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C7" s="15">
         <v>15.6</v>
@@ -21091,7 +21088,7 @@
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="J7" s="15">
         <v>24</v>
@@ -21124,7 +21121,7 @@
         <v>479</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C8" s="15">
         <v>19.8</v>
@@ -21143,7 +21140,7 @@
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="J8" s="15">
         <v>24</v>
@@ -21176,7 +21173,7 @@
         <v>480</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C9" s="15">
         <v>25.5</v>
@@ -21195,7 +21192,7 @@
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="J9" s="15">
         <v>24</v>
@@ -21247,7 +21244,7 @@
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J10" s="14">
         <v>24</v>
@@ -21303,7 +21300,7 @@
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J11" s="14">
         <v>24</v>
@@ -21359,7 +21356,7 @@
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J12" s="14">
         <v>24</v>
@@ -21415,7 +21412,7 @@
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J13" s="14">
         <v>24</v>
@@ -21473,7 +21470,7 @@
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J14" s="14">
         <v>24</v>
@@ -21531,7 +21528,7 @@
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J15" s="14">
         <v>24</v>
@@ -21589,7 +21586,7 @@
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J16" s="16">
         <v>24</v>
@@ -21645,7 +21642,7 @@
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J17" s="16">
         <v>24</v>
@@ -21701,7 +21698,7 @@
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J18" s="16">
         <v>24</v>
@@ -21755,7 +21752,7 @@
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J19" s="16">
         <v>24</v>
@@ -21809,7 +21806,7 @@
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J20" s="16">
         <v>24</v>
@@ -21859,7 +21856,7 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J21" s="16">
         <v>24</v>
@@ -21913,7 +21910,7 @@
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J22" s="16">
         <v>24</v>
@@ -21967,7 +21964,7 @@
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J23" s="16">
         <v>24</v>
@@ -22021,7 +22018,7 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J24" s="16">
         <v>24</v>
@@ -22075,7 +22072,7 @@
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J25" s="16">
         <v>24</v>
@@ -22129,7 +22126,7 @@
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J26" s="16">
         <v>24</v>
@@ -22183,7 +22180,7 @@
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J27" s="16">
         <v>24</v>
@@ -22237,7 +22234,7 @@
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J28" s="16">
         <v>24</v>
@@ -22291,7 +22288,7 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J29" s="16">
         <v>24</v>
@@ -22345,7 +22342,7 @@
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J30" s="16">
         <v>24</v>
@@ -22399,7 +22396,7 @@
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="J31" s="17">
         <v>24</v>
@@ -22451,7 +22448,7 @@
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="J32" s="17">
         <v>24</v>
@@ -22503,7 +22500,7 @@
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="J33" s="17">
         <v>24</v>
@@ -22555,7 +22552,7 @@
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="J34" s="17">
         <v>24</v>
@@ -22607,7 +22604,7 @@
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="J35" s="17">
         <v>24</v>
@@ -22659,7 +22656,7 @@
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="J36" s="17">
         <v>24</v>
@@ -22692,7 +22689,7 @@
         <v>544</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C37" s="17">
         <v>2400</v>
@@ -22711,7 +22708,7 @@
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="J37" s="17">
         <v>24</v>
@@ -22763,7 +22760,7 @@
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="J38" s="17">
         <v>24</v>
@@ -22815,7 +22812,7 @@
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="17" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="J39" s="17">
         <v>24</v>
@@ -22848,7 +22845,7 @@
         <v>550</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C40" s="15">
         <v>1900</v>
@@ -22867,7 +22864,7 @@
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="J40" s="15">
         <v>12</v>
@@ -22898,7 +22895,7 @@
         <v>553</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C41" s="16">
         <v>102</v>
@@ -22917,7 +22914,7 @@
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="J41" s="16">
         <v>24</v>
@@ -22955,8 +22952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22968,7 +22965,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -22992,7 +22989,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -23047,10 +23044,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C3" s="30">
         <v>6.24</v>
@@ -23069,7 +23066,7 @@
       </c>
       <c r="H3" s="30"/>
       <c r="I3" s="30" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J3" s="30">
         <v>24</v>
@@ -23084,7 +23081,7 @@
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q3" s="30">
         <v>6</v>
@@ -23095,10 +23092,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C4" s="30">
         <v>7.0200000000000005</v>
@@ -23117,7 +23114,7 @@
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J4" s="30">
         <v>24</v>
@@ -23132,7 +23129,7 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q4" s="30">
         <v>6</v>
@@ -23143,10 +23140,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C5" s="30">
         <v>7.0200000000000005</v>
@@ -23165,7 +23162,7 @@
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J5" s="30">
         <v>24</v>
@@ -23180,7 +23177,7 @@
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q5" s="30">
         <v>6</v>
@@ -23191,10 +23188,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C6" s="30">
         <v>11.375</v>
@@ -23213,7 +23210,7 @@
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J6" s="30">
         <v>24</v>
@@ -23228,7 +23225,7 @@
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q6" s="30">
         <v>6</v>
@@ -23239,10 +23236,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C7" s="30">
         <v>10.790000000000001</v>
@@ -23261,7 +23258,7 @@
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J7" s="30">
         <v>24</v>
@@ -23274,7 +23271,7 @@
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q7" s="30">
         <v>12</v>
@@ -23285,10 +23282,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C8" s="30">
         <v>18.2</v>
@@ -23307,7 +23304,7 @@
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J8" s="30">
         <v>24</v>
@@ -23320,7 +23317,7 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q8" s="30">
         <v>12</v>
@@ -23331,10 +23328,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C9" s="30">
         <v>14.040000000000001</v>
@@ -23353,7 +23350,7 @@
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J9" s="30">
         <v>24</v>
@@ -23368,7 +23365,7 @@
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q9" s="30">
         <v>12</v>
@@ -23379,10 +23376,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C10" s="30">
         <v>16.38</v>
@@ -23401,7 +23398,7 @@
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J10" s="30">
         <v>24</v>
@@ -23418,7 +23415,7 @@
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q10" s="30">
         <v>12</v>
@@ -23429,10 +23426,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C11" s="30">
         <v>19.240000000000002</v>
@@ -23451,7 +23448,7 @@
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J11" s="30">
         <v>24</v>
@@ -23468,7 +23465,7 @@
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q11" s="30">
         <v>12</v>
@@ -23479,10 +23476,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C12" s="30">
         <v>22.619999999999997</v>
@@ -23501,7 +23498,7 @@
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J12" s="30">
         <v>24</v>
@@ -23518,7 +23515,7 @@
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
       <c r="P12" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q12" s="30">
         <v>12</v>
@@ -23529,10 +23526,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C13" s="30">
         <v>32.76</v>
@@ -23551,7 +23548,7 @@
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J13" s="30">
         <v>24</v>
@@ -23568,7 +23565,7 @@
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q13" s="30">
         <v>12</v>
@@ -23579,10 +23576,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C14" s="30">
         <v>53.04</v>
@@ -23601,7 +23598,7 @@
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J14" s="30">
         <v>24</v>
@@ -23618,7 +23615,7 @@
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
       <c r="P14" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q14" s="30">
         <v>12</v>
@@ -23629,10 +23626,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C15" s="30">
         <v>75.400000000000006</v>
@@ -23651,7 +23648,7 @@
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J15" s="30">
         <v>24</v>
@@ -23668,7 +23665,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="P15" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q15" s="30">
         <v>12</v>
@@ -23679,10 +23676,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C16" s="30">
         <v>78</v>
@@ -23701,7 +23698,7 @@
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J16" s="30">
         <v>24</v>
@@ -23718,7 +23715,7 @@
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q16" s="30">
         <v>12</v>
@@ -23729,10 +23726,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C17" s="30">
         <v>202.8</v>
@@ -23751,7 +23748,7 @@
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J17" s="30">
         <v>24</v>
@@ -23768,7 +23765,7 @@
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q17" s="30">
         <v>12</v>
@@ -23779,10 +23776,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C18" s="30">
         <v>171.6</v>
@@ -23801,7 +23798,7 @@
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J18" s="30">
         <v>24</v>
@@ -23818,7 +23815,7 @@
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
       <c r="P18" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q18" s="30">
         <v>12</v>
@@ -23829,10 +23826,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C19" s="30">
         <v>241.8</v>
@@ -23851,7 +23848,7 @@
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J19" s="30">
         <v>24</v>
@@ -23868,7 +23865,7 @@
       <c r="N19" s="30"/>
       <c r="O19" s="30"/>
       <c r="P19" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q19" s="30">
         <v>12</v>
@@ -23882,7 +23879,7 @@
         <v>589</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C20" s="30">
         <v>327.60000000000002</v>
@@ -23901,7 +23898,7 @@
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J20" s="30">
         <v>24</v>
@@ -23918,7 +23915,7 @@
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
       <c r="P20" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q20" s="30">
         <v>12</v>
@@ -23932,7 +23929,7 @@
         <v>591</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C21" s="30">
         <v>257.40000000000003</v>
@@ -23951,7 +23948,7 @@
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J21" s="30">
         <v>24</v>
@@ -23968,7 +23965,7 @@
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
       <c r="P21" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q21" s="30">
         <v>12</v>
@@ -23979,10 +23976,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C22" s="30">
         <v>312</v>
@@ -24001,7 +23998,7 @@
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J22" s="30">
         <v>24</v>
@@ -24018,7 +24015,7 @@
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
       <c r="P22" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q22" s="30">
         <v>12</v>
@@ -24029,10 +24026,10 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C23" s="30">
         <v>351</v>
@@ -24051,7 +24048,7 @@
       </c>
       <c r="H23" s="30"/>
       <c r="I23" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J23" s="30">
         <v>24</v>
@@ -24068,7 +24065,7 @@
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
       <c r="P23" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q23" s="30">
         <v>12</v>
@@ -24079,10 +24076,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C24" s="30">
         <v>546</v>
@@ -24101,7 +24098,7 @@
       </c>
       <c r="H24" s="30"/>
       <c r="I24" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J24" s="30">
         <v>24</v>
@@ -24118,7 +24115,7 @@
       <c r="N24" s="30"/>
       <c r="O24" s="30"/>
       <c r="P24" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q24" s="30">
         <v>12</v>
@@ -24129,10 +24126,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C25" s="29">
         <v>7.2799999999999994</v>
@@ -24151,7 +24148,7 @@
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="29" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J25" s="29">
         <v>12</v>
@@ -24173,10 +24170,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C26" s="29">
         <v>16.25</v>
@@ -24195,7 +24192,7 @@
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="29" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J26" s="29">
         <v>12</v>
@@ -24217,10 +24214,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C27" s="29">
         <v>15.600000000000001</v>
@@ -24239,7 +24236,7 @@
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="29" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J27" s="29">
         <v>12</v>
@@ -24261,10 +24258,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C28" s="29">
         <v>80.600000000000009</v>
@@ -24283,7 +24280,7 @@
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J28" s="29">
         <v>12</v>
@@ -24305,10 +24302,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C29" s="29">
         <v>169</v>
@@ -24327,7 +24324,7 @@
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J29" s="29">
         <v>12</v>
@@ -24349,10 +24346,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C30" s="29">
         <v>162.5</v>
@@ -24371,7 +24368,7 @@
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="29" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J30" s="29">
         <v>12</v>
@@ -24393,10 +24390,10 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C31" s="29">
         <v>234</v>
@@ -24415,7 +24412,7 @@
       </c>
       <c r="H31" s="29"/>
       <c r="I31" s="29" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J31" s="29">
         <v>12</v>
@@ -24437,10 +24434,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C32" s="29">
         <v>305.5</v>
@@ -24459,7 +24456,7 @@
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="29" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J32" s="29">
         <v>12</v>
@@ -24481,10 +24478,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C33" s="29">
         <v>364</v>
@@ -24503,7 +24500,7 @@
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="29" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="J33" s="29">
         <v>12</v>
@@ -24528,7 +24525,7 @@
         <v>607</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C34" s="28">
         <v>5.86</v>
@@ -24545,7 +24542,7 @@
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J34" s="28">
         <v>12</v>
@@ -24574,7 +24571,7 @@
         <v>610</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C35" s="28">
         <v>9.01</v>
@@ -24591,7 +24588,7 @@
       </c>
       <c r="H35" s="28"/>
       <c r="I35" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J35" s="28">
         <v>12</v>
@@ -24620,7 +24617,7 @@
         <v>612</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C36" s="28">
         <v>7.96</v>
@@ -24637,7 +24634,7 @@
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J36" s="28">
         <v>12</v>
@@ -24666,7 +24663,7 @@
         <v>614</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C37" s="28">
         <v>13.21</v>
@@ -24683,7 +24680,7 @@
       </c>
       <c r="H37" s="28"/>
       <c r="I37" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J37" s="28">
         <v>12</v>
@@ -24712,7 +24709,7 @@
         <v>616</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C38" s="28">
         <v>20.11</v>
@@ -24729,7 +24726,7 @@
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J38" s="28">
         <v>12</v>
@@ -24758,7 +24755,7 @@
         <v>618</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C39" s="28">
         <v>10.82</v>
@@ -24775,7 +24772,7 @@
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J39" s="28">
         <v>12</v>
@@ -24804,7 +24801,7 @@
         <v>620</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C40" s="28">
         <v>13.49</v>
@@ -24821,7 +24818,7 @@
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J40" s="28">
         <v>12</v>
@@ -24850,7 +24847,7 @@
         <v>622</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C41" s="28">
         <v>16.04</v>
@@ -24867,7 +24864,7 @@
       </c>
       <c r="H41" s="28"/>
       <c r="I41" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J41" s="28">
         <v>12</v>
@@ -24896,7 +24893,7 @@
         <v>624</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C42" s="28">
         <v>16.350000000000001</v>
@@ -24913,7 +24910,7 @@
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J42" s="28">
         <v>12</v>
@@ -24942,7 +24939,7 @@
         <v>626</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C43" s="28">
         <v>18.899999999999999</v>
@@ -24959,7 +24956,7 @@
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J43" s="28">
         <v>12</v>
@@ -24988,7 +24985,7 @@
         <v>627</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C44" s="28">
         <v>20.25</v>
@@ -25005,7 +25002,7 @@
       </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J44" s="28">
         <v>12</v>
@@ -25034,7 +25031,7 @@
         <v>629</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C45" s="28">
         <v>21.32</v>
@@ -25051,7 +25048,7 @@
       </c>
       <c r="H45" s="28"/>
       <c r="I45" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J45" s="28">
         <v>12</v>
@@ -25080,7 +25077,7 @@
         <v>630</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C46" s="28">
         <v>39.01</v>
@@ -25097,7 +25094,7 @@
       </c>
       <c r="H46" s="28"/>
       <c r="I46" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J46" s="28">
         <v>12</v>
@@ -25126,7 +25123,7 @@
         <v>632</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C47" s="28">
         <v>55.52</v>
@@ -25143,7 +25140,7 @@
       </c>
       <c r="H47" s="28"/>
       <c r="I47" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J47" s="28">
         <v>12</v>
@@ -25172,7 +25169,7 @@
         <v>634</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C48" s="28">
         <v>78.040000000000006</v>
@@ -25189,7 +25186,7 @@
       </c>
       <c r="H48" s="28"/>
       <c r="I48" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J48" s="28">
         <v>12</v>
@@ -25218,7 +25215,7 @@
         <v>636</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C49" s="28">
         <v>103.52</v>
@@ -25235,7 +25232,7 @@
       </c>
       <c r="H49" s="28"/>
       <c r="I49" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J49" s="28">
         <v>12</v>
@@ -25264,7 +25261,7 @@
         <v>638</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C50" s="28">
         <v>135.04</v>
@@ -25281,7 +25278,7 @@
       </c>
       <c r="H50" s="28"/>
       <c r="I50" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J50" s="28">
         <v>12</v>
@@ -25310,7 +25307,7 @@
         <v>640</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C51" s="28">
         <v>147.06</v>
@@ -25327,7 +25324,7 @@
       </c>
       <c r="H51" s="28"/>
       <c r="I51" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J51" s="28">
         <v>12</v>
@@ -25356,7 +25353,7 @@
         <v>641</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C52" s="28">
         <v>180.06</v>
@@ -25373,7 +25370,7 @@
       </c>
       <c r="H52" s="28"/>
       <c r="I52" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J52" s="28">
         <v>12</v>
@@ -25402,7 +25399,7 @@
         <v>643</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C53" s="28">
         <v>210.07</v>
@@ -25419,7 +25416,7 @@
       </c>
       <c r="H53" s="28"/>
       <c r="I53" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J53" s="28">
         <v>12</v>
@@ -25448,7 +25445,7 @@
         <v>645</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C54" s="28">
         <v>223.56</v>
@@ -25465,7 +25462,7 @@
       </c>
       <c r="H54" s="28"/>
       <c r="I54" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J54" s="28">
         <v>12</v>
@@ -25494,7 +25491,7 @@
         <v>647</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C55" s="28">
         <v>231.08</v>
@@ -25511,7 +25508,7 @@
       </c>
       <c r="H55" s="28"/>
       <c r="I55" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J55" s="28">
         <v>12</v>
@@ -25540,7 +25537,7 @@
         <v>648</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C56" s="28">
         <v>280.58</v>
@@ -25557,7 +25554,7 @@
       </c>
       <c r="H56" s="28"/>
       <c r="I56" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J56" s="28">
         <v>12</v>
@@ -25586,7 +25583,7 @@
         <v>650</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C57" s="28">
         <v>267.38</v>
@@ -25603,7 +25600,7 @@
       </c>
       <c r="H57" s="28"/>
       <c r="I57" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J57" s="28">
         <v>12</v>
@@ -25632,7 +25629,7 @@
         <v>652</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C58" s="28">
         <v>343.62</v>
@@ -25649,7 +25646,7 @@
       </c>
       <c r="H58" s="28"/>
       <c r="I58" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J58" s="28">
         <v>12</v>
@@ -25678,7 +25675,7 @@
         <v>653</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C59" s="28">
         <v>381.12</v>
@@ -25695,7 +25692,7 @@
       </c>
       <c r="H59" s="28"/>
       <c r="I59" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J59" s="28">
         <v>12</v>
@@ -25724,7 +25721,7 @@
         <v>655</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C60" s="28">
         <v>435.14</v>
@@ -25741,7 +25738,7 @@
       </c>
       <c r="H60" s="28"/>
       <c r="I60" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J60" s="28">
         <v>12</v>
@@ -25770,7 +25767,7 @@
         <v>657</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C61" s="28">
         <v>528.16</v>
@@ -25787,7 +25784,7 @@
       </c>
       <c r="H61" s="28"/>
       <c r="I61" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J61" s="28">
         <v>12</v>
@@ -25816,7 +25813,7 @@
         <v>659</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C62" s="28">
         <v>664.59</v>
@@ -25833,7 +25830,7 @@
       </c>
       <c r="H62" s="28"/>
       <c r="I62" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J62" s="28">
         <v>12</v>
@@ -25862,7 +25859,7 @@
         <v>661</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C63" s="28">
         <v>20.71</v>
@@ -25879,7 +25876,7 @@
       </c>
       <c r="H63" s="28"/>
       <c r="I63" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J63" s="28">
         <v>12</v>
@@ -25908,7 +25905,7 @@
         <v>662</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C64" s="28">
         <v>22.05</v>
@@ -25925,7 +25922,7 @@
       </c>
       <c r="H64" s="28"/>
       <c r="I64" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J64" s="28">
         <v>12</v>
@@ -25954,7 +25951,7 @@
         <v>664</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C65" s="28">
         <v>27.31</v>
@@ -25971,7 +25968,7 @@
       </c>
       <c r="H65" s="28"/>
       <c r="I65" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J65" s="28">
         <v>12</v>
@@ -25997,10 +25994,10 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C66" s="28">
         <v>177.29</v>
@@ -26017,7 +26014,7 @@
       </c>
       <c r="H66" s="28"/>
       <c r="I66" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J66" s="28">
         <v>12</v>
@@ -26046,7 +26043,7 @@
         <v>667</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C67" s="28">
         <v>277.01</v>
@@ -26063,7 +26060,7 @@
       </c>
       <c r="H67" s="28"/>
       <c r="I67" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J67" s="28">
         <v>12</v>
@@ -26092,7 +26089,7 @@
         <v>669</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C68" s="28">
         <v>339.33</v>
@@ -26109,7 +26106,7 @@
       </c>
       <c r="H68" s="28"/>
       <c r="I68" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J68" s="28">
         <v>12</v>
@@ -26138,7 +26135,7 @@
         <v>671</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C69" s="28">
         <v>427.98</v>
@@ -26155,7 +26152,7 @@
       </c>
       <c r="H69" s="28"/>
       <c r="I69" s="28" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J69" s="28">
         <v>12</v>
@@ -26184,7 +26181,7 @@
         <v>673</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C70" s="31">
         <v>8.0500000000000007</v>
@@ -26194,14 +26191,14 @@
         <v>63</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H70" s="31"/>
       <c r="I70" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J70" s="31">
         <v>12</v>
@@ -26230,7 +26227,7 @@
         <v>674</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C71" s="31">
         <v>11.68</v>
@@ -26240,14 +26237,14 @@
         <v>63</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H71" s="31"/>
       <c r="I71" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J71" s="31">
         <v>12</v>
@@ -26276,7 +26273,7 @@
         <v>676</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C72" s="31">
         <v>23.95</v>
@@ -26286,14 +26283,14 @@
         <v>63</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G72" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H72" s="31"/>
       <c r="I72" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J72" s="31">
         <v>12</v>
@@ -26322,7 +26319,7 @@
         <v>677</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C73" s="31">
         <v>13.02</v>
@@ -26332,14 +26329,14 @@
         <v>63</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H73" s="31"/>
       <c r="I73" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J73" s="31">
         <v>12</v>
@@ -26368,7 +26365,7 @@
         <v>678</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C74" s="31">
         <v>20.69</v>
@@ -26378,14 +26375,14 @@
         <v>63</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H74" s="31"/>
       <c r="I74" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J74" s="31">
         <v>12</v>
@@ -26414,7 +26411,7 @@
         <v>679</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C75" s="31">
         <v>21.74</v>
@@ -26424,14 +26421,14 @@
         <v>63</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H75" s="31"/>
       <c r="I75" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J75" s="31">
         <v>12</v>
@@ -26460,7 +26457,7 @@
         <v>680</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C76" s="31">
         <v>26.6</v>
@@ -26470,14 +26467,14 @@
         <v>63</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G76" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H76" s="31"/>
       <c r="I76" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J76" s="31">
         <v>12</v>
@@ -26506,7 +26503,7 @@
         <v>681</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C77" s="31">
         <v>47.04</v>
@@ -26516,14 +26513,14 @@
         <v>63</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H77" s="31"/>
       <c r="I77" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J77" s="31">
         <v>12</v>
@@ -26552,7 +26549,7 @@
         <v>682</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C78" s="31">
         <v>64.08</v>
@@ -26562,14 +26559,14 @@
         <v>63</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G78" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H78" s="31"/>
       <c r="I78" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J78" s="31">
         <v>12</v>
@@ -26598,7 +26595,7 @@
         <v>683</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C79" s="31">
         <v>66.31</v>
@@ -26608,14 +26605,14 @@
         <v>63</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H79" s="31"/>
       <c r="I79" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J79" s="31">
         <v>12</v>
@@ -26644,7 +26641,7 @@
         <v>684</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C80" s="31">
         <v>95.72</v>
@@ -26654,14 +26651,14 @@
         <v>63</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H80" s="31"/>
       <c r="I80" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J80" s="31">
         <v>12</v>
@@ -26690,7 +26687,7 @@
         <v>685</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C81" s="31">
         <v>119.06</v>
@@ -26700,14 +26697,14 @@
         <v>63</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H81" s="31"/>
       <c r="I81" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J81" s="31">
         <v>12</v>
@@ -26736,7 +26733,7 @@
         <v>686</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C82" s="31">
         <v>152.11000000000001</v>
@@ -26746,14 +26743,14 @@
         <v>63</v>
       </c>
       <c r="F82" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G82" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H82" s="31"/>
       <c r="I82" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J82" s="31">
         <v>12</v>
@@ -26782,7 +26779,7 @@
         <v>687</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C83" s="31">
         <v>241.3</v>
@@ -26792,14 +26789,14 @@
         <v>63</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H83" s="31"/>
       <c r="I83" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J83" s="31">
         <v>12</v>
@@ -26828,7 +26825,7 @@
         <v>688</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C84" s="31">
         <v>326.89</v>
@@ -26838,14 +26835,14 @@
         <v>63</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H84" s="31"/>
       <c r="I84" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J84" s="31">
         <v>12</v>
@@ -26874,7 +26871,7 @@
         <v>690</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C85" s="31">
         <v>329.71</v>
@@ -26884,14 +26881,14 @@
         <v>63</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H85" s="31"/>
       <c r="I85" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J85" s="31">
         <v>12</v>
@@ -26920,7 +26917,7 @@
         <v>691</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C86" s="31">
         <v>401.55</v>
@@ -26930,14 +26927,14 @@
         <v>63</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H86" s="31"/>
       <c r="I86" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J86" s="31">
         <v>12</v>
@@ -26966,7 +26963,7 @@
         <v>693</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C87" s="31">
         <v>542.24</v>
@@ -26976,14 +26973,14 @@
         <v>63</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H87" s="31"/>
       <c r="I87" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J87" s="31">
         <v>12</v>
@@ -27012,7 +27009,7 @@
         <v>695</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C88" s="31">
         <v>666.67</v>
@@ -27022,14 +27019,14 @@
         <v>63</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G88" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H88" s="31"/>
       <c r="I88" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J88" s="31">
         <v>12</v>
@@ -27058,7 +27055,7 @@
         <v>697</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C89" s="31">
         <v>705.47</v>
@@ -27068,14 +27065,14 @@
         <v>63</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H89" s="31"/>
       <c r="I89" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J89" s="31">
         <v>12</v>
@@ -27104,7 +27101,7 @@
         <v>698</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C90" s="31">
         <v>18.420000000000002</v>
@@ -27114,14 +27111,14 @@
         <v>63</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G90" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H90" s="31"/>
       <c r="I90" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J90" s="31">
         <v>12</v>
@@ -27150,7 +27147,7 @@
         <v>699</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C91" s="31">
         <v>22.34</v>
@@ -27160,14 +27157,14 @@
         <v>63</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H91" s="31"/>
       <c r="I91" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J91" s="31">
         <v>12</v>
@@ -27196,7 +27193,7 @@
         <v>700</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C92" s="31">
         <v>23.37</v>
@@ -27206,14 +27203,14 @@
         <v>63</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G92" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H92" s="31"/>
       <c r="I92" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J92" s="31">
         <v>12</v>
@@ -27242,7 +27239,7 @@
         <v>701</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C93" s="31">
         <v>30.08</v>
@@ -27252,14 +27249,14 @@
         <v>63</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G93" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H93" s="31"/>
       <c r="I93" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J93" s="31">
         <v>12</v>
@@ -27288,7 +27285,7 @@
         <v>702</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C94" s="31">
         <v>29.67</v>
@@ -27298,14 +27295,14 @@
         <v>63</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G94" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H94" s="31"/>
       <c r="I94" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J94" s="31">
         <v>12</v>
@@ -27334,7 +27331,7 @@
         <v>703</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C95" s="31">
         <v>54.04</v>
@@ -27344,14 +27341,14 @@
         <v>63</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H95" s="31"/>
       <c r="I95" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J95" s="31">
         <v>12</v>
@@ -27380,7 +27377,7 @@
         <v>704</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C96" s="31">
         <v>81.180000000000007</v>
@@ -27390,14 +27387,14 @@
         <v>63</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H96" s="31"/>
       <c r="I96" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J96" s="31">
         <v>12</v>
@@ -27426,7 +27423,7 @@
         <v>705</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C97" s="31">
         <v>119.73</v>
@@ -27436,14 +27433,14 @@
         <v>63</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H97" s="31"/>
       <c r="I97" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J97" s="31">
         <v>12</v>
@@ -27472,7 +27469,7 @@
         <v>706</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C98" s="31">
         <v>151.78</v>
@@ -27482,14 +27479,14 @@
         <v>63</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H98" s="31"/>
       <c r="I98" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J98" s="31">
         <v>12</v>
@@ -27518,7 +27515,7 @@
         <v>707</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C99" s="31">
         <v>181.77</v>
@@ -27528,14 +27525,14 @@
         <v>63</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G99" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H99" s="31"/>
       <c r="I99" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J99" s="31">
         <v>12</v>
@@ -27564,7 +27561,7 @@
         <v>708</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C100" s="31">
         <v>244.98</v>
@@ -27574,14 +27571,14 @@
         <v>63</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H100" s="31"/>
       <c r="I100" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J100" s="31">
         <v>12</v>
@@ -27610,7 +27607,7 @@
         <v>709</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C101" s="31">
         <v>243.14</v>
@@ -27620,14 +27617,14 @@
         <v>63</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H101" s="31"/>
       <c r="I101" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J101" s="31">
         <v>12</v>
@@ -27656,7 +27653,7 @@
         <v>711</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C102" s="31">
         <v>283.44</v>
@@ -27666,14 +27663,14 @@
         <v>63</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G102" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H102" s="31"/>
       <c r="I102" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J102" s="31">
         <v>12</v>
@@ -27702,7 +27699,7 @@
         <v>713</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C103" s="31">
         <v>340.64</v>
@@ -27712,14 +27709,14 @@
         <v>63</v>
       </c>
       <c r="F103" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G103" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H103" s="31"/>
       <c r="I103" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J103" s="31">
         <v>12</v>
@@ -27748,7 +27745,7 @@
         <v>715</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C104" s="31">
         <v>381.82</v>
@@ -27758,14 +27755,14 @@
         <v>63</v>
       </c>
       <c r="F104" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G104" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H104" s="31"/>
       <c r="I104" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J104" s="31">
         <v>12</v>
@@ -27794,7 +27791,7 @@
         <v>717</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C105" s="31">
         <v>55.26</v>
@@ -27804,14 +27801,14 @@
         <v>63</v>
       </c>
       <c r="F105" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G105" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H105" s="31"/>
       <c r="I105" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J105" s="31">
         <v>12</v>
@@ -27840,7 +27837,7 @@
         <v>718</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C106" s="31">
         <v>77.36</v>
@@ -27850,14 +27847,14 @@
         <v>63</v>
       </c>
       <c r="F106" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G106" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H106" s="31"/>
       <c r="I106" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J106" s="31">
         <v>12</v>
@@ -27886,7 +27883,7 @@
         <v>719</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C107" s="31">
         <v>169.46</v>
@@ -27896,14 +27893,14 @@
         <v>63</v>
       </c>
       <c r="F107" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G107" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H107" s="31"/>
       <c r="I107" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J107" s="31">
         <v>12</v>
@@ -27932,7 +27929,7 @@
         <v>720</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C108" s="31">
         <v>329.71</v>
@@ -27942,14 +27939,14 @@
         <v>63</v>
       </c>
       <c r="F108" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G108" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H108" s="31"/>
       <c r="I108" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J108" s="31">
         <v>12</v>
@@ -27978,7 +27975,7 @@
         <v>722</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C109" s="31">
         <v>418.13</v>
@@ -27988,14 +27985,14 @@
         <v>63</v>
       </c>
       <c r="F109" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H109" s="31"/>
       <c r="I109" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J109" s="31">
         <v>12</v>
@@ -28024,7 +28021,7 @@
         <v>724</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C110" s="31">
         <v>552.59</v>
@@ -28034,14 +28031,14 @@
         <v>63</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G110" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H110" s="31"/>
       <c r="I110" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J110" s="31">
         <v>12</v>
@@ -28070,7 +28067,7 @@
         <v>726</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C111" s="31">
         <v>21.07</v>
@@ -28080,14 +28077,14 @@
         <v>63</v>
       </c>
       <c r="F111" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G111" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H111" s="31"/>
       <c r="I111" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J111" s="31">
         <v>12</v>
@@ -28113,10 +28110,10 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C112" s="31">
         <v>44.21</v>
@@ -28126,14 +28123,14 @@
         <v>63</v>
       </c>
       <c r="F112" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G112" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H112" s="31"/>
       <c r="I112" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J112" s="31">
         <v>12</v>
@@ -28159,10 +28156,10 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C113" s="31">
         <v>61.06</v>
@@ -28172,14 +28169,14 @@
         <v>63</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G113" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H113" s="31"/>
       <c r="I113" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J113" s="31">
         <v>12</v>
@@ -28205,10 +28202,10 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C114" s="31">
         <v>88.41</v>
@@ -28218,14 +28215,14 @@
         <v>63</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G114" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H114" s="31"/>
       <c r="I114" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J114" s="31">
         <v>12</v>
@@ -28251,10 +28248,10 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C115" s="31">
         <v>142.57</v>
@@ -28264,14 +28261,14 @@
         <v>63</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G115" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H115" s="31"/>
       <c r="I115" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J115" s="31">
         <v>12</v>
@@ -28297,10 +28294,10 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C116" s="31">
         <v>217.35</v>
@@ -28310,14 +28307,14 @@
         <v>63</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G116" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H116" s="31"/>
       <c r="I116" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J116" s="31">
         <v>12</v>
@@ -28343,10 +28340,10 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C117" s="31">
         <v>302.08</v>
@@ -28356,14 +28353,14 @@
         <v>63</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G117" s="31" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H117" s="31"/>
       <c r="I117" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="J117" s="31">
         <v>12</v>
@@ -28410,7 +28407,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -28434,7 +28431,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -28486,10 +28483,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C3" s="27">
         <v>15.6</v>
@@ -28506,7 +28503,7 @@
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J3" s="27">
         <v>24</v>
@@ -28529,10 +28526,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -28547,7 +28544,7 @@
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J4" s="27">
         <v>24</v>
@@ -28570,10 +28567,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C5" s="27">
         <v>18</v>
@@ -28590,7 +28587,7 @@
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J5" s="27">
         <v>24</v>
@@ -28613,10 +28610,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C6" s="27">
         <v>27</v>
@@ -28633,7 +28630,7 @@
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J6" s="27">
         <v>24</v>
@@ -28677,7 +28674,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -28701,7 +28698,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -28779,7 +28776,7 @@
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J3" s="27">
         <v>24</v>
@@ -28829,7 +28826,7 @@
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J4" s="27">
         <v>24</v>
@@ -28879,7 +28876,7 @@
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J5" s="27">
         <v>24</v>
@@ -28929,7 +28926,7 @@
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J6" s="27">
         <v>24</v>
@@ -28979,7 +28976,7 @@
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J7" s="27">
         <v>24</v>
@@ -29027,7 +29024,7 @@
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J8" s="27">
         <v>24</v>
@@ -29073,7 +29070,7 @@
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J9" s="27">
         <v>24</v>
@@ -29119,7 +29116,7 @@
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J10" s="27">
         <v>24</v>
@@ -29167,7 +29164,7 @@
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J11" s="27">
         <v>24</v>
@@ -29215,7 +29212,7 @@
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J12" s="27">
         <v>24</v>
@@ -29263,7 +29260,7 @@
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J13" s="27">
         <v>24</v>
@@ -29311,7 +29308,7 @@
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J14" s="27">
         <v>24</v>
@@ -29348,7 +29345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -29372,7 +29369,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -29396,7 +29393,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -29524,11 +29521,11 @@
         <v>784</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J3" s="27">
         <v>12</v>
@@ -29600,11 +29597,11 @@
         <v>784</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J4" s="27">
         <v>12</v>
@@ -29663,7 +29660,7 @@
         <v>783</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C5" s="27">
         <v>118</v>
@@ -29676,11 +29673,11 @@
         <v>782</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J5" s="27">
         <v>12</v>
@@ -29739,7 +29736,7 @@
         <v>781</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C6" s="27">
         <v>190</v>
@@ -29752,11 +29749,11 @@
         <v>780</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J6" s="27">
         <v>12</v>
@@ -29828,11 +29825,11 @@
         <v>777</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J7" s="27">
         <v>12</v>
@@ -29904,11 +29901,11 @@
         <v>777</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J8" s="27">
         <v>12</v>
@@ -29967,7 +29964,7 @@
         <v>776</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C9" s="27">
         <v>157</v>
@@ -29980,11 +29977,11 @@
         <v>775</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J9" s="27">
         <v>12</v>
@@ -30043,7 +30040,7 @@
         <v>774</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C10" s="27">
         <v>190</v>
@@ -30056,11 +30053,11 @@
         <v>773</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J10" s="27">
         <v>12</v>
@@ -30121,7 +30118,7 @@
         <v>772</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C11" s="27">
         <v>220</v>
@@ -30134,11 +30131,11 @@
         <v>771</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J11" s="27">
         <v>12</v>
@@ -30199,7 +30196,7 @@
         <v>770</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C12" s="27">
         <v>252</v>
@@ -30212,11 +30209,11 @@
         <v>769</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J12" s="27">
         <v>12</v>
@@ -30277,7 +30274,7 @@
         <v>768</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C13" s="27">
         <v>283</v>
@@ -30290,11 +30287,11 @@
         <v>767</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J13" s="27">
         <v>12</v>
@@ -30355,7 +30352,7 @@
         <v>766</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C14" s="27">
         <v>315</v>
@@ -30368,11 +30365,11 @@
         <v>765</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J14" s="27">
         <v>12</v>
@@ -30433,7 +30430,7 @@
         <v>764</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C15" s="27">
         <v>421</v>
@@ -30446,11 +30443,11 @@
         <v>763</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J15" s="27">
         <v>12</v>
@@ -30511,7 +30508,7 @@
         <v>762</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C16" s="27">
         <v>298</v>
@@ -30524,11 +30521,11 @@
         <v>761</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="J16" s="27">
         <v>12</v>
@@ -30598,7 +30595,7 @@
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J17" s="27">
         <v>60</v>
@@ -30641,7 +30638,7 @@
         <v>759</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C18" s="27">
         <v>240</v>
@@ -30656,7 +30653,7 @@
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J18" s="27">
         <v>60</v>
@@ -30714,7 +30711,7 @@
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="J19" s="27">
         <v>60</v>
@@ -30791,7 +30788,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -30815,7 +30812,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -30900,7 +30897,7 @@
         <v>823</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C3" s="27">
         <v>297</v>
@@ -30913,11 +30910,11 @@
         <v>822</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J3" s="27">
         <v>12</v>
@@ -30952,7 +30949,7 @@
         <v>821</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C4" s="27">
         <v>297</v>
@@ -30965,11 +30962,11 @@
         <v>820</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J4" s="27">
         <v>12</v>
@@ -31004,7 +31001,7 @@
         <v>819</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C5" s="27">
         <v>335</v>
@@ -31017,11 +31014,11 @@
         <v>818</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J5" s="27">
         <v>12</v>
@@ -31056,7 +31053,7 @@
         <v>817</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C6" s="27">
         <v>335</v>
@@ -31069,11 +31066,11 @@
         <v>816</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J6" s="27">
         <v>12</v>
@@ -31148,7 +31145,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -31172,7 +31169,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -31251,7 +31248,7 @@
         <v>844</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C3" s="27">
         <v>244</v>
@@ -31264,11 +31261,11 @@
         <v>843</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="J3" s="27">
         <v>12</v>
@@ -31345,7 +31342,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31357,7 +31354,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -31381,7 +31378,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -31439,7 +31436,7 @@
         <v>876</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C3" s="27">
         <v>190</v>
@@ -31452,11 +31449,11 @@
         <v>875</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="J3" s="27">
         <v>12</v>
@@ -31501,7 +31498,7 @@
         <v>873</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C4" s="27">
         <v>290</v>
@@ -31514,11 +31511,11 @@
         <v>872</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="J4" s="27">
         <v>12</v>
@@ -31563,7 +31560,7 @@
         <v>871</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C5" s="27">
         <v>308</v>
@@ -31576,11 +31573,11 @@
         <v>867</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="J5" s="27">
         <v>12</v>
@@ -31625,7 +31622,7 @@
         <v>870</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C6" s="27">
         <v>650</v>
@@ -31638,11 +31635,11 @@
         <v>867</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="J6" s="27">
         <v>12</v>
@@ -31687,7 +31684,7 @@
         <v>869</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C7" s="27">
         <v>305</v>
@@ -31700,11 +31697,11 @@
         <v>867</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="J7" s="27">
         <v>12</v>
@@ -31749,7 +31746,7 @@
         <v>868</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C8" s="27">
         <v>290</v>
@@ -31762,11 +31759,11 @@
         <v>867</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="J8" s="27">
         <v>12</v>
@@ -31811,7 +31808,7 @@
         <v>865</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C9" s="27">
         <v>426</v>
@@ -31824,11 +31821,11 @@
         <v>863</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="J9" s="27">
         <v>12</v>
@@ -31873,7 +31870,7 @@
         <v>864</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C10" s="27">
         <v>487</v>
@@ -31886,11 +31883,11 @@
         <v>863</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="J10" s="27">
         <v>12</v>
@@ -31935,7 +31932,7 @@
         <v>861</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C11" s="27">
         <v>457</v>
@@ -31948,11 +31945,11 @@
         <v>860</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="J11" s="27">
         <v>12</v>
@@ -31997,7 +31994,7 @@
         <v>859</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C12" s="27">
         <v>586</v>
@@ -32010,11 +32007,11 @@
         <v>858</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>932</v>
+        <v>1429</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="J12" s="27">
         <v>12</v>

--- a/src/WebMarket/WebMarket/App_Data/Products.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="avr" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4246" uniqueCount="1430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4246" uniqueCount="1422">
   <si>
     <t>Точність</t>
   </si>
@@ -2812,9 +2812,6 @@
     <t>Volter</t>
   </si>
   <si>
-    <t>Вольт</t>
-  </si>
-  <si>
     <t>Phantom</t>
   </si>
   <si>
@@ -3007,9 +3004,6 @@
     <t>LX 6120 12Ah</t>
   </si>
   <si>
-    <t>LX1272 7.2Ah</t>
-  </si>
-  <si>
     <t>LX645-4.5Ah</t>
   </si>
   <si>
@@ -3094,33 +3088,9 @@
     <t>LX12-65MG-65Ah</t>
   </si>
   <si>
-    <t>B5-6-6В-5Ah</t>
-  </si>
-  <si>
-    <t>B12-6-6В-12Ah</t>
-  </si>
-  <si>
     <t>B7.5-12-7.5Ah</t>
   </si>
   <si>
-    <t>BG25-12-12В-25Ah</t>
-  </si>
-  <si>
-    <t>BG55-12-12В-55Ah</t>
-  </si>
-  <si>
-    <t>B70-12-12В-70Ah</t>
-  </si>
-  <si>
-    <t>B100-12-12В-100Ah</t>
-  </si>
-  <si>
-    <t>BG110-12-12В-110Ah</t>
-  </si>
-  <si>
-    <t>B160-12-12В-160Ah</t>
-  </si>
-  <si>
     <t>GP-6-1.3</t>
   </si>
   <si>
@@ -3355,9 +3325,6 @@
     <t>FTB-155-12</t>
   </si>
   <si>
-    <t>BС-7-12</t>
-  </si>
-  <si>
     <t>BС 12-12</t>
   </si>
   <si>
@@ -3376,24 +3343,6 @@
     <t>BС 100-12</t>
   </si>
   <si>
-    <t>BС-12-12</t>
-  </si>
-  <si>
-    <t>BС-17-12</t>
-  </si>
-  <si>
-    <t>BС-28-12</t>
-  </si>
-  <si>
-    <t>BС-42-12</t>
-  </si>
-  <si>
-    <t>BС-65-12</t>
-  </si>
-  <si>
-    <t>BС-100-12</t>
-  </si>
-  <si>
     <t>MAX-300</t>
   </si>
   <si>
@@ -3403,27 +3352,6 @@
     <t>UPS-300-offline</t>
   </si>
   <si>
-    <t>S1203B-3А-12В-36V</t>
-  </si>
-  <si>
-    <t>PS1205B-5А-12В-60W</t>
-  </si>
-  <si>
-    <t>PS1205A-5А-12В-60W</t>
-  </si>
-  <si>
-    <t>PS1203A-3А-12В-36W</t>
-  </si>
-  <si>
-    <t>PSC-3512-3A-12В-34W</t>
-  </si>
-  <si>
-    <t>PSC-6012-5A-12В-60W</t>
-  </si>
-  <si>
-    <t>PSC-12012-10A-12В-117W</t>
-  </si>
-  <si>
     <t>VN-600F</t>
   </si>
   <si>
@@ -3487,18 +3415,6 @@
     <t>VNTP-846</t>
   </si>
   <si>
-    <t>VS726-115-220)</t>
-  </si>
-  <si>
-    <t>VS726-135-240)</t>
-  </si>
-  <si>
-    <t>VS726-160-265)</t>
-  </si>
-  <si>
-    <t>VS726-185-290)</t>
-  </si>
-  <si>
     <t>VS-722-115-220</t>
   </si>
   <si>
@@ -4192,27 +4108,6 @@
     <t>22ptsh-prom</t>
   </si>
   <si>
-    <t>ЕСО-300</t>
-  </si>
-  <si>
-    <t>ЕСО-600</t>
-  </si>
-  <si>
-    <t>ЕСО-1200</t>
-  </si>
-  <si>
-    <t>ЕСО-4000</t>
-  </si>
-  <si>
-    <t>ЕСО-5000</t>
-  </si>
-  <si>
-    <t>ЕСО-6000</t>
-  </si>
-  <si>
-    <t>ЕСО-7000</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -4313,6 +4208,87 @@
   </si>
   <si>
     <t>Energohit</t>
+  </si>
+  <si>
+    <t>PS1203A-3A-12B-36W</t>
+  </si>
+  <si>
+    <t>PS1205A-5A-12B-60W</t>
+  </si>
+  <si>
+    <t>S1203B-3A-12B-36V</t>
+  </si>
+  <si>
+    <t>PS1205B-5A-12B-60W</t>
+  </si>
+  <si>
+    <t>PSC-3512-3A-12B-34W</t>
+  </si>
+  <si>
+    <t>PSC-6012-5A-12B-60W</t>
+  </si>
+  <si>
+    <t>PSC-12012-10A-12B-117W</t>
+  </si>
+  <si>
+    <t>LX1272-7.2Ah</t>
+  </si>
+  <si>
+    <t>B5-6-6B-5Ah</t>
+  </si>
+  <si>
+    <t>B12-6-6B-12Ah</t>
+  </si>
+  <si>
+    <t>BG25-12-12B-25Ah</t>
+  </si>
+  <si>
+    <t>BG55-12-12B-55Ah</t>
+  </si>
+  <si>
+    <t>B70-12-12B-70Ah</t>
+  </si>
+  <si>
+    <t>B100-12-12B-100Ah</t>
+  </si>
+  <si>
+    <t>BG110-12-12B-110Ah</t>
+  </si>
+  <si>
+    <t>B160-12-12B-160Ah</t>
+  </si>
+  <si>
+    <t>BC-7-12</t>
+  </si>
+  <si>
+    <t>BC-12-12</t>
+  </si>
+  <si>
+    <t>BC-17-12</t>
+  </si>
+  <si>
+    <t>BC-28-12</t>
+  </si>
+  <si>
+    <t>BC-42-12</t>
+  </si>
+  <si>
+    <t>BC-65-12</t>
+  </si>
+  <si>
+    <t>BC-100-12</t>
+  </si>
+  <si>
+    <t>VS726-115-220</t>
+  </si>
+  <si>
+    <t>VS726-135-240</t>
+  </si>
+  <si>
+    <t>VS726-160-265</t>
+  </si>
+  <si>
+    <t>VS726-185-290</t>
   </si>
 </sst>
 </file>
@@ -5121,8 +5097,8 @@
   <dimension ref="A1:AN268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G261" sqref="G261"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5132,7 +5108,7 @@
     <col min="3" max="3" width="7" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1" outlineLevel="1"/>
@@ -5171,7 +5147,7 @@
   <sheetData>
     <row r="1" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -5195,7 +5171,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1396</v>
+        <v>1361</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -5360,7 +5336,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1133</v>
+        <v>1109</v>
       </c>
       <c r="C3" s="10">
         <v>1050</v>
@@ -5375,11 +5351,11 @@
         <v>62</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J3" s="10">
         <v>60</v>
@@ -5454,7 +5430,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1134</v>
+        <v>1110</v>
       </c>
       <c r="C4" s="10">
         <v>1950</v>
@@ -5469,10 +5445,10 @@
         <v>68</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J4" s="10">
         <v>60</v>
@@ -5516,7 +5492,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1135</v>
+        <v>1111</v>
       </c>
       <c r="C5" s="10">
         <v>3195</v>
@@ -5531,10 +5507,10 @@
         <v>71</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J5" s="10">
         <v>60</v>
@@ -5578,7 +5554,7 @@
         <v>73</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1136</v>
+        <v>1112</v>
       </c>
       <c r="C6" s="10">
         <v>3755</v>
@@ -5593,10 +5569,10 @@
         <v>71</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J6" s="10">
         <v>60</v>
@@ -5640,7 +5616,7 @@
         <v>74</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1137</v>
+        <v>1113</v>
       </c>
       <c r="C7" s="10">
         <v>4860</v>
@@ -5655,10 +5631,10 @@
         <v>71</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J7" s="10">
         <v>60</v>
@@ -5702,7 +5678,7 @@
         <v>75</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1138</v>
+        <v>1114</v>
       </c>
       <c r="C8" s="10">
         <v>5550</v>
@@ -5717,10 +5693,10 @@
         <v>71</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J8" s="10">
         <v>60</v>
@@ -5764,7 +5740,7 @@
         <v>77</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1139</v>
+        <v>1115</v>
       </c>
       <c r="C9" s="10">
         <v>5975</v>
@@ -5779,10 +5755,10 @@
         <v>71</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J9" s="10">
         <v>60</v>
@@ -5826,7 +5802,7 @@
         <v>78</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1140</v>
+        <v>1116</v>
       </c>
       <c r="C10" s="10">
         <v>5200</v>
@@ -5841,10 +5817,10 @@
         <v>71</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J10" s="10">
         <v>60</v>
@@ -5888,7 +5864,7 @@
         <v>79</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1141</v>
+        <v>1117</v>
       </c>
       <c r="C11" s="10">
         <v>6200</v>
@@ -5903,10 +5879,10 @@
         <v>71</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J11" s="10">
         <v>60</v>
@@ -5950,7 +5926,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1142</v>
+        <v>1118</v>
       </c>
       <c r="C12" s="10">
         <v>7200</v>
@@ -5965,10 +5941,10 @@
         <v>71</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J12" s="10">
         <v>60</v>
@@ -6012,7 +5988,7 @@
         <v>81</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1143</v>
+        <v>1119</v>
       </c>
       <c r="C13" s="10">
         <v>9200</v>
@@ -6027,10 +6003,10 @@
         <v>71</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J13" s="10">
         <v>60</v>
@@ -6074,7 +6050,7 @@
         <v>82</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1144</v>
+        <v>1120</v>
       </c>
       <c r="C14" s="10">
         <v>10200</v>
@@ -6089,10 +6065,10 @@
         <v>71</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J14" s="10">
         <v>60</v>
@@ -6136,7 +6112,7 @@
         <v>83</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1145</v>
+        <v>1121</v>
       </c>
       <c r="C15" s="10">
         <v>16200</v>
@@ -6151,10 +6127,10 @@
         <v>71</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J15" s="10">
         <v>60</v>
@@ -6198,7 +6174,7 @@
         <v>85</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1146</v>
+        <v>1122</v>
       </c>
       <c r="C16" s="10">
         <v>18200</v>
@@ -6213,10 +6189,10 @@
         <v>71</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J16" s="10">
         <v>60</v>
@@ -6260,7 +6236,7 @@
         <v>86</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1147</v>
+        <v>1123</v>
       </c>
       <c r="C17" s="10">
         <v>5500</v>
@@ -6275,10 +6251,10 @@
         <v>71</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J17" s="10">
         <v>60</v>
@@ -6322,7 +6298,7 @@
         <v>87</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1148</v>
+        <v>1124</v>
       </c>
       <c r="C18" s="10">
         <v>6500</v>
@@ -6337,10 +6313,10 @@
         <v>71</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J18" s="10">
         <v>60</v>
@@ -6384,7 +6360,7 @@
         <v>88</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1149</v>
+        <v>1125</v>
       </c>
       <c r="C19" s="10">
         <v>7500</v>
@@ -6399,10 +6375,10 @@
         <v>71</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J19" s="10">
         <v>60</v>
@@ -6446,7 +6422,7 @@
         <v>89</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1150</v>
+        <v>1126</v>
       </c>
       <c r="C20" s="10">
         <v>9500</v>
@@ -6461,10 +6437,10 @@
         <v>71</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J20" s="10">
         <v>60</v>
@@ -6508,7 +6484,7 @@
         <v>90</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1151</v>
+        <v>1127</v>
       </c>
       <c r="C21" s="10">
         <v>10500</v>
@@ -6523,10 +6499,10 @@
         <v>71</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J21" s="10">
         <v>60</v>
@@ -6570,7 +6546,7 @@
         <v>91</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1152</v>
+        <v>1128</v>
       </c>
       <c r="C22" s="10">
         <v>17000</v>
@@ -6585,10 +6561,10 @@
         <v>71</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J22" s="10">
         <v>60</v>
@@ -6632,7 +6608,7 @@
         <v>92</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1153</v>
+        <v>1129</v>
       </c>
       <c r="C23" s="10">
         <v>19000</v>
@@ -6647,10 +6623,10 @@
         <v>71</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J23" s="10">
         <v>60</v>
@@ -6694,7 +6670,7 @@
         <v>93</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1158</v>
+        <v>1130</v>
       </c>
       <c r="C24" s="10">
         <v>5150</v>
@@ -6709,10 +6685,10 @@
         <v>71</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J24" s="10">
         <v>60</v>
@@ -6756,7 +6732,7 @@
         <v>94</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1159</v>
+        <v>1131</v>
       </c>
       <c r="C25" s="10">
         <v>5150</v>
@@ -6771,10 +6747,10 @@
         <v>71</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J25" s="10">
         <v>60</v>
@@ -6818,7 +6794,7 @@
         <v>95</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>1160</v>
+        <v>1132</v>
       </c>
       <c r="C26" s="10">
         <v>5150</v>
@@ -6833,10 +6809,10 @@
         <v>71</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J26" s="10">
         <v>60</v>
@@ -6880,7 +6856,7 @@
         <v>96</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1161</v>
+        <v>1133</v>
       </c>
       <c r="C27" s="10">
         <v>5150</v>
@@ -6895,10 +6871,10 @@
         <v>71</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J27" s="10">
         <v>60</v>
@@ -6942,7 +6918,7 @@
         <v>97</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1162</v>
+        <v>1134</v>
       </c>
       <c r="C28" s="10">
         <v>5950</v>
@@ -6957,10 +6933,10 @@
         <v>71</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J28" s="10">
         <v>60</v>
@@ -7004,7 +6980,7 @@
         <v>98</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1163</v>
+        <v>1135</v>
       </c>
       <c r="C29" s="10">
         <v>5950</v>
@@ -7019,10 +6995,10 @@
         <v>71</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J29" s="10">
         <v>60</v>
@@ -7066,7 +7042,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>1164</v>
+        <v>1136</v>
       </c>
       <c r="C30" s="10">
         <v>5950</v>
@@ -7081,10 +7057,10 @@
         <v>71</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J30" s="10">
         <v>60</v>
@@ -7128,7 +7104,7 @@
         <v>100</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1165</v>
+        <v>1137</v>
       </c>
       <c r="C31" s="10">
         <v>5950</v>
@@ -7143,10 +7119,10 @@
         <v>71</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J31" s="10">
         <v>60</v>
@@ -7190,7 +7166,7 @@
         <v>101</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1166</v>
+        <v>1138</v>
       </c>
       <c r="C32" s="10">
         <v>6950</v>
@@ -7205,10 +7181,10 @@
         <v>71</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J32" s="10">
         <v>60</v>
@@ -7252,7 +7228,7 @@
         <v>102</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>1167</v>
+        <v>1139</v>
       </c>
       <c r="C33" s="10">
         <v>6950</v>
@@ -7267,10 +7243,10 @@
         <v>71</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J33" s="10">
         <v>60</v>
@@ -7314,7 +7290,7 @@
         <v>103</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1168</v>
+        <v>1140</v>
       </c>
       <c r="C34" s="10">
         <v>6950</v>
@@ -7329,10 +7305,10 @@
         <v>71</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J34" s="10">
         <v>60</v>
@@ -7376,7 +7352,7 @@
         <v>104</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1169</v>
+        <v>1141</v>
       </c>
       <c r="C35" s="10">
         <v>6950</v>
@@ -7391,10 +7367,10 @@
         <v>71</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J35" s="10">
         <v>60</v>
@@ -7438,7 +7414,7 @@
         <v>105</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>1170</v>
+        <v>1142</v>
       </c>
       <c r="C36" s="10">
         <v>8450</v>
@@ -7453,10 +7429,10 @@
         <v>71</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J36" s="10">
         <v>60</v>
@@ -7500,7 +7476,7 @@
         <v>106</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>1171</v>
+        <v>1143</v>
       </c>
       <c r="C37" s="10">
         <v>8450</v>
@@ -7515,10 +7491,10 @@
         <v>71</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J37" s="10">
         <v>60</v>
@@ -7562,7 +7538,7 @@
         <v>107</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>1172</v>
+        <v>1144</v>
       </c>
       <c r="C38" s="10">
         <v>8450</v>
@@ -7577,10 +7553,10 @@
         <v>71</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J38" s="10">
         <v>60</v>
@@ -7624,7 +7600,7 @@
         <v>108</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>1173</v>
+        <v>1145</v>
       </c>
       <c r="C39" s="10">
         <v>8450</v>
@@ -7639,10 +7615,10 @@
         <v>71</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J39" s="10">
         <v>60</v>
@@ -7686,7 +7662,7 @@
         <v>109</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>1174</v>
+        <v>1146</v>
       </c>
       <c r="C40" s="10">
         <v>9350</v>
@@ -7701,10 +7677,10 @@
         <v>71</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J40" s="10">
         <v>60</v>
@@ -7748,7 +7724,7 @@
         <v>110</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1175</v>
+        <v>1147</v>
       </c>
       <c r="C41" s="10">
         <v>9350</v>
@@ -7763,10 +7739,10 @@
         <v>71</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J41" s="10">
         <v>60</v>
@@ -7810,7 +7786,7 @@
         <v>111</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1176</v>
+        <v>1148</v>
       </c>
       <c r="C42" s="10">
         <v>9350</v>
@@ -7825,10 +7801,10 @@
         <v>71</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J42" s="10">
         <v>60</v>
@@ -7872,7 +7848,7 @@
         <v>112</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1177</v>
+        <v>1149</v>
       </c>
       <c r="C43" s="10">
         <v>9350</v>
@@ -7887,10 +7863,10 @@
         <v>71</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J43" s="10">
         <v>60</v>
@@ -7934,7 +7910,7 @@
         <v>113</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>1178</v>
+        <v>1150</v>
       </c>
       <c r="C44" s="10">
         <v>11550</v>
@@ -7949,10 +7925,10 @@
         <v>71</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J44" s="10">
         <v>60</v>
@@ -7996,7 +7972,7 @@
         <v>114</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>1179</v>
+        <v>1151</v>
       </c>
       <c r="C45" s="10">
         <v>11550</v>
@@ -8011,10 +7987,10 @@
         <v>71</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J45" s="10">
         <v>60</v>
@@ -8058,7 +8034,7 @@
         <v>115</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>1180</v>
+        <v>1152</v>
       </c>
       <c r="C46" s="10">
         <v>11550</v>
@@ -8073,10 +8049,10 @@
         <v>71</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J46" s="10">
         <v>60</v>
@@ -8120,7 +8096,7 @@
         <v>116</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1181</v>
+        <v>1153</v>
       </c>
       <c r="C47" s="10">
         <v>11550</v>
@@ -8135,10 +8111,10 @@
         <v>71</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J47" s="10">
         <v>60</v>
@@ -8182,7 +8158,7 @@
         <v>117</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>1154</v>
+        <v>1418</v>
       </c>
       <c r="C48" s="10">
         <v>12850</v>
@@ -8197,10 +8173,10 @@
         <v>71</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J48" s="10">
         <v>60</v>
@@ -8244,7 +8220,7 @@
         <v>118</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>1155</v>
+        <v>1419</v>
       </c>
       <c r="C49" s="10">
         <v>12850</v>
@@ -8259,10 +8235,10 @@
         <v>71</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J49" s="10">
         <v>60</v>
@@ -8306,7 +8282,7 @@
         <v>119</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>1156</v>
+        <v>1420</v>
       </c>
       <c r="C50" s="10">
         <v>12850</v>
@@ -8321,10 +8297,10 @@
         <v>71</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J50" s="10">
         <v>60</v>
@@ -8368,7 +8344,7 @@
         <v>120</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1157</v>
+        <v>1421</v>
       </c>
       <c r="C51" s="10">
         <v>12850</v>
@@ -8383,10 +8359,10 @@
         <v>71</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>1398</v>
+        <v>1363</v>
       </c>
       <c r="J51" s="10">
         <v>60</v>
@@ -8430,7 +8406,7 @@
         <v>121</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>1182</v>
+        <v>1154</v>
       </c>
       <c r="C52" s="6">
         <v>95.2</v>
@@ -8451,7 +8427,7 @@
         <v>122</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>1399</v>
+        <v>1364</v>
       </c>
       <c r="J52" s="6">
         <v>24</v>
@@ -8495,7 +8471,7 @@
         <v>124</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>1183</v>
+        <v>1155</v>
       </c>
       <c r="C53" s="6">
         <v>105</v>
@@ -8516,7 +8492,7 @@
         <v>122</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>1399</v>
+        <v>1364</v>
       </c>
       <c r="J53" s="6">
         <v>24</v>
@@ -8560,7 +8536,7 @@
         <v>125</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>1184</v>
+        <v>1156</v>
       </c>
       <c r="C54" s="6">
         <v>135.79999999999998</v>
@@ -8581,7 +8557,7 @@
         <v>122</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>1399</v>
+        <v>1364</v>
       </c>
       <c r="J54" s="6">
         <v>24</v>
@@ -8625,7 +8601,7 @@
         <v>127</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>1185</v>
+        <v>1157</v>
       </c>
       <c r="C55" s="6">
         <v>182</v>
@@ -8646,7 +8622,7 @@
         <v>128</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>1399</v>
+        <v>1364</v>
       </c>
       <c r="J55" s="6">
         <v>24</v>
@@ -8690,7 +8666,7 @@
         <v>130</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>1186</v>
+        <v>1158</v>
       </c>
       <c r="C56" s="6">
         <v>315</v>
@@ -8711,7 +8687,7 @@
         <v>128</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>1399</v>
+        <v>1364</v>
       </c>
       <c r="J56" s="6">
         <v>24</v>
@@ -8755,7 +8731,7 @@
         <v>132</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>1187</v>
+        <v>1159</v>
       </c>
       <c r="C57" s="6">
         <v>434</v>
@@ -8776,7 +8752,7 @@
         <v>128</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>1399</v>
+        <v>1364</v>
       </c>
       <c r="J57" s="6">
         <v>24</v>
@@ -8820,7 +8796,7 @@
         <v>134</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>1203</v>
+        <v>1175</v>
       </c>
       <c r="C58" s="6">
         <v>25.2</v>
@@ -8838,7 +8814,7 @@
         <v>927</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J58" s="6">
         <v>24</v>
@@ -8873,7 +8849,7 @@
         <v>136</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>1205</v>
+        <v>1177</v>
       </c>
       <c r="C59" s="6">
         <v>25.2</v>
@@ -8891,7 +8867,7 @@
         <v>927</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J59" s="6">
         <v>24</v>
@@ -8926,7 +8902,7 @@
         <v>138</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>1188</v>
+        <v>1160</v>
       </c>
       <c r="C60" s="6">
         <v>25.2</v>
@@ -8944,7 +8920,7 @@
         <v>927</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J60" s="6">
         <v>24</v>
@@ -8979,7 +8955,7 @@
         <v>139</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>1189</v>
+        <v>1161</v>
       </c>
       <c r="C61" s="6">
         <v>36.4</v>
@@ -9000,7 +8976,7 @@
         <v>122</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J61" s="6">
         <v>24</v>
@@ -9041,7 +9017,7 @@
         <v>141</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>1190</v>
+        <v>1162</v>
       </c>
       <c r="C62" s="6">
         <v>47.25</v>
@@ -9062,7 +9038,7 @@
         <v>122</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J62" s="6">
         <v>24</v>
@@ -9103,7 +9079,7 @@
         <v>142</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>1191</v>
+        <v>1163</v>
       </c>
       <c r="C63" s="6">
         <v>0</v>
@@ -9121,7 +9097,7 @@
         <v>122</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J63" s="6">
         <v>24</v>
@@ -9162,7 +9138,7 @@
         <v>145</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>1204</v>
+        <v>1176</v>
       </c>
       <c r="C64" s="6">
         <v>26.599999999999998</v>
@@ -9180,7 +9156,7 @@
         <v>927</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J64" s="6">
         <v>24</v>
@@ -9215,7 +9191,7 @@
         <v>147</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>1206</v>
+        <v>1178</v>
       </c>
       <c r="C65" s="6">
         <v>26.599999999999998</v>
@@ -9233,7 +9209,7 @@
         <v>927</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J65" s="6">
         <v>24</v>
@@ -9268,7 +9244,7 @@
         <v>149</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>1192</v>
+        <v>1164</v>
       </c>
       <c r="C66" s="6">
         <v>30.799999999999997</v>
@@ -9286,7 +9262,7 @@
         <v>927</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J66" s="6">
         <v>24</v>
@@ -9321,7 +9297,7 @@
         <v>150</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>1193</v>
+        <v>1165</v>
       </c>
       <c r="C67" s="6">
         <v>29.4</v>
@@ -9339,7 +9315,7 @@
         <v>927</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J67" s="6">
         <v>24</v>
@@ -9374,7 +9350,7 @@
         <v>151</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>1211</v>
+        <v>1183</v>
       </c>
       <c r="C68" s="6">
         <v>33.599999999999994</v>
@@ -9392,7 +9368,7 @@
         <v>927</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J68" s="6">
         <v>24</v>
@@ -9427,7 +9403,7 @@
         <v>153</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>1212</v>
+        <v>1184</v>
       </c>
       <c r="C69" s="6">
         <v>30.799999999999997</v>
@@ -9445,7 +9421,7 @@
         <v>927</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J69" s="6">
         <v>24</v>
@@ -9474,7 +9450,7 @@
         <v>154</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>1194</v>
+        <v>1166</v>
       </c>
       <c r="C70" s="6">
         <v>32.199999999999996</v>
@@ -9492,7 +9468,7 @@
         <v>927</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J70" s="6">
         <v>24</v>
@@ -9521,7 +9497,7 @@
         <v>155</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>1195</v>
+        <v>1167</v>
       </c>
       <c r="C71" s="6">
         <v>30.799999999999997</v>
@@ -9539,7 +9515,7 @@
         <v>927</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J71" s="6">
         <v>24</v>
@@ -9571,7 +9547,7 @@
         <v>156</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>1213</v>
+        <v>1185</v>
       </c>
       <c r="C72" s="6">
         <v>32.199999999999996</v>
@@ -9589,7 +9565,7 @@
         <v>927</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J72" s="6">
         <v>24</v>
@@ -9618,7 +9594,7 @@
         <v>157</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>1214</v>
+        <v>1186</v>
       </c>
       <c r="C73" s="6">
         <v>35</v>
@@ -9636,7 +9612,7 @@
         <v>927</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J73" s="6">
         <v>24</v>
@@ -9671,7 +9647,7 @@
         <v>158</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>1215</v>
+        <v>1187</v>
       </c>
       <c r="C74" s="6">
         <v>39.199999999999996</v>
@@ -9689,7 +9665,7 @@
         <v>927</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J74" s="6">
         <v>24</v>
@@ -9721,7 +9697,7 @@
         <v>160</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>1207</v>
+        <v>1179</v>
       </c>
       <c r="C75" s="6">
         <v>39.9</v>
@@ -9739,7 +9715,7 @@
         <v>927</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J75" s="6">
         <v>24</v>
@@ -9771,7 +9747,7 @@
         <v>162</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>1216</v>
+        <v>1188</v>
       </c>
       <c r="C76" s="6">
         <v>42</v>
@@ -9789,7 +9765,7 @@
         <v>927</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J76" s="6">
         <v>24</v>
@@ -9824,7 +9800,7 @@
         <v>163</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>1217</v>
+        <v>1189</v>
       </c>
       <c r="C77" s="6">
         <v>49</v>
@@ -9842,7 +9818,7 @@
         <v>927</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J77" s="6">
         <v>24</v>
@@ -9877,7 +9853,7 @@
         <v>164</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>1196</v>
+        <v>1168</v>
       </c>
       <c r="C78" s="6">
         <v>53.199999999999996</v>
@@ -9895,7 +9871,7 @@
         <v>927</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J78" s="6">
         <v>24</v>
@@ -9927,7 +9903,7 @@
         <v>165</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>1208</v>
+        <v>1180</v>
       </c>
       <c r="C79" s="6">
         <v>54.599999999999994</v>
@@ -9945,7 +9921,7 @@
         <v>927</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J79" s="6">
         <v>24</v>
@@ -9977,7 +9953,7 @@
         <v>167</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>1218</v>
+        <v>1190</v>
       </c>
       <c r="C80" s="6">
         <v>53.199999999999996</v>
@@ -9995,7 +9971,7 @@
         <v>927</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J80" s="6">
         <v>24</v>
@@ -10027,7 +10003,7 @@
         <v>169</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>1219</v>
+        <v>1191</v>
       </c>
       <c r="C81" s="6">
         <v>53.199999999999996</v>
@@ -10045,7 +10021,7 @@
         <v>927</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J81" s="6">
         <v>24</v>
@@ -10077,7 +10053,7 @@
         <v>171</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>1220</v>
+        <v>1192</v>
       </c>
       <c r="C82" s="6">
         <v>57.4</v>
@@ -10095,7 +10071,7 @@
         <v>927</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J82" s="6">
         <v>24</v>
@@ -10127,7 +10103,7 @@
         <v>172</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1221</v>
+        <v>1193</v>
       </c>
       <c r="C83" s="6">
         <v>68.599999999999994</v>
@@ -10145,7 +10121,7 @@
         <v>927</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J83" s="6">
         <v>24</v>
@@ -10180,7 +10156,7 @@
         <v>173</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1197</v>
+        <v>1169</v>
       </c>
       <c r="C84" s="6">
         <v>89.6</v>
@@ -10198,7 +10174,7 @@
         <v>927</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J84" s="6">
         <v>24</v>
@@ -10230,7 +10206,7 @@
         <v>174</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1198</v>
+        <v>1170</v>
       </c>
       <c r="C85" s="6">
         <v>89.6</v>
@@ -10248,7 +10224,7 @@
         <v>927</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J85" s="6">
         <v>24</v>
@@ -10280,7 +10256,7 @@
         <v>175</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1209</v>
+        <v>1181</v>
       </c>
       <c r="C86" s="6">
         <v>92.399999999999991</v>
@@ -10298,7 +10274,7 @@
         <v>927</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J86" s="6">
         <v>24</v>
@@ -10330,7 +10306,7 @@
         <v>177</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1222</v>
+        <v>1194</v>
       </c>
       <c r="C87" s="6">
         <v>89.6</v>
@@ -10348,7 +10324,7 @@
         <v>927</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J87" s="6">
         <v>24</v>
@@ -10380,7 +10356,7 @@
         <v>178</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>1223</v>
+        <v>1195</v>
       </c>
       <c r="C88" s="6">
         <v>95.199999999999989</v>
@@ -10398,7 +10374,7 @@
         <v>927</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J88" s="6">
         <v>24</v>
@@ -10433,7 +10409,7 @@
         <v>179</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>1199</v>
+        <v>1171</v>
       </c>
       <c r="C89" s="6">
         <v>114.8</v>
@@ -10451,7 +10427,7 @@
         <v>927</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J89" s="6">
         <v>24</v>
@@ -10483,7 +10459,7 @@
         <v>180</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>1200</v>
+        <v>1172</v>
       </c>
       <c r="C90" s="6">
         <v>114.8</v>
@@ -10501,7 +10477,7 @@
         <v>927</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J90" s="6">
         <v>24</v>
@@ -10533,7 +10509,7 @@
         <v>181</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>1224</v>
+        <v>1196</v>
       </c>
       <c r="C91" s="6">
         <v>114.8</v>
@@ -10554,7 +10530,7 @@
         <v>128</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J91" s="6">
         <v>24</v>
@@ -10586,7 +10562,7 @@
         <v>183</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>1225</v>
+        <v>1197</v>
       </c>
       <c r="C92" s="6">
         <v>118.99999999999999</v>
@@ -10607,7 +10583,7 @@
         <v>128</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J92" s="6">
         <v>24</v>
@@ -10639,7 +10615,7 @@
         <v>184</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>1226</v>
+        <v>1198</v>
       </c>
       <c r="C93" s="6">
         <v>154</v>
@@ -10657,7 +10633,7 @@
         <v>927</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J93" s="6">
         <v>24</v>
@@ -10692,7 +10668,7 @@
         <v>186</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>1227</v>
+        <v>1199</v>
       </c>
       <c r="C94" s="6">
         <v>217</v>
@@ -10710,7 +10686,7 @@
         <v>927</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J94" s="6">
         <v>24</v>
@@ -10745,7 +10721,7 @@
         <v>188</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>1228</v>
+        <v>1200</v>
       </c>
       <c r="C95" s="6">
         <v>224</v>
@@ -10763,7 +10739,7 @@
         <v>927</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J95" s="6">
         <v>24</v>
@@ -10795,7 +10771,7 @@
         <v>190</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>1229</v>
+        <v>1201</v>
       </c>
       <c r="C96" s="6">
         <v>224</v>
@@ -10813,7 +10789,7 @@
         <v>927</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J96" s="6">
         <v>24</v>
@@ -10845,7 +10821,7 @@
         <v>192</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>1201</v>
+        <v>1173</v>
       </c>
       <c r="C97" s="6">
         <v>210</v>
@@ -10863,7 +10839,7 @@
         <v>927</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J97" s="6">
         <v>24</v>
@@ -10895,7 +10871,7 @@
         <v>193</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>1202</v>
+        <v>1174</v>
       </c>
       <c r="C98" s="6">
         <v>224</v>
@@ -10913,7 +10889,7 @@
         <v>927</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J98" s="6">
         <v>24</v>
@@ -10945,7 +10921,7 @@
         <v>194</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>1210</v>
+        <v>1182</v>
       </c>
       <c r="C99" s="6">
         <v>228.2</v>
@@ -10963,7 +10939,7 @@
         <v>927</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J99" s="6">
         <v>24</v>
@@ -10995,7 +10971,7 @@
         <v>196</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>1230</v>
+        <v>1202</v>
       </c>
       <c r="C100" s="6">
         <v>263.2</v>
@@ -11016,7 +10992,7 @@
         <v>128</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J100" s="6">
         <v>24</v>
@@ -11051,7 +11027,7 @@
         <v>198</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>1231</v>
+        <v>1203</v>
       </c>
       <c r="C101" s="6">
         <v>322</v>
@@ -11072,7 +11048,7 @@
         <v>122</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J101" s="6">
         <v>24</v>
@@ -11098,7 +11074,7 @@
         <v>199</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>1232</v>
+        <v>1204</v>
       </c>
       <c r="C102" s="6">
         <v>406</v>
@@ -11116,7 +11092,7 @@
         <v>927</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J102" s="6">
         <v>24</v>
@@ -11154,7 +11130,7 @@
         <v>201</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>1233</v>
+        <v>1205</v>
       </c>
       <c r="C103" s="6">
         <v>461.99999999999994</v>
@@ -11172,7 +11148,7 @@
         <v>927</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J103" s="6">
         <v>24</v>
@@ -11210,7 +11186,7 @@
         <v>202</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>1234</v>
+        <v>1206</v>
       </c>
       <c r="C104" s="6">
         <v>49</v>
@@ -11228,7 +11204,7 @@
         <v>927</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J104" s="6">
         <v>24</v>
@@ -11260,7 +11236,7 @@
         <v>203</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>1235</v>
+        <v>1207</v>
       </c>
       <c r="C105" s="6">
         <v>75.599999999999994</v>
@@ -11278,7 +11254,7 @@
         <v>927</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J105" s="6">
         <v>24</v>
@@ -11310,7 +11286,7 @@
         <v>204</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>1236</v>
+        <v>1208</v>
       </c>
       <c r="C106" s="6">
         <v>91</v>
@@ -11328,7 +11304,7 @@
         <v>927</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J106" s="6">
         <v>24</v>
@@ -11360,7 +11336,7 @@
         <v>205</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>1237</v>
+        <v>1209</v>
       </c>
       <c r="C107" s="6">
         <v>217</v>
@@ -11378,7 +11354,7 @@
         <v>927</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J107" s="6">
         <v>24</v>
@@ -11410,7 +11386,7 @@
         <v>206</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>1238</v>
+        <v>1210</v>
       </c>
       <c r="C108" s="6">
         <v>224</v>
@@ -11431,7 +11407,7 @@
         <v>128</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J108" s="6">
         <v>24</v>
@@ -11463,7 +11439,7 @@
         <v>207</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>1239</v>
+        <v>1211</v>
       </c>
       <c r="C109" s="6">
         <v>266</v>
@@ -11484,7 +11460,7 @@
         <v>128</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J109" s="6">
         <v>24</v>
@@ -11516,7 +11492,7 @@
         <v>208</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>1240</v>
+        <v>1212</v>
       </c>
       <c r="C110" s="6">
         <v>329</v>
@@ -11534,7 +11510,7 @@
         <v>927</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J110" s="6">
         <v>24</v>
@@ -11566,7 +11542,7 @@
         <v>209</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>1241</v>
+        <v>1213</v>
       </c>
       <c r="C111" s="6">
         <v>336</v>
@@ -11587,7 +11563,7 @@
         <v>128</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J111" s="6">
         <v>24</v>
@@ -11619,7 +11595,7 @@
         <v>210</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>1242</v>
+        <v>1214</v>
       </c>
       <c r="C112" s="6">
         <v>546</v>
@@ -11637,7 +11613,7 @@
         <v>927</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J112" s="6">
         <v>24</v>
@@ -11675,7 +11651,7 @@
         <v>212</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>1243</v>
+        <v>1215</v>
       </c>
       <c r="C113" s="6">
         <v>665</v>
@@ -11693,7 +11669,7 @@
         <v>927</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J113" s="6">
         <v>24</v>
@@ -11731,7 +11707,7 @@
         <v>213</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>1244</v>
+        <v>1216</v>
       </c>
       <c r="C114" s="6">
         <v>518</v>
@@ -11749,7 +11725,7 @@
         <v>927</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J114" s="6">
         <v>24</v>
@@ -11787,7 +11763,7 @@
         <v>215</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>1245</v>
+        <v>1217</v>
       </c>
       <c r="C115" s="6">
         <v>588</v>
@@ -11805,7 +11781,7 @@
         <v>927</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J115" s="6">
         <v>24</v>
@@ -11837,7 +11813,7 @@
         <v>216</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>1246</v>
+        <v>1218</v>
       </c>
       <c r="C116" s="6">
         <v>728</v>
@@ -11855,7 +11831,7 @@
         <v>927</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J116" s="6">
         <v>24</v>
@@ -11893,7 +11869,7 @@
         <v>218</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>1247</v>
+        <v>1219</v>
       </c>
       <c r="C117" s="6">
         <v>770</v>
@@ -11911,7 +11887,7 @@
         <v>927</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J117" s="6">
         <v>24</v>
@@ -11943,7 +11919,7 @@
         <v>219</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>1248</v>
+        <v>1220</v>
       </c>
       <c r="C118" s="6">
         <v>1050</v>
@@ -11961,7 +11937,7 @@
         <v>927</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J118" s="6">
         <v>24</v>
@@ -11999,7 +11975,7 @@
         <v>221</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>1249</v>
+        <v>1221</v>
       </c>
       <c r="C119" s="6">
         <v>1190</v>
@@ -12017,7 +11993,7 @@
         <v>927</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J119" s="6">
         <v>24</v>
@@ -12055,7 +12031,7 @@
         <v>224</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>1250</v>
+        <v>1222</v>
       </c>
       <c r="C120" s="6">
         <v>1889.9999999999998</v>
@@ -12073,7 +12049,7 @@
         <v>927</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J120" s="6">
         <v>24</v>
@@ -12111,7 +12087,7 @@
         <v>225</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>1251</v>
+        <v>1223</v>
       </c>
       <c r="C121" s="6">
         <v>4900</v>
@@ -12129,7 +12105,7 @@
         <v>927</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J121" s="6">
         <v>24</v>
@@ -12161,7 +12137,7 @@
         <v>226</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>1252</v>
+        <v>1224</v>
       </c>
       <c r="C122" s="6">
         <v>5320</v>
@@ -12179,7 +12155,7 @@
         <v>927</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J122" s="6">
         <v>24</v>
@@ -12211,7 +12187,7 @@
         <v>227</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>1253</v>
+        <v>1225</v>
       </c>
       <c r="C123" s="6">
         <v>5600</v>
@@ -12229,7 +12205,7 @@
         <v>927</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J123" s="6">
         <v>24</v>
@@ -12261,7 +12237,7 @@
         <v>228</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>1254</v>
+        <v>1226</v>
       </c>
       <c r="C124" s="6">
         <v>7699.9999999999991</v>
@@ -12279,7 +12255,7 @@
         <v>927</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J124" s="6">
         <v>24</v>
@@ -12311,7 +12287,7 @@
         <v>229</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>1255</v>
+        <v>1227</v>
       </c>
       <c r="C125" s="6">
         <v>8400</v>
@@ -12329,7 +12305,7 @@
         <v>927</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J125" s="6">
         <v>24</v>
@@ -12361,7 +12337,7 @@
         <v>230</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>1256</v>
+        <v>1228</v>
       </c>
       <c r="C126" s="6">
         <v>9800</v>
@@ -12379,7 +12355,7 @@
         <v>927</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>1400</v>
+        <v>1365</v>
       </c>
       <c r="J126" s="6">
         <v>24</v>
@@ -12414,7 +12390,7 @@
         <v>232</v>
       </c>
       <c r="B127" s="30" t="s">
-        <v>1263</v>
+        <v>1235</v>
       </c>
       <c r="C127" s="24">
         <v>3360</v>
@@ -12432,7 +12408,7 @@
         <v>928</v>
       </c>
       <c r="I127" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J127" s="24">
         <v>60</v>
@@ -12470,7 +12446,7 @@
         <v>234</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>1264</v>
+        <v>1236</v>
       </c>
       <c r="C128" s="24">
         <v>3360</v>
@@ -12488,7 +12464,7 @@
         <v>928</v>
       </c>
       <c r="I128" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J128" s="24">
         <v>60</v>
@@ -12526,7 +12502,7 @@
         <v>235</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>1257</v>
+        <v>1229</v>
       </c>
       <c r="C129" s="24">
         <v>3360</v>
@@ -12544,7 +12520,7 @@
         <v>928</v>
       </c>
       <c r="I129" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J129" s="24">
         <v>60</v>
@@ -12582,7 +12558,7 @@
         <v>237</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>1265</v>
+        <v>1237</v>
       </c>
       <c r="C130" s="24">
         <v>3840</v>
@@ -12600,7 +12576,7 @@
         <v>928</v>
       </c>
       <c r="I130" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J130" s="24">
         <v>60</v>
@@ -12638,7 +12614,7 @@
         <v>238</v>
       </c>
       <c r="B131" s="30" t="s">
-        <v>1266</v>
+        <v>1238</v>
       </c>
       <c r="C131" s="24">
         <v>3840</v>
@@ -12656,7 +12632,7 @@
         <v>928</v>
       </c>
       <c r="I131" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J131" s="24">
         <v>60</v>
@@ -12712,7 +12688,7 @@
         <v>928</v>
       </c>
       <c r="I132" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J132" s="24">
         <v>60</v>
@@ -12750,7 +12726,7 @@
         <v>242</v>
       </c>
       <c r="B133" s="30" t="s">
-        <v>1258</v>
+        <v>1230</v>
       </c>
       <c r="C133" s="24">
         <v>4848</v>
@@ -12768,7 +12744,7 @@
         <v>928</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J133" s="24">
         <v>12</v>
@@ -12806,7 +12782,7 @@
         <v>244</v>
       </c>
       <c r="B134" s="30" t="s">
-        <v>1278</v>
+        <v>1250</v>
       </c>
       <c r="C134" s="24">
         <v>6060</v>
@@ -12824,7 +12800,7 @@
         <v>928</v>
       </c>
       <c r="I134" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J134" s="24">
         <v>60</v>
@@ -12862,7 +12838,7 @@
         <v>246</v>
       </c>
       <c r="B135" s="30" t="s">
-        <v>1289</v>
+        <v>1261</v>
       </c>
       <c r="C135" s="24">
         <v>6060</v>
@@ -12880,7 +12856,7 @@
         <v>928</v>
       </c>
       <c r="I135" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J135" s="24">
         <v>60</v>
@@ -12918,7 +12894,7 @@
         <v>247</v>
       </c>
       <c r="B136" s="30" t="s">
-        <v>1330</v>
+        <v>1302</v>
       </c>
       <c r="C136" s="24">
         <v>6060</v>
@@ -12936,7 +12912,7 @@
         <v>928</v>
       </c>
       <c r="I136" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J136" s="24">
         <v>60</v>
@@ -12974,7 +12950,7 @@
         <v>248</v>
       </c>
       <c r="B137" s="30" t="s">
-        <v>1353</v>
+        <v>1325</v>
       </c>
       <c r="C137" s="24">
         <v>6060</v>
@@ -12992,7 +12968,7 @@
         <v>928</v>
       </c>
       <c r="I137" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J137" s="24">
         <v>60</v>
@@ -13030,7 +13006,7 @@
         <v>249</v>
       </c>
       <c r="B138" s="30" t="s">
-        <v>1302</v>
+        <v>1274</v>
       </c>
       <c r="C138" s="24">
         <v>6990</v>
@@ -13048,7 +13024,7 @@
         <v>928</v>
       </c>
       <c r="I138" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J138" s="24">
         <v>60</v>
@@ -13086,7 +13062,7 @@
         <v>250</v>
       </c>
       <c r="B139" s="30" t="s">
-        <v>1267</v>
+        <v>1239</v>
       </c>
       <c r="C139" s="24">
         <v>6990</v>
@@ -13104,7 +13080,7 @@
         <v>928</v>
       </c>
       <c r="I139" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J139" s="24">
         <v>60</v>
@@ -13142,7 +13118,7 @@
         <v>251</v>
       </c>
       <c r="B140" s="30" t="s">
-        <v>1303</v>
+        <v>1275</v>
       </c>
       <c r="C140" s="24">
         <v>6990</v>
@@ -13160,7 +13136,7 @@
         <v>928</v>
       </c>
       <c r="I140" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J140" s="24">
         <v>60</v>
@@ -13198,7 +13174,7 @@
         <v>252</v>
       </c>
       <c r="B141" s="30" t="s">
-        <v>1290</v>
+        <v>1262</v>
       </c>
       <c r="C141" s="24">
         <v>6990</v>
@@ -13216,7 +13192,7 @@
         <v>928</v>
       </c>
       <c r="I141" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J141" s="24">
         <v>60</v>
@@ -13254,7 +13230,7 @@
         <v>253</v>
       </c>
       <c r="B142" s="30" t="s">
-        <v>1320</v>
+        <v>1292</v>
       </c>
       <c r="C142" s="24">
         <v>7890</v>
@@ -13272,7 +13248,7 @@
         <v>928</v>
       </c>
       <c r="I142" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J142" s="24">
         <v>60</v>
@@ -13310,7 +13286,7 @@
         <v>254</v>
       </c>
       <c r="B143" s="30" t="s">
-        <v>1331</v>
+        <v>1303</v>
       </c>
       <c r="C143" s="24">
         <v>7890</v>
@@ -13328,7 +13304,7 @@
         <v>928</v>
       </c>
       <c r="I143" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J143" s="24">
         <v>60</v>
@@ -13366,7 +13342,7 @@
         <v>255</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>1321</v>
+        <v>1293</v>
       </c>
       <c r="C144" s="24">
         <v>7890</v>
@@ -13384,7 +13360,7 @@
         <v>928</v>
       </c>
       <c r="I144" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J144" s="24">
         <v>60</v>
@@ -13422,7 +13398,7 @@
         <v>256</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>1259</v>
+        <v>1231</v>
       </c>
       <c r="C145" s="24">
         <v>5824</v>
@@ -13440,7 +13416,7 @@
         <v>928</v>
       </c>
       <c r="I145" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J145" s="24">
         <v>12</v>
@@ -13475,7 +13451,7 @@
         <v>257</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>1343</v>
+        <v>1315</v>
       </c>
       <c r="C146" s="24">
         <v>7380</v>
@@ -13493,7 +13469,7 @@
         <v>928</v>
       </c>
       <c r="I146" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J146" s="24">
         <v>60</v>
@@ -13531,7 +13507,7 @@
         <v>259</v>
       </c>
       <c r="B147" s="30" t="s">
-        <v>1344</v>
+        <v>1316</v>
       </c>
       <c r="C147" s="24">
         <v>7380</v>
@@ -13549,7 +13525,7 @@
         <v>928</v>
       </c>
       <c r="I147" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J147" s="24">
         <v>60</v>
@@ -13587,7 +13563,7 @@
         <v>261</v>
       </c>
       <c r="B148" s="30" t="s">
-        <v>1345</v>
+        <v>1317</v>
       </c>
       <c r="C148" s="24">
         <v>7380</v>
@@ -13605,7 +13581,7 @@
         <v>928</v>
       </c>
       <c r="I148" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J148" s="24">
         <v>60</v>
@@ -13643,7 +13619,7 @@
         <v>263</v>
       </c>
       <c r="B149" s="30" t="s">
-        <v>1354</v>
+        <v>1326</v>
       </c>
       <c r="C149" s="24">
         <v>7380</v>
@@ -13661,7 +13637,7 @@
         <v>928</v>
       </c>
       <c r="I149" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J149" s="24">
         <v>60</v>
@@ -13699,7 +13675,7 @@
         <v>265</v>
       </c>
       <c r="B150" s="30" t="s">
-        <v>1346</v>
+        <v>1318</v>
       </c>
       <c r="C150" s="24">
         <v>8460</v>
@@ -13717,7 +13693,7 @@
         <v>928</v>
       </c>
       <c r="I150" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J150" s="24">
         <v>60</v>
@@ -13755,7 +13731,7 @@
         <v>267</v>
       </c>
       <c r="B151" s="30" t="s">
-        <v>1347</v>
+        <v>1319</v>
       </c>
       <c r="C151" s="24">
         <v>8460</v>
@@ -13773,7 +13749,7 @@
         <v>928</v>
       </c>
       <c r="I151" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J151" s="24">
         <v>60</v>
@@ -13811,7 +13787,7 @@
         <v>269</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>1348</v>
+        <v>1320</v>
       </c>
       <c r="C152" s="24">
         <v>8460</v>
@@ -13829,7 +13805,7 @@
         <v>928</v>
       </c>
       <c r="I152" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J152" s="24">
         <v>60</v>
@@ -13867,7 +13843,7 @@
         <v>271</v>
       </c>
       <c r="B153" s="30" t="s">
-        <v>1349</v>
+        <v>1321</v>
       </c>
       <c r="C153" s="24">
         <v>8460</v>
@@ -13885,7 +13861,7 @@
         <v>928</v>
       </c>
       <c r="I153" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J153" s="24">
         <v>60</v>
@@ -13923,7 +13899,7 @@
         <v>273</v>
       </c>
       <c r="B154" s="30" t="s">
-        <v>1363</v>
+        <v>1335</v>
       </c>
       <c r="C154" s="24">
         <v>8910</v>
@@ -13941,7 +13917,7 @@
         <v>928</v>
       </c>
       <c r="I154" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J154" s="24">
         <v>60</v>
@@ -13979,7 +13955,7 @@
         <v>275</v>
       </c>
       <c r="B155" s="30" t="s">
-        <v>1350</v>
+        <v>1322</v>
       </c>
       <c r="C155" s="24">
         <v>9600</v>
@@ -13997,7 +13973,7 @@
         <v>928</v>
       </c>
       <c r="I155" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J155" s="24">
         <v>60</v>
@@ -14035,7 +14011,7 @@
         <v>277</v>
       </c>
       <c r="B156" s="30" t="s">
-        <v>1351</v>
+        <v>1323</v>
       </c>
       <c r="C156" s="24">
         <v>9600</v>
@@ -14053,7 +14029,7 @@
         <v>928</v>
       </c>
       <c r="I156" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J156" s="24">
         <v>60</v>
@@ -14091,7 +14067,7 @@
         <v>279</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>1352</v>
+        <v>1324</v>
       </c>
       <c r="C157" s="24">
         <v>9600</v>
@@ -14109,7 +14085,7 @@
         <v>928</v>
       </c>
       <c r="I157" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J157" s="24">
         <v>60</v>
@@ -14147,7 +14123,7 @@
         <v>281</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>1362</v>
+        <v>1334</v>
       </c>
       <c r="C158" s="24">
         <v>9150</v>
@@ -14165,7 +14141,7 @@
         <v>928</v>
       </c>
       <c r="I158" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J158" s="24">
         <v>36</v>
@@ -14203,7 +14179,7 @@
         <v>283</v>
       </c>
       <c r="B159" s="30" t="s">
-        <v>1260</v>
+        <v>1232</v>
       </c>
       <c r="C159" s="24">
         <v>6744</v>
@@ -14221,7 +14197,7 @@
         <v>928</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J159" s="24">
         <v>12</v>
@@ -14259,7 +14235,7 @@
         <v>284</v>
       </c>
       <c r="B160" s="30" t="s">
-        <v>1279</v>
+        <v>1251</v>
       </c>
       <c r="C160" s="24">
         <v>8430</v>
@@ -14277,7 +14253,7 @@
         <v>928</v>
       </c>
       <c r="I160" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J160" s="24">
         <v>60</v>
@@ -14315,7 +14291,7 @@
         <v>285</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>1291</v>
+        <v>1263</v>
       </c>
       <c r="C161" s="24">
         <v>8430</v>
@@ -14333,7 +14309,7 @@
         <v>928</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J161" s="24">
         <v>60</v>
@@ -14371,7 +14347,7 @@
         <v>286</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>1332</v>
+        <v>1304</v>
       </c>
       <c r="C162" s="24">
         <v>8430</v>
@@ -14389,7 +14365,7 @@
         <v>928</v>
       </c>
       <c r="I162" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J162" s="24">
         <v>60</v>
@@ -14427,7 +14403,7 @@
         <v>287</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>1355</v>
+        <v>1327</v>
       </c>
       <c r="C163" s="24">
         <v>8430</v>
@@ -14445,7 +14421,7 @@
         <v>928</v>
       </c>
       <c r="I163" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J163" s="24">
         <v>60</v>
@@ -14483,7 +14459,7 @@
         <v>288</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>1304</v>
+        <v>1276</v>
       </c>
       <c r="C164" s="24">
         <v>9720</v>
@@ -14501,7 +14477,7 @@
         <v>928</v>
       </c>
       <c r="I164" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J164" s="24">
         <v>60</v>
@@ -14539,7 +14515,7 @@
         <v>289</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>1268</v>
+        <v>1240</v>
       </c>
       <c r="C165" s="24">
         <v>9720</v>
@@ -14557,7 +14533,7 @@
         <v>928</v>
       </c>
       <c r="I165" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J165" s="24">
         <v>60</v>
@@ -14595,7 +14571,7 @@
         <v>290</v>
       </c>
       <c r="B166" s="30" t="s">
-        <v>1305</v>
+        <v>1277</v>
       </c>
       <c r="C166" s="24">
         <v>9720</v>
@@ -14613,7 +14589,7 @@
         <v>928</v>
       </c>
       <c r="I166" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J166" s="24">
         <v>60</v>
@@ -14651,7 +14627,7 @@
         <v>291</v>
       </c>
       <c r="B167" s="30" t="s">
-        <v>1292</v>
+        <v>1264</v>
       </c>
       <c r="C167" s="24">
         <v>9720</v>
@@ -14669,7 +14645,7 @@
         <v>928</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J167" s="24">
         <v>60</v>
@@ -14707,7 +14683,7 @@
         <v>292</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>1364</v>
+        <v>1336</v>
       </c>
       <c r="C168" s="24">
         <v>9720</v>
@@ -14725,7 +14701,7 @@
         <v>928</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J168" s="24">
         <v>36</v>
@@ -14763,7 +14739,7 @@
         <v>293</v>
       </c>
       <c r="B169" s="30" t="s">
-        <v>1365</v>
+        <v>1337</v>
       </c>
       <c r="C169" s="24">
         <v>10230</v>
@@ -14781,7 +14757,7 @@
         <v>928</v>
       </c>
       <c r="I169" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J169" s="24">
         <v>60</v>
@@ -14819,7 +14795,7 @@
         <v>294</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>1322</v>
+        <v>1294</v>
       </c>
       <c r="C170" s="24">
         <v>10950</v>
@@ -14837,7 +14813,7 @@
         <v>928</v>
       </c>
       <c r="I170" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J170" s="24">
         <v>60</v>
@@ -14875,7 +14851,7 @@
         <v>295</v>
       </c>
       <c r="B171" s="30" t="s">
-        <v>1333</v>
+        <v>1305</v>
       </c>
       <c r="C171" s="24">
         <v>10950</v>
@@ -14893,7 +14869,7 @@
         <v>928</v>
       </c>
       <c r="I171" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J171" s="24">
         <v>60</v>
@@ -14931,7 +14907,7 @@
         <v>296</v>
       </c>
       <c r="B172" s="30" t="s">
-        <v>1323</v>
+        <v>1295</v>
       </c>
       <c r="C172" s="24">
         <v>10950</v>
@@ -14949,7 +14925,7 @@
         <v>928</v>
       </c>
       <c r="I172" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J172" s="24">
         <v>60</v>
@@ -14987,7 +14963,7 @@
         <v>297</v>
       </c>
       <c r="B173" s="30" t="s">
-        <v>1261</v>
+        <v>1233</v>
       </c>
       <c r="C173" s="24">
         <v>7940</v>
@@ -15005,7 +14981,7 @@
         <v>928</v>
       </c>
       <c r="I173" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J173" s="24">
         <v>12</v>
@@ -15034,7 +15010,7 @@
         <v>298</v>
       </c>
       <c r="B174" s="30" t="s">
-        <v>1280</v>
+        <v>1252</v>
       </c>
       <c r="C174" s="24">
         <v>9990</v>
@@ -15052,7 +15028,7 @@
         <v>928</v>
       </c>
       <c r="I174" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J174" s="24">
         <v>60</v>
@@ -15090,7 +15066,7 @@
         <v>299</v>
       </c>
       <c r="B175" s="30" t="s">
-        <v>1293</v>
+        <v>1265</v>
       </c>
       <c r="C175" s="24">
         <v>9990</v>
@@ -15108,7 +15084,7 @@
         <v>928</v>
       </c>
       <c r="I175" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J175" s="24">
         <v>60</v>
@@ -15146,7 +15122,7 @@
         <v>300</v>
       </c>
       <c r="B176" s="30" t="s">
-        <v>1334</v>
+        <v>1306</v>
       </c>
       <c r="C176" s="24">
         <v>9990</v>
@@ -15164,7 +15140,7 @@
         <v>928</v>
       </c>
       <c r="I176" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J176" s="24">
         <v>60</v>
@@ -15202,7 +15178,7 @@
         <v>301</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>1356</v>
+        <v>1328</v>
       </c>
       <c r="C177" s="24">
         <v>9990</v>
@@ -15220,7 +15196,7 @@
         <v>928</v>
       </c>
       <c r="I177" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J177" s="24">
         <v>60</v>
@@ -15258,7 +15234,7 @@
         <v>302</v>
       </c>
       <c r="B178" s="30" t="s">
-        <v>1306</v>
+        <v>1278</v>
       </c>
       <c r="C178" s="24">
         <v>11490</v>
@@ -15276,7 +15252,7 @@
         <v>928</v>
       </c>
       <c r="I178" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J178" s="24">
         <v>60</v>
@@ -15314,7 +15290,7 @@
         <v>303</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>1269</v>
+        <v>1241</v>
       </c>
       <c r="C179" s="24">
         <v>11490</v>
@@ -15332,7 +15308,7 @@
         <v>928</v>
       </c>
       <c r="I179" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J179" s="24">
         <v>60</v>
@@ -15370,7 +15346,7 @@
         <v>304</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>1307</v>
+        <v>1279</v>
       </c>
       <c r="C180" s="24">
         <v>11490</v>
@@ -15388,7 +15364,7 @@
         <v>928</v>
       </c>
       <c r="I180" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J180" s="24">
         <v>60</v>
@@ -15426,7 +15402,7 @@
         <v>305</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>1294</v>
+        <v>1266</v>
       </c>
       <c r="C181" s="24">
         <v>11490</v>
@@ -15444,7 +15420,7 @@
         <v>928</v>
       </c>
       <c r="I181" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J181" s="24">
         <v>60</v>
@@ -15482,7 +15458,7 @@
         <v>306</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>1366</v>
+        <v>1338</v>
       </c>
       <c r="C182" s="24">
         <v>11490</v>
@@ -15500,7 +15476,7 @@
         <v>928</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J182" s="24">
         <v>36</v>
@@ -15532,7 +15508,7 @@
         <v>307</v>
       </c>
       <c r="B183" s="30" t="s">
-        <v>1367</v>
+        <v>1339</v>
       </c>
       <c r="C183" s="24">
         <v>12060</v>
@@ -15550,7 +15526,7 @@
         <v>928</v>
       </c>
       <c r="I183" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J183" s="24">
         <v>60</v>
@@ -15588,7 +15564,7 @@
         <v>308</v>
       </c>
       <c r="B184" s="30" t="s">
-        <v>1324</v>
+        <v>1296</v>
       </c>
       <c r="C184" s="24">
         <v>14010</v>
@@ -15606,7 +15582,7 @@
         <v>928</v>
       </c>
       <c r="I184" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J184" s="24">
         <v>60</v>
@@ -15644,7 +15620,7 @@
         <v>311</v>
       </c>
       <c r="B185" s="30" t="s">
-        <v>1335</v>
+        <v>1307</v>
       </c>
       <c r="C185" s="24">
         <v>14010</v>
@@ -15662,7 +15638,7 @@
         <v>928</v>
       </c>
       <c r="I185" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J185" s="24">
         <v>60</v>
@@ -15700,7 +15676,7 @@
         <v>313</v>
       </c>
       <c r="B186" s="30" t="s">
-        <v>1325</v>
+        <v>1297</v>
       </c>
       <c r="C186" s="24">
         <v>14010</v>
@@ -15718,7 +15694,7 @@
         <v>928</v>
       </c>
       <c r="I186" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J186" s="24">
         <v>60</v>
@@ -15756,7 +15732,7 @@
         <v>315</v>
       </c>
       <c r="B187" s="30" t="s">
-        <v>1262</v>
+        <v>1234</v>
       </c>
       <c r="C187" s="24">
         <v>9000</v>
@@ -15774,7 +15750,7 @@
         <v>928</v>
       </c>
       <c r="I187" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J187" s="24">
         <v>12</v>
@@ -15806,7 +15782,7 @@
         <v>316</v>
       </c>
       <c r="B188" s="30" t="s">
-        <v>1281</v>
+        <v>1253</v>
       </c>
       <c r="C188" s="24">
         <v>11250</v>
@@ -15824,7 +15800,7 @@
         <v>928</v>
       </c>
       <c r="I188" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J188" s="24">
         <v>60</v>
@@ -15862,7 +15838,7 @@
         <v>318</v>
       </c>
       <c r="B189" s="30" t="s">
-        <v>1295</v>
+        <v>1267</v>
       </c>
       <c r="C189" s="24">
         <v>11250</v>
@@ -15880,7 +15856,7 @@
         <v>928</v>
       </c>
       <c r="I189" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J189" s="24">
         <v>60</v>
@@ -15918,7 +15894,7 @@
         <v>319</v>
       </c>
       <c r="B190" s="30" t="s">
-        <v>1336</v>
+        <v>1308</v>
       </c>
       <c r="C190" s="24">
         <v>11250</v>
@@ -15936,7 +15912,7 @@
         <v>928</v>
       </c>
       <c r="I190" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J190" s="24">
         <v>60</v>
@@ -15974,7 +15950,7 @@
         <v>320</v>
       </c>
       <c r="B191" s="30" t="s">
-        <v>1357</v>
+        <v>1329</v>
       </c>
       <c r="C191" s="24">
         <v>11250</v>
@@ -15992,7 +15968,7 @@
         <v>928</v>
       </c>
       <c r="I191" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J191" s="24">
         <v>60</v>
@@ -16030,7 +16006,7 @@
         <v>321</v>
       </c>
       <c r="B192" s="30" t="s">
-        <v>1308</v>
+        <v>1280</v>
       </c>
       <c r="C192" s="24">
         <v>12360</v>
@@ -16048,7 +16024,7 @@
         <v>928</v>
       </c>
       <c r="I192" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J192" s="24">
         <v>60</v>
@@ -16086,7 +16062,7 @@
         <v>322</v>
       </c>
       <c r="B193" s="30" t="s">
-        <v>1270</v>
+        <v>1242</v>
       </c>
       <c r="C193" s="24">
         <v>12360</v>
@@ -16104,7 +16080,7 @@
         <v>928</v>
       </c>
       <c r="I193" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J193" s="24">
         <v>60</v>
@@ -16142,7 +16118,7 @@
         <v>323</v>
       </c>
       <c r="B194" s="30" t="s">
-        <v>1309</v>
+        <v>1281</v>
       </c>
       <c r="C194" s="24">
         <v>12360</v>
@@ -16160,7 +16136,7 @@
         <v>928</v>
       </c>
       <c r="I194" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J194" s="24">
         <v>60</v>
@@ -16198,7 +16174,7 @@
         <v>324</v>
       </c>
       <c r="B195" s="30" t="s">
-        <v>1296</v>
+        <v>1268</v>
       </c>
       <c r="C195" s="24">
         <v>12360</v>
@@ -16216,7 +16192,7 @@
         <v>928</v>
       </c>
       <c r="I195" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J195" s="24">
         <v>60</v>
@@ -16254,7 +16230,7 @@
         <v>325</v>
       </c>
       <c r="B196" s="30" t="s">
-        <v>1368</v>
+        <v>1340</v>
       </c>
       <c r="C196" s="24">
         <v>12360</v>
@@ -16272,7 +16248,7 @@
         <v>928</v>
       </c>
       <c r="I196" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J196" s="24">
         <v>36</v>
@@ -16304,7 +16280,7 @@
         <v>326</v>
       </c>
       <c r="B197" s="30" t="s">
-        <v>1369</v>
+        <v>1341</v>
       </c>
       <c r="C197" s="24">
         <v>12990</v>
@@ -16322,7 +16298,7 @@
         <v>928</v>
       </c>
       <c r="I197" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J197" s="24">
         <v>60</v>
@@ -16360,7 +16336,7 @@
         <v>327</v>
       </c>
       <c r="B198" s="30" t="s">
-        <v>1326</v>
+        <v>1298</v>
       </c>
       <c r="C198" s="24">
         <v>15750</v>
@@ -16378,7 +16354,7 @@
         <v>928</v>
       </c>
       <c r="I198" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J198" s="24">
         <v>60</v>
@@ -16416,7 +16392,7 @@
         <v>329</v>
       </c>
       <c r="B199" s="30" t="s">
-        <v>1337</v>
+        <v>1309</v>
       </c>
       <c r="C199" s="24">
         <v>15750</v>
@@ -16434,7 +16410,7 @@
         <v>928</v>
       </c>
       <c r="I199" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J199" s="24">
         <v>60</v>
@@ -16472,7 +16448,7 @@
         <v>331</v>
       </c>
       <c r="B200" s="30" t="s">
-        <v>1327</v>
+        <v>1299</v>
       </c>
       <c r="C200" s="24">
         <v>15750</v>
@@ -16490,7 +16466,7 @@
         <v>928</v>
       </c>
       <c r="I200" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J200" s="24">
         <v>60</v>
@@ -16528,7 +16504,7 @@
         <v>333</v>
       </c>
       <c r="B201" s="30" t="s">
-        <v>1282</v>
+        <v>1254</v>
       </c>
       <c r="C201" s="24">
         <v>12360</v>
@@ -16546,7 +16522,7 @@
         <v>928</v>
       </c>
       <c r="I201" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J201" s="24">
         <v>60</v>
@@ -16584,7 +16560,7 @@
         <v>334</v>
       </c>
       <c r="B202" s="30" t="s">
-        <v>1297</v>
+        <v>1269</v>
       </c>
       <c r="C202" s="24">
         <v>12360</v>
@@ -16602,7 +16578,7 @@
         <v>928</v>
       </c>
       <c r="I202" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J202" s="24">
         <v>60</v>
@@ -16640,7 +16616,7 @@
         <v>335</v>
       </c>
       <c r="B203" s="30" t="s">
-        <v>1338</v>
+        <v>1310</v>
       </c>
       <c r="C203" s="24">
         <v>12360</v>
@@ -16658,7 +16634,7 @@
         <v>928</v>
       </c>
       <c r="I203" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J203" s="24">
         <v>60</v>
@@ -16696,7 +16672,7 @@
         <v>336</v>
       </c>
       <c r="B204" s="30" t="s">
-        <v>1358</v>
+        <v>1330</v>
       </c>
       <c r="C204" s="24">
         <v>12360</v>
@@ -16714,7 +16690,7 @@
         <v>928</v>
       </c>
       <c r="I204" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J204" s="24">
         <v>60</v>
@@ -16752,7 +16728,7 @@
         <v>337</v>
       </c>
       <c r="B205" s="30" t="s">
-        <v>1310</v>
+        <v>1282</v>
       </c>
       <c r="C205" s="24">
         <v>13590</v>
@@ -16770,7 +16746,7 @@
         <v>928</v>
       </c>
       <c r="I205" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J205" s="24">
         <v>60</v>
@@ -16808,7 +16784,7 @@
         <v>338</v>
       </c>
       <c r="B206" s="30" t="s">
-        <v>1271</v>
+        <v>1243</v>
       </c>
       <c r="C206" s="24">
         <v>13590</v>
@@ -16826,7 +16802,7 @@
         <v>928</v>
       </c>
       <c r="I206" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J206" s="24">
         <v>60</v>
@@ -16864,7 +16840,7 @@
         <v>339</v>
       </c>
       <c r="B207" s="30" t="s">
-        <v>1311</v>
+        <v>1283</v>
       </c>
       <c r="C207" s="24">
         <v>13590</v>
@@ -16882,7 +16858,7 @@
         <v>928</v>
       </c>
       <c r="I207" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J207" s="24">
         <v>60</v>
@@ -16920,7 +16896,7 @@
         <v>340</v>
       </c>
       <c r="B208" s="30" t="s">
-        <v>1298</v>
+        <v>1270</v>
       </c>
       <c r="C208" s="24">
         <v>13590</v>
@@ -16938,7 +16914,7 @@
         <v>928</v>
       </c>
       <c r="I208" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J208" s="24">
         <v>60</v>
@@ -16976,7 +16952,7 @@
         <v>341</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>1370</v>
+        <v>1342</v>
       </c>
       <c r="C209" s="24">
         <v>13590</v>
@@ -16994,7 +16970,7 @@
         <v>928</v>
       </c>
       <c r="I209" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J209" s="24">
         <v>36</v>
@@ -17032,7 +17008,7 @@
         <v>342</v>
       </c>
       <c r="B210" s="30" t="s">
-        <v>1371</v>
+        <v>1343</v>
       </c>
       <c r="C210" s="24">
         <v>14940</v>
@@ -17050,7 +17026,7 @@
         <v>928</v>
       </c>
       <c r="I210" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J210" s="24">
         <v>60</v>
@@ -17088,7 +17064,7 @@
         <v>344</v>
       </c>
       <c r="B211" s="30" t="s">
-        <v>1328</v>
+        <v>1300</v>
       </c>
       <c r="C211" s="24">
         <v>17280</v>
@@ -17106,7 +17082,7 @@
         <v>928</v>
       </c>
       <c r="I211" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J211" s="24">
         <v>60</v>
@@ -17144,7 +17120,7 @@
         <v>346</v>
       </c>
       <c r="B212" s="30" t="s">
-        <v>1339</v>
+        <v>1311</v>
       </c>
       <c r="C212" s="24">
         <v>17280</v>
@@ -17162,7 +17138,7 @@
         <v>928</v>
       </c>
       <c r="I212" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J212" s="24">
         <v>60</v>
@@ -17200,7 +17176,7 @@
         <v>348</v>
       </c>
       <c r="B213" s="30" t="s">
-        <v>1329</v>
+        <v>1301</v>
       </c>
       <c r="C213" s="24">
         <v>17280</v>
@@ -17218,7 +17194,7 @@
         <v>928</v>
       </c>
       <c r="I213" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J213" s="24">
         <v>60</v>
@@ -17256,7 +17232,7 @@
         <v>350</v>
       </c>
       <c r="B214" s="30" t="s">
-        <v>1283</v>
+        <v>1255</v>
       </c>
       <c r="C214" s="24">
         <v>14850</v>
@@ -17274,7 +17250,7 @@
         <v>928</v>
       </c>
       <c r="I214" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J214" s="24">
         <v>60</v>
@@ -17312,7 +17288,7 @@
         <v>352</v>
       </c>
       <c r="B215" s="30" t="s">
-        <v>1299</v>
+        <v>1271</v>
       </c>
       <c r="C215" s="24">
         <v>14850</v>
@@ -17330,7 +17306,7 @@
         <v>928</v>
       </c>
       <c r="I215" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J215" s="24">
         <v>60</v>
@@ -17368,7 +17344,7 @@
         <v>353</v>
       </c>
       <c r="B216" s="30" t="s">
-        <v>1340</v>
+        <v>1312</v>
       </c>
       <c r="C216" s="24">
         <v>14850</v>
@@ -17386,7 +17362,7 @@
         <v>928</v>
       </c>
       <c r="I216" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J216" s="24">
         <v>60</v>
@@ -17424,7 +17400,7 @@
         <v>354</v>
       </c>
       <c r="B217" s="30" t="s">
-        <v>1359</v>
+        <v>1331</v>
       </c>
       <c r="C217" s="24">
         <v>14850</v>
@@ -17442,7 +17418,7 @@
         <v>928</v>
       </c>
       <c r="I217" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J217" s="24">
         <v>60</v>
@@ -17480,7 +17456,7 @@
         <v>355</v>
       </c>
       <c r="B218" s="30" t="s">
-        <v>1312</v>
+        <v>1284</v>
       </c>
       <c r="C218" s="24">
         <v>16350</v>
@@ -17498,7 +17474,7 @@
         <v>928</v>
       </c>
       <c r="I218" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J218" s="24">
         <v>60</v>
@@ -17536,7 +17512,7 @@
         <v>356</v>
       </c>
       <c r="B219" s="30" t="s">
-        <v>1272</v>
+        <v>1244</v>
       </c>
       <c r="C219" s="24">
         <v>16350</v>
@@ -17554,7 +17530,7 @@
         <v>928</v>
       </c>
       <c r="I219" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J219" s="24">
         <v>60</v>
@@ -17592,7 +17568,7 @@
         <v>357</v>
       </c>
       <c r="B220" s="30" t="s">
-        <v>1313</v>
+        <v>1285</v>
       </c>
       <c r="C220" s="24">
         <v>16350</v>
@@ -17610,7 +17586,7 @@
         <v>928</v>
       </c>
       <c r="I220" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J220" s="24">
         <v>60</v>
@@ -17648,7 +17624,7 @@
         <v>358</v>
       </c>
       <c r="B221" s="30" t="s">
-        <v>1372</v>
+        <v>1344</v>
       </c>
       <c r="C221" s="24">
         <v>16350</v>
@@ -17666,7 +17642,7 @@
         <v>928</v>
       </c>
       <c r="I221" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J221" s="24">
         <v>36</v>
@@ -17704,7 +17680,7 @@
         <v>359</v>
       </c>
       <c r="B222" s="30" t="s">
-        <v>1284</v>
+        <v>1256</v>
       </c>
       <c r="C222" s="24">
         <v>16110</v>
@@ -17722,7 +17698,7 @@
         <v>928</v>
       </c>
       <c r="I222" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J222" s="24">
         <v>60</v>
@@ -17760,7 +17736,7 @@
         <v>360</v>
       </c>
       <c r="B223" s="30" t="s">
-        <v>1300</v>
+        <v>1272</v>
       </c>
       <c r="C223" s="24">
         <v>16110</v>
@@ -17778,7 +17754,7 @@
         <v>928</v>
       </c>
       <c r="I223" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J223" s="24">
         <v>60</v>
@@ -17816,7 +17792,7 @@
         <v>361</v>
       </c>
       <c r="B224" s="30" t="s">
-        <v>1341</v>
+        <v>1313</v>
       </c>
       <c r="C224" s="24">
         <v>16110</v>
@@ -17834,7 +17810,7 @@
         <v>928</v>
       </c>
       <c r="I224" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J224" s="24">
         <v>60</v>
@@ -17872,7 +17848,7 @@
         <v>362</v>
       </c>
       <c r="B225" s="30" t="s">
-        <v>1360</v>
+        <v>1332</v>
       </c>
       <c r="C225" s="24">
         <v>16110</v>
@@ -17890,7 +17866,7 @@
         <v>928</v>
       </c>
       <c r="I225" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J225" s="24">
         <v>60</v>
@@ -17928,7 +17904,7 @@
         <v>363</v>
       </c>
       <c r="B226" s="30" t="s">
-        <v>1314</v>
+        <v>1286</v>
       </c>
       <c r="C226" s="24">
         <v>17730</v>
@@ -17946,7 +17922,7 @@
         <v>928</v>
       </c>
       <c r="I226" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J226" s="24">
         <v>60</v>
@@ -17984,7 +17960,7 @@
         <v>364</v>
       </c>
       <c r="B227" s="30" t="s">
-        <v>1273</v>
+        <v>1245</v>
       </c>
       <c r="C227" s="24">
         <v>17730</v>
@@ -18002,7 +17978,7 @@
         <v>928</v>
       </c>
       <c r="I227" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J227" s="24">
         <v>60</v>
@@ -18040,7 +18016,7 @@
         <v>365</v>
       </c>
       <c r="B228" s="30" t="s">
-        <v>1315</v>
+        <v>1287</v>
       </c>
       <c r="C228" s="24">
         <v>17730</v>
@@ -18058,7 +18034,7 @@
         <v>928</v>
       </c>
       <c r="I228" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J228" s="24">
         <v>60</v>
@@ -18096,7 +18072,7 @@
         <v>366</v>
       </c>
       <c r="B229" s="30" t="s">
-        <v>1373</v>
+        <v>1345</v>
       </c>
       <c r="C229" s="24">
         <v>17730</v>
@@ -18114,7 +18090,7 @@
         <v>928</v>
       </c>
       <c r="I229" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J229" s="24">
         <v>36</v>
@@ -18152,7 +18128,7 @@
         <v>367</v>
       </c>
       <c r="B230" s="30" t="s">
-        <v>1382</v>
+        <v>1354</v>
       </c>
       <c r="C230" s="24">
         <v>22830</v>
@@ -18170,7 +18146,7 @@
         <v>928</v>
       </c>
       <c r="I230" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J230" s="24">
         <v>60</v>
@@ -18208,7 +18184,7 @@
         <v>368</v>
       </c>
       <c r="B231" s="30" t="s">
-        <v>1383</v>
+        <v>1355</v>
       </c>
       <c r="C231" s="24">
         <v>22830</v>
@@ -18226,7 +18202,7 @@
         <v>928</v>
       </c>
       <c r="I231" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J231" s="24">
         <v>60</v>
@@ -18264,7 +18240,7 @@
         <v>369</v>
       </c>
       <c r="B232" s="30" t="s">
-        <v>1384</v>
+        <v>1356</v>
       </c>
       <c r="C232" s="24">
         <v>22830</v>
@@ -18282,7 +18258,7 @@
         <v>928</v>
       </c>
       <c r="I232" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J232" s="24">
         <v>60</v>
@@ -18320,7 +18296,7 @@
         <v>370</v>
       </c>
       <c r="B233" s="30" t="s">
-        <v>1385</v>
+        <v>1357</v>
       </c>
       <c r="C233" s="24">
         <v>22830</v>
@@ -18338,7 +18314,7 @@
         <v>928</v>
       </c>
       <c r="I233" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J233" s="24">
         <v>60</v>
@@ -18376,7 +18352,7 @@
         <v>371</v>
       </c>
       <c r="B234" s="30" t="s">
-        <v>1386</v>
+        <v>1358</v>
       </c>
       <c r="C234" s="24">
         <v>24890</v>
@@ -18394,7 +18370,7 @@
         <v>928</v>
       </c>
       <c r="I234" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J234" s="24">
         <v>60</v>
@@ -18432,7 +18408,7 @@
         <v>372</v>
       </c>
       <c r="B235" s="30" t="s">
-        <v>1387</v>
+        <v>1359</v>
       </c>
       <c r="C235" s="24">
         <v>24890</v>
@@ -18450,7 +18426,7 @@
         <v>928</v>
       </c>
       <c r="I235" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J235" s="24">
         <v>60</v>
@@ -18488,7 +18464,7 @@
         <v>373</v>
       </c>
       <c r="B236" s="30" t="s">
-        <v>1388</v>
+        <v>1360</v>
       </c>
       <c r="C236" s="24">
         <v>24890</v>
@@ -18506,7 +18482,7 @@
         <v>928</v>
       </c>
       <c r="I236" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J236" s="24">
         <v>60</v>
@@ -18544,7 +18520,7 @@
         <v>374</v>
       </c>
       <c r="B237" s="30" t="s">
-        <v>1285</v>
+        <v>1257</v>
       </c>
       <c r="C237" s="24">
         <v>26640</v>
@@ -18562,7 +18538,7 @@
         <v>928</v>
       </c>
       <c r="I237" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J237" s="24">
         <v>60</v>
@@ -18600,7 +18576,7 @@
         <v>375</v>
       </c>
       <c r="B238" s="30" t="s">
-        <v>1301</v>
+        <v>1273</v>
       </c>
       <c r="C238" s="24">
         <v>26640</v>
@@ -18618,7 +18594,7 @@
         <v>928</v>
       </c>
       <c r="I238" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J238" s="24">
         <v>60</v>
@@ -18656,7 +18632,7 @@
         <v>376</v>
       </c>
       <c r="B239" s="30" t="s">
-        <v>1342</v>
+        <v>1314</v>
       </c>
       <c r="C239" s="24">
         <v>26640</v>
@@ -18674,7 +18650,7 @@
         <v>928</v>
       </c>
       <c r="I239" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J239" s="24">
         <v>60</v>
@@ -18712,7 +18688,7 @@
         <v>377</v>
       </c>
       <c r="B240" s="30" t="s">
-        <v>1361</v>
+        <v>1333</v>
       </c>
       <c r="C240" s="24">
         <v>26640</v>
@@ -18730,7 +18706,7 @@
         <v>928</v>
       </c>
       <c r="I240" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J240" s="24">
         <v>60</v>
@@ -18768,7 +18744,7 @@
         <v>378</v>
       </c>
       <c r="B241" s="30" t="s">
-        <v>1316</v>
+        <v>1288</v>
       </c>
       <c r="C241" s="24">
         <v>29250</v>
@@ -18786,7 +18762,7 @@
         <v>928</v>
       </c>
       <c r="I241" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J241" s="24">
         <v>60</v>
@@ -18824,7 +18800,7 @@
         <v>379</v>
       </c>
       <c r="B242" s="30" t="s">
-        <v>1274</v>
+        <v>1246</v>
       </c>
       <c r="C242" s="24">
         <v>29250</v>
@@ -18842,7 +18818,7 @@
         <v>928</v>
       </c>
       <c r="I242" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J242" s="24">
         <v>60</v>
@@ -18880,7 +18856,7 @@
         <v>380</v>
       </c>
       <c r="B243" s="30" t="s">
-        <v>1374</v>
+        <v>1346</v>
       </c>
       <c r="C243" s="24">
         <v>29250</v>
@@ -18898,7 +18874,7 @@
         <v>928</v>
       </c>
       <c r="I243" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J243" s="24">
         <v>36</v>
@@ -18936,7 +18912,7 @@
         <v>381</v>
       </c>
       <c r="B244" s="30" t="s">
-        <v>1286</v>
+        <v>1258</v>
       </c>
       <c r="C244" s="24">
         <v>115740</v>
@@ -18954,7 +18930,7 @@
         <v>928</v>
       </c>
       <c r="I244" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J244" s="24">
         <v>60</v>
@@ -18992,7 +18968,7 @@
         <v>383</v>
       </c>
       <c r="B245" s="30" t="s">
-        <v>1317</v>
+        <v>1289</v>
       </c>
       <c r="C245" s="24">
         <v>127590</v>
@@ -19010,7 +18986,7 @@
         <v>928</v>
       </c>
       <c r="I245" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J245" s="24">
         <v>60</v>
@@ -19048,7 +19024,7 @@
         <v>384</v>
       </c>
       <c r="B246" s="30" t="s">
-        <v>1275</v>
+        <v>1247</v>
       </c>
       <c r="C246" s="24">
         <v>127590</v>
@@ -19066,7 +19042,7 @@
         <v>928</v>
       </c>
       <c r="I246" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J246" s="24">
         <v>60</v>
@@ -19104,7 +19080,7 @@
         <v>385</v>
       </c>
       <c r="B247" s="30" t="s">
-        <v>1375</v>
+        <v>1347</v>
       </c>
       <c r="C247" s="24">
         <v>127590</v>
@@ -19122,7 +19098,7 @@
         <v>928</v>
       </c>
       <c r="I247" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J247" s="24">
         <v>60</v>
@@ -19157,7 +19133,7 @@
         <v>386</v>
       </c>
       <c r="B248" s="30" t="s">
-        <v>1287</v>
+        <v>1259</v>
       </c>
       <c r="C248" s="24">
         <v>163200</v>
@@ -19175,7 +19151,7 @@
         <v>928</v>
       </c>
       <c r="I248" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J248" s="24">
         <v>60</v>
@@ -19213,7 +19189,7 @@
         <v>388</v>
       </c>
       <c r="B249" s="30" t="s">
-        <v>1318</v>
+        <v>1290</v>
       </c>
       <c r="C249" s="24">
         <v>179520</v>
@@ -19231,7 +19207,7 @@
         <v>928</v>
       </c>
       <c r="I249" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J249" s="24">
         <v>60</v>
@@ -19269,7 +19245,7 @@
         <v>389</v>
       </c>
       <c r="B250" s="30" t="s">
-        <v>1276</v>
+        <v>1248</v>
       </c>
       <c r="C250" s="24">
         <v>179520</v>
@@ -19287,7 +19263,7 @@
         <v>928</v>
       </c>
       <c r="I250" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J250" s="24">
         <v>60</v>
@@ -19325,7 +19301,7 @@
         <v>390</v>
       </c>
       <c r="B251" s="30" t="s">
-        <v>1376</v>
+        <v>1348</v>
       </c>
       <c r="C251" s="24">
         <v>179520</v>
@@ -19343,7 +19319,7 @@
         <v>928</v>
       </c>
       <c r="I251" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J251" s="24">
         <v>60</v>
@@ -19378,7 +19354,7 @@
         <v>391</v>
       </c>
       <c r="B252" s="30" t="s">
-        <v>1288</v>
+        <v>1260</v>
       </c>
       <c r="C252" s="24">
         <v>249090</v>
@@ -19396,7 +19372,7 @@
         <v>928</v>
       </c>
       <c r="I252" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J252" s="24">
         <v>60</v>
@@ -19434,7 +19410,7 @@
         <v>392</v>
       </c>
       <c r="B253" s="30" t="s">
-        <v>1319</v>
+        <v>1291</v>
       </c>
       <c r="C253" s="24">
         <v>274000</v>
@@ -19452,7 +19428,7 @@
         <v>928</v>
       </c>
       <c r="I253" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J253" s="24">
         <v>60</v>
@@ -19490,7 +19466,7 @@
         <v>393</v>
       </c>
       <c r="B254" s="30" t="s">
-        <v>1277</v>
+        <v>1249</v>
       </c>
       <c r="C254" s="24">
         <v>274000</v>
@@ -19508,7 +19484,7 @@
         <v>928</v>
       </c>
       <c r="I254" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J254" s="24">
         <v>60</v>
@@ -19546,7 +19522,7 @@
         <v>394</v>
       </c>
       <c r="B255" s="30" t="s">
-        <v>1377</v>
+        <v>1349</v>
       </c>
       <c r="C255" s="24">
         <v>274000</v>
@@ -19564,7 +19540,7 @@
         <v>928</v>
       </c>
       <c r="I255" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J255" s="24">
         <v>60</v>
@@ -19599,7 +19575,7 @@
         <v>395</v>
       </c>
       <c r="B256" s="30" t="s">
-        <v>1378</v>
+        <v>1350</v>
       </c>
       <c r="C256" s="24">
         <v>1015</v>
@@ -19617,7 +19593,7 @@
         <v>928</v>
       </c>
       <c r="I256" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J256" s="24">
         <v>12</v>
@@ -19655,7 +19631,7 @@
         <v>398</v>
       </c>
       <c r="B257" s="30" t="s">
-        <v>1379</v>
+        <v>1351</v>
       </c>
       <c r="C257" s="24">
         <v>1330</v>
@@ -19673,7 +19649,7 @@
         <v>928</v>
       </c>
       <c r="I257" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J257" s="24">
         <v>12</v>
@@ -19711,7 +19687,7 @@
         <v>400</v>
       </c>
       <c r="B258" s="30" t="s">
-        <v>1380</v>
+        <v>1352</v>
       </c>
       <c r="C258" s="24">
         <v>1715</v>
@@ -19729,7 +19705,7 @@
         <v>928</v>
       </c>
       <c r="I258" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J258" s="24">
         <v>12</v>
@@ -19767,7 +19743,7 @@
         <v>401</v>
       </c>
       <c r="B259" s="30" t="s">
-        <v>1381</v>
+        <v>1353</v>
       </c>
       <c r="C259" s="24">
         <v>2135</v>
@@ -19785,7 +19761,7 @@
         <v>928</v>
       </c>
       <c r="I259" s="24" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J259" s="24">
         <v>12</v>
@@ -19820,10 +19796,10 @@
     </row>
     <row r="260" spans="1:36" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A260" s="23" t="s">
-        <v>1421</v>
+        <v>1386</v>
       </c>
       <c r="B260" s="29" t="s">
-        <v>1389</v>
+        <v>403</v>
       </c>
       <c r="C260" s="23">
         <v>35</v>
@@ -19838,13 +19814,13 @@
         <v>403</v>
       </c>
       <c r="G260" s="23" t="s">
-        <v>1422</v>
+        <v>1387</v>
       </c>
       <c r="H260" s="23" t="s">
         <v>128</v>
       </c>
       <c r="I260" s="23" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J260" s="23">
         <v>24</v>
@@ -19876,10 +19852,10 @@
     </row>
     <row r="261" spans="1:36" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A261" s="23" t="s">
-        <v>1423</v>
+        <v>1388</v>
       </c>
       <c r="B261" s="29" t="s">
-        <v>1390</v>
+        <v>404</v>
       </c>
       <c r="C261" s="23">
         <v>44.8</v>
@@ -19894,10 +19870,10 @@
         <v>404</v>
       </c>
       <c r="G261" s="23" t="s">
-        <v>1422</v>
+        <v>1387</v>
       </c>
       <c r="I261" s="23" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J261" s="23">
         <v>24</v>
@@ -19929,10 +19905,10 @@
     </row>
     <row r="262" spans="1:36" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A262" s="23" t="s">
-        <v>1424</v>
+        <v>1389</v>
       </c>
       <c r="B262" s="29" t="s">
-        <v>1391</v>
+        <v>405</v>
       </c>
       <c r="C262" s="23">
         <v>64.399999999999991</v>
@@ -19947,10 +19923,10 @@
         <v>405</v>
       </c>
       <c r="G262" s="23" t="s">
-        <v>1422</v>
+        <v>1387</v>
       </c>
       <c r="I262" s="23" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J262" s="23">
         <v>24</v>
@@ -19982,10 +19958,10 @@
     </row>
     <row r="263" spans="1:36" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A263" s="23" t="s">
-        <v>1425</v>
+        <v>1390</v>
       </c>
       <c r="B263" s="29" t="s">
-        <v>1392</v>
+        <v>406</v>
       </c>
       <c r="C263" s="23">
         <v>161</v>
@@ -20000,13 +19976,13 @@
         <v>406</v>
       </c>
       <c r="G263" s="23" t="s">
-        <v>1422</v>
+        <v>1387</v>
       </c>
       <c r="H263" s="23" t="s">
         <v>122</v>
       </c>
       <c r="I263" s="23" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J263" s="23">
         <v>24</v>
@@ -20041,10 +20017,10 @@
     </row>
     <row r="264" spans="1:36" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A264" s="23" t="s">
-        <v>1426</v>
+        <v>1391</v>
       </c>
       <c r="B264" s="29" t="s">
-        <v>1393</v>
+        <v>407</v>
       </c>
       <c r="C264" s="23">
         <v>196</v>
@@ -20059,13 +20035,13 @@
         <v>407</v>
       </c>
       <c r="G264" s="23" t="s">
-        <v>1422</v>
+        <v>1387</v>
       </c>
       <c r="H264" s="23" t="s">
         <v>122</v>
       </c>
       <c r="I264" s="23" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J264" s="23">
         <v>24</v>
@@ -20100,10 +20076,10 @@
     </row>
     <row r="265" spans="1:36" s="23" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A265" s="23" t="s">
-        <v>1427</v>
+        <v>1392</v>
       </c>
       <c r="B265" s="29" t="s">
-        <v>1394</v>
+        <v>408</v>
       </c>
       <c r="C265" s="23">
         <v>230.99999999999997</v>
@@ -20118,13 +20094,13 @@
         <v>408</v>
       </c>
       <c r="G265" s="23" t="s">
-        <v>1422</v>
+        <v>1387</v>
       </c>
       <c r="H265" s="23" t="s">
         <v>122</v>
       </c>
       <c r="I265" s="23" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J265" s="23">
         <v>24</v>
@@ -20159,10 +20135,10 @@
     </row>
     <row r="266" spans="1:36" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="23" t="s">
-        <v>1428</v>
+        <v>1393</v>
       </c>
       <c r="B266" s="29" t="s">
-        <v>1395</v>
+        <v>409</v>
       </c>
       <c r="C266" s="23">
         <v>294</v>
@@ -20177,13 +20153,13 @@
         <v>409</v>
       </c>
       <c r="G266" s="23" t="s">
-        <v>1422</v>
+        <v>1387</v>
       </c>
       <c r="H266" s="23" t="s">
         <v>122</v>
       </c>
       <c r="I266" s="23" t="s">
-        <v>1397</v>
+        <v>1362</v>
       </c>
       <c r="J266" s="23">
         <v>24</v>
@@ -20219,19 +20195,20 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -20255,7 +20232,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1396</v>
+        <v>1361</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -20326,7 +20303,7 @@
         <v>926</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C3" s="27">
         <v>68</v>
@@ -20336,14 +20313,14 @@
         <v>0</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>1414</v>
+        <v>1379</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27" t="s">
-        <v>1415</v>
+        <v>1380</v>
       </c>
       <c r="J3" s="27">
         <v>12</v>
@@ -20379,7 +20356,7 @@
         <v>925</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C4" s="27">
         <v>77</v>
@@ -20389,14 +20366,14 @@
         <v>0</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>1416</v>
+        <v>1381</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27" t="s">
-        <v>1415</v>
+        <v>1380</v>
       </c>
       <c r="J4" s="27">
         <v>12</v>
@@ -20432,7 +20409,7 @@
         <v>923</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C5" s="27">
         <v>120</v>
@@ -20445,11 +20422,11 @@
         <v>922</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>1415</v>
+        <v>1380</v>
       </c>
       <c r="J5" s="27">
         <v>12</v>
@@ -20490,7 +20467,7 @@
         <v>919</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C6" s="27">
         <v>134</v>
@@ -20503,11 +20480,11 @@
         <v>918</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>1415</v>
+        <v>1380</v>
       </c>
       <c r="J6" s="27">
         <v>12</v>
@@ -20548,7 +20525,7 @@
         <v>915</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C7" s="27">
         <v>199</v>
@@ -20561,11 +20538,11 @@
         <v>914</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>1415</v>
+        <v>1380</v>
       </c>
       <c r="J7" s="27">
         <v>12</v>
@@ -20606,7 +20583,7 @@
         <v>908</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C8" s="27">
         <v>61</v>
@@ -20619,11 +20596,11 @@
         <v>907</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>1418</v>
+        <v>1383</v>
       </c>
       <c r="J8" s="27">
         <v>12</v>
@@ -20659,7 +20636,7 @@
         <v>906</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C9" s="27">
         <v>68</v>
@@ -20669,14 +20646,14 @@
         <v>0</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>1417</v>
+        <v>1382</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27" t="s">
-        <v>1418</v>
+        <v>1383</v>
       </c>
       <c r="J9" s="27">
         <v>12</v>
@@ -20712,7 +20689,7 @@
         <v>904</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C10" s="27">
         <v>84</v>
@@ -20722,14 +20699,14 @@
         <v>0</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>1419</v>
+        <v>1384</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27" t="s">
-        <v>1418</v>
+        <v>1383</v>
       </c>
       <c r="J10" s="27">
         <v>12</v>
@@ -20769,8 +20746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -20788,7 +20765,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -20812,7 +20789,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1396</v>
+        <v>1361</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -20859,7 +20836,7 @@
         <v>469</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>1129</v>
+        <v>1395</v>
       </c>
       <c r="C3" s="15">
         <v>25.2</v>
@@ -20878,7 +20855,7 @@
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15" t="s">
-        <v>1401</v>
+        <v>1366</v>
       </c>
       <c r="J3" s="15">
         <v>24</v>
@@ -20913,7 +20890,7 @@
         <v>471</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>1128</v>
+        <v>1396</v>
       </c>
       <c r="C4" s="15">
         <v>34.799999999999997</v>
@@ -20932,7 +20909,7 @@
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>1401</v>
+        <v>1366</v>
       </c>
       <c r="J4" s="15">
         <v>24</v>
@@ -20965,7 +20942,7 @@
         <v>473</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>1126</v>
+        <v>1397</v>
       </c>
       <c r="C5" s="15">
         <v>31.2</v>
@@ -20984,7 +20961,7 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>1401</v>
+        <v>1366</v>
       </c>
       <c r="J5" s="15">
         <v>24</v>
@@ -21017,7 +20994,7 @@
         <v>475</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>1127</v>
+        <v>1398</v>
       </c>
       <c r="C6" s="15">
         <v>48</v>
@@ -21036,7 +21013,7 @@
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15" t="s">
-        <v>1401</v>
+        <v>1366</v>
       </c>
       <c r="J6" s="15">
         <v>24</v>
@@ -21069,7 +21046,7 @@
         <v>477</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>1130</v>
+        <v>1399</v>
       </c>
       <c r="C7" s="15">
         <v>15.6</v>
@@ -21088,7 +21065,7 @@
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>1401</v>
+        <v>1366</v>
       </c>
       <c r="J7" s="15">
         <v>24</v>
@@ -21121,7 +21098,7 @@
         <v>479</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>1131</v>
+        <v>1400</v>
       </c>
       <c r="C8" s="15">
         <v>19.8</v>
@@ -21140,7 +21117,7 @@
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
-        <v>1401</v>
+        <v>1366</v>
       </c>
       <c r="J8" s="15">
         <v>24</v>
@@ -21173,7 +21150,7 @@
         <v>480</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>1132</v>
+        <v>1401</v>
       </c>
       <c r="C9" s="15">
         <v>25.5</v>
@@ -21192,7 +21169,7 @@
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
-        <v>1401</v>
+        <v>1366</v>
       </c>
       <c r="J9" s="15">
         <v>24</v>
@@ -21244,7 +21221,7 @@
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14" t="s">
-        <v>1402</v>
+        <v>1367</v>
       </c>
       <c r="J10" s="14">
         <v>24</v>
@@ -21300,7 +21277,7 @@
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14" t="s">
-        <v>1402</v>
+        <v>1367</v>
       </c>
       <c r="J11" s="14">
         <v>24</v>
@@ -21356,7 +21333,7 @@
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="14" t="s">
-        <v>1402</v>
+        <v>1367</v>
       </c>
       <c r="J12" s="14">
         <v>24</v>
@@ -21412,7 +21389,7 @@
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14" t="s">
-        <v>1402</v>
+        <v>1367</v>
       </c>
       <c r="J13" s="14">
         <v>24</v>
@@ -21470,7 +21447,7 @@
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14" t="s">
-        <v>1402</v>
+        <v>1367</v>
       </c>
       <c r="J14" s="14">
         <v>24</v>
@@ -21528,7 +21505,7 @@
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14" t="s">
-        <v>1402</v>
+        <v>1367</v>
       </c>
       <c r="J15" s="14">
         <v>24</v>
@@ -21586,7 +21563,7 @@
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J16" s="16">
         <v>24</v>
@@ -21642,7 +21619,7 @@
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J17" s="16">
         <v>24</v>
@@ -21698,7 +21675,7 @@
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J18" s="16">
         <v>24</v>
@@ -21752,7 +21729,7 @@
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J19" s="16">
         <v>24</v>
@@ -21806,7 +21783,7 @@
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J20" s="16">
         <v>24</v>
@@ -21856,7 +21833,7 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J21" s="16">
         <v>24</v>
@@ -21910,7 +21887,7 @@
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J22" s="16">
         <v>24</v>
@@ -21964,7 +21941,7 @@
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J23" s="16">
         <v>24</v>
@@ -22018,7 +21995,7 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J24" s="16">
         <v>24</v>
@@ -22072,7 +22049,7 @@
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J25" s="16">
         <v>24</v>
@@ -22126,7 +22103,7 @@
       </c>
       <c r="H26" s="16"/>
       <c r="I26" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J26" s="16">
         <v>24</v>
@@ -22180,7 +22157,7 @@
       </c>
       <c r="H27" s="16"/>
       <c r="I27" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J27" s="16">
         <v>24</v>
@@ -22234,7 +22211,7 @@
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J28" s="16">
         <v>24</v>
@@ -22288,7 +22265,7 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J29" s="16">
         <v>24</v>
@@ -22342,7 +22319,7 @@
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J30" s="16">
         <v>24</v>
@@ -22396,7 +22373,7 @@
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17" t="s">
-        <v>1404</v>
+        <v>1369</v>
       </c>
       <c r="J31" s="17">
         <v>24</v>
@@ -22448,7 +22425,7 @@
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="17" t="s">
-        <v>1404</v>
+        <v>1369</v>
       </c>
       <c r="J32" s="17">
         <v>24</v>
@@ -22500,7 +22477,7 @@
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="17" t="s">
-        <v>1404</v>
+        <v>1369</v>
       </c>
       <c r="J33" s="17">
         <v>24</v>
@@ -22552,7 +22529,7 @@
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="17" t="s">
-        <v>1404</v>
+        <v>1369</v>
       </c>
       <c r="J34" s="17">
         <v>24</v>
@@ -22604,7 +22581,7 @@
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="17" t="s">
-        <v>1404</v>
+        <v>1369</v>
       </c>
       <c r="J35" s="17">
         <v>24</v>
@@ -22656,7 +22633,7 @@
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="17" t="s">
-        <v>1404</v>
+        <v>1369</v>
       </c>
       <c r="J36" s="17">
         <v>24</v>
@@ -22689,7 +22666,7 @@
         <v>544</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>1124</v>
+        <v>1107</v>
       </c>
       <c r="C37" s="17">
         <v>2400</v>
@@ -22708,7 +22685,7 @@
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="17" t="s">
-        <v>1404</v>
+        <v>1369</v>
       </c>
       <c r="J37" s="17">
         <v>24</v>
@@ -22760,7 +22737,7 @@
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17" t="s">
-        <v>1404</v>
+        <v>1369</v>
       </c>
       <c r="J38" s="17">
         <v>24</v>
@@ -22812,7 +22789,7 @@
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="17" t="s">
-        <v>1404</v>
+        <v>1369</v>
       </c>
       <c r="J39" s="17">
         <v>24</v>
@@ -22845,7 +22822,7 @@
         <v>550</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
       <c r="C40" s="15">
         <v>1900</v>
@@ -22864,7 +22841,7 @@
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15" t="s">
-        <v>1402</v>
+        <v>1367</v>
       </c>
       <c r="J40" s="15">
         <v>12</v>
@@ -22895,7 +22872,7 @@
         <v>553</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="C41" s="16">
         <v>102</v>
@@ -22910,11 +22887,11 @@
         <v>553</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>929</v>
+        <v>1387</v>
       </c>
       <c r="H41" s="16"/>
       <c r="I41" s="16" t="s">
-        <v>1403</v>
+        <v>1368</v>
       </c>
       <c r="J41" s="16">
         <v>24</v>
@@ -22952,8 +22929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22965,7 +22942,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -22989,7 +22966,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1396</v>
+        <v>1361</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -23044,10 +23021,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C3" s="30">
         <v>6.24</v>
@@ -23066,7 +23043,7 @@
       </c>
       <c r="H3" s="30"/>
       <c r="I3" s="30" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J3" s="30">
         <v>24</v>
@@ -23081,7 +23058,7 @@
       <c r="N3" s="30"/>
       <c r="O3" s="30"/>
       <c r="P3" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q3" s="30">
         <v>6</v>
@@ -23092,10 +23069,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C4" s="30">
         <v>7.0200000000000005</v>
@@ -23114,7 +23091,7 @@
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J4" s="30">
         <v>24</v>
@@ -23129,7 +23106,7 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q4" s="30">
         <v>6</v>
@@ -23140,10 +23117,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C5" s="30">
         <v>7.0200000000000005</v>
@@ -23162,7 +23139,7 @@
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J5" s="30">
         <v>24</v>
@@ -23177,7 +23154,7 @@
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q5" s="30">
         <v>6</v>
@@ -23188,10 +23165,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C6" s="30">
         <v>11.375</v>
@@ -23210,7 +23187,7 @@
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J6" s="30">
         <v>24</v>
@@ -23225,7 +23202,7 @@
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q6" s="30">
         <v>6</v>
@@ -23236,10 +23213,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C7" s="30">
         <v>10.790000000000001</v>
@@ -23258,7 +23235,7 @@
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J7" s="30">
         <v>24</v>
@@ -23271,7 +23248,7 @@
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q7" s="30">
         <v>12</v>
@@ -23282,10 +23259,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C8" s="30">
         <v>18.2</v>
@@ -23304,7 +23281,7 @@
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J8" s="30">
         <v>24</v>
@@ -23317,7 +23294,7 @@
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q8" s="30">
         <v>12</v>
@@ -23328,10 +23305,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C9" s="30">
         <v>14.040000000000001</v>
@@ -23350,7 +23327,7 @@
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J9" s="30">
         <v>24</v>
@@ -23365,7 +23342,7 @@
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q9" s="30">
         <v>12</v>
@@ -23376,10 +23353,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C10" s="30">
         <v>16.38</v>
@@ -23398,7 +23375,7 @@
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J10" s="30">
         <v>24</v>
@@ -23415,7 +23392,7 @@
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q10" s="30">
         <v>12</v>
@@ -23426,10 +23403,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>994</v>
+        <v>1402</v>
       </c>
       <c r="C11" s="30">
         <v>19.240000000000002</v>
@@ -23448,7 +23425,7 @@
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J11" s="30">
         <v>24</v>
@@ -23465,7 +23442,7 @@
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q11" s="30">
         <v>12</v>
@@ -23476,10 +23453,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C12" s="30">
         <v>22.619999999999997</v>
@@ -23498,7 +23475,7 @@
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J12" s="30">
         <v>24</v>
@@ -23515,7 +23492,7 @@
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
       <c r="P12" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q12" s="30">
         <v>12</v>
@@ -23526,10 +23503,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C13" s="30">
         <v>32.76</v>
@@ -23548,7 +23525,7 @@
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J13" s="30">
         <v>24</v>
@@ -23565,7 +23542,7 @@
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q13" s="30">
         <v>12</v>
@@ -23576,10 +23553,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C14" s="30">
         <v>53.04</v>
@@ -23598,7 +23575,7 @@
       </c>
       <c r="H14" s="30"/>
       <c r="I14" s="30" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J14" s="30">
         <v>24</v>
@@ -23615,7 +23592,7 @@
       <c r="N14" s="30"/>
       <c r="O14" s="30"/>
       <c r="P14" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q14" s="30">
         <v>12</v>
@@ -23626,10 +23603,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C15" s="30">
         <v>75.400000000000006</v>
@@ -23648,7 +23625,7 @@
       </c>
       <c r="H15" s="30"/>
       <c r="I15" s="30" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J15" s="30">
         <v>24</v>
@@ -23665,7 +23642,7 @@
       <c r="N15" s="30"/>
       <c r="O15" s="30"/>
       <c r="P15" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q15" s="30">
         <v>12</v>
@@ -23676,10 +23653,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C16" s="30">
         <v>78</v>
@@ -23698,7 +23675,7 @@
       </c>
       <c r="H16" s="30"/>
       <c r="I16" s="30" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J16" s="30">
         <v>24</v>
@@ -23715,7 +23692,7 @@
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q16" s="30">
         <v>12</v>
@@ -23726,10 +23703,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C17" s="30">
         <v>202.8</v>
@@ -23748,7 +23725,7 @@
       </c>
       <c r="H17" s="30"/>
       <c r="I17" s="30" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J17" s="30">
         <v>24</v>
@@ -23765,7 +23742,7 @@
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q17" s="30">
         <v>12</v>
@@ -23776,10 +23753,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C18" s="30">
         <v>171.6</v>
@@ -23798,7 +23775,7 @@
       </c>
       <c r="H18" s="30"/>
       <c r="I18" s="30" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J18" s="30">
         <v>24</v>
@@ -23815,7 +23792,7 @@
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
       <c r="P18" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q18" s="30">
         <v>12</v>
@@ -23826,10 +23803,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C19" s="30">
         <v>241.8</v>
@@ -23848,7 +23825,7 @@
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="30" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J19" s="30">
         <v>24</v>
@@ -23865,7 +23842,7 @@
       <c r="N19" s="30"/>
       <c r="O19" s="30"/>
       <c r="P19" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q19" s="30">
         <v>12</v>
@@ -23879,7 +23856,7 @@
         <v>589</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C20" s="30">
         <v>327.60000000000002</v>
@@ -23898,7 +23875,7 @@
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J20" s="30">
         <v>24</v>
@@ -23915,7 +23892,7 @@
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
       <c r="P20" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q20" s="30">
         <v>12</v>
@@ -23929,7 +23906,7 @@
         <v>591</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C21" s="30">
         <v>257.40000000000003</v>
@@ -23948,7 +23925,7 @@
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="30" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J21" s="30">
         <v>24</v>
@@ -23965,7 +23942,7 @@
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
       <c r="P21" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q21" s="30">
         <v>12</v>
@@ -23976,10 +23953,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C22" s="30">
         <v>312</v>
@@ -23998,7 +23975,7 @@
       </c>
       <c r="H22" s="30"/>
       <c r="I22" s="30" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J22" s="30">
         <v>24</v>
@@ -24015,7 +23992,7 @@
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
       <c r="P22" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q22" s="30">
         <v>12</v>
@@ -24026,10 +24003,10 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C23" s="30">
         <v>351</v>
@@ -24048,7 +24025,7 @@
       </c>
       <c r="H23" s="30"/>
       <c r="I23" s="30" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J23" s="30">
         <v>24</v>
@@ -24065,7 +24042,7 @@
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
       <c r="P23" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q23" s="30">
         <v>12</v>
@@ -24076,10 +24053,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C24" s="30">
         <v>546</v>
@@ -24098,7 +24075,7 @@
       </c>
       <c r="H24" s="30"/>
       <c r="I24" s="30" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J24" s="30">
         <v>24</v>
@@ -24115,7 +24092,7 @@
       <c r="N24" s="30"/>
       <c r="O24" s="30"/>
       <c r="P24" s="30" t="s">
-        <v>1406</v>
+        <v>1371</v>
       </c>
       <c r="Q24" s="30">
         <v>12</v>
@@ -24126,10 +24103,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>1023</v>
+        <v>1403</v>
       </c>
       <c r="C25" s="29">
         <v>7.2799999999999994</v>
@@ -24144,11 +24121,11 @@
         <v>598</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="29" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J25" s="29">
         <v>12</v>
@@ -24170,10 +24147,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>1024</v>
+        <v>1404</v>
       </c>
       <c r="C26" s="29">
         <v>16.25</v>
@@ -24188,11 +24165,11 @@
         <v>599</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="29" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J26" s="29">
         <v>12</v>
@@ -24214,10 +24191,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="C27" s="29">
         <v>15.600000000000001</v>
@@ -24232,11 +24209,11 @@
         <v>600</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="29" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J27" s="29">
         <v>12</v>
@@ -24258,10 +24235,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>1026</v>
+        <v>1405</v>
       </c>
       <c r="C28" s="29">
         <v>80.600000000000009</v>
@@ -24276,11 +24253,11 @@
         <v>601</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J28" s="29">
         <v>12</v>
@@ -24302,10 +24279,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>1027</v>
+        <v>1406</v>
       </c>
       <c r="C29" s="29">
         <v>169</v>
@@ -24320,11 +24297,11 @@
         <v>602</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J29" s="29">
         <v>12</v>
@@ -24346,10 +24323,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>1028</v>
+        <v>1407</v>
       </c>
       <c r="C30" s="29">
         <v>162.5</v>
@@ -24364,11 +24341,11 @@
         <v>603</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="29" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J30" s="29">
         <v>12</v>
@@ -24390,10 +24367,10 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>1029</v>
+        <v>1408</v>
       </c>
       <c r="C31" s="29">
         <v>234</v>
@@ -24408,11 +24385,11 @@
         <v>604</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H31" s="29"/>
       <c r="I31" s="29" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J31" s="29">
         <v>12</v>
@@ -24434,10 +24411,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>1030</v>
+        <v>1409</v>
       </c>
       <c r="C32" s="29">
         <v>305.5</v>
@@ -24452,11 +24429,11 @@
         <v>605</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="29" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J32" s="29">
         <v>12</v>
@@ -24478,10 +24455,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>1031</v>
+        <v>1410</v>
       </c>
       <c r="C33" s="29">
         <v>364</v>
@@ -24496,11 +24473,11 @@
         <v>606</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="29" t="s">
-        <v>1407</v>
+        <v>1372</v>
       </c>
       <c r="J33" s="29">
         <v>12</v>
@@ -24525,7 +24502,7 @@
         <v>607</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="C34" s="28">
         <v>5.86</v>
@@ -24542,7 +24519,7 @@
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J34" s="28">
         <v>12</v>
@@ -24571,7 +24548,7 @@
         <v>610</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="C35" s="28">
         <v>9.01</v>
@@ -24588,7 +24565,7 @@
       </c>
       <c r="H35" s="28"/>
       <c r="I35" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J35" s="28">
         <v>12</v>
@@ -24617,7 +24594,7 @@
         <v>612</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="C36" s="28">
         <v>7.96</v>
@@ -24634,7 +24611,7 @@
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J36" s="28">
         <v>12</v>
@@ -24663,7 +24640,7 @@
         <v>614</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="C37" s="28">
         <v>13.21</v>
@@ -24680,7 +24657,7 @@
       </c>
       <c r="H37" s="28"/>
       <c r="I37" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J37" s="28">
         <v>12</v>
@@ -24709,7 +24686,7 @@
         <v>616</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="C38" s="28">
         <v>20.11</v>
@@ -24726,7 +24703,7 @@
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J38" s="28">
         <v>12</v>
@@ -24755,7 +24732,7 @@
         <v>618</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="C39" s="28">
         <v>10.82</v>
@@ -24772,7 +24749,7 @@
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J39" s="28">
         <v>12</v>
@@ -24801,7 +24778,7 @@
         <v>620</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="C40" s="28">
         <v>13.49</v>
@@ -24818,7 +24795,7 @@
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J40" s="28">
         <v>12</v>
@@ -24847,7 +24824,7 @@
         <v>622</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="C41" s="28">
         <v>16.04</v>
@@ -24864,7 +24841,7 @@
       </c>
       <c r="H41" s="28"/>
       <c r="I41" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J41" s="28">
         <v>12</v>
@@ -24893,7 +24870,7 @@
         <v>624</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="C42" s="28">
         <v>16.350000000000001</v>
@@ -24910,7 +24887,7 @@
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J42" s="28">
         <v>12</v>
@@ -24939,7 +24916,7 @@
         <v>626</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="C43" s="28">
         <v>18.899999999999999</v>
@@ -24956,7 +24933,7 @@
       </c>
       <c r="H43" s="28"/>
       <c r="I43" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J43" s="28">
         <v>12</v>
@@ -24985,7 +24962,7 @@
         <v>627</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="C44" s="28">
         <v>20.25</v>
@@ -25002,7 +24979,7 @@
       </c>
       <c r="H44" s="28"/>
       <c r="I44" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J44" s="28">
         <v>12</v>
@@ -25031,7 +25008,7 @@
         <v>629</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="C45" s="28">
         <v>21.32</v>
@@ -25048,7 +25025,7 @@
       </c>
       <c r="H45" s="28"/>
       <c r="I45" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J45" s="28">
         <v>12</v>
@@ -25077,7 +25054,7 @@
         <v>630</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="C46" s="28">
         <v>39.01</v>
@@ -25094,7 +25071,7 @@
       </c>
       <c r="H46" s="28"/>
       <c r="I46" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J46" s="28">
         <v>12</v>
@@ -25123,7 +25100,7 @@
         <v>632</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="C47" s="28">
         <v>55.52</v>
@@ -25140,7 +25117,7 @@
       </c>
       <c r="H47" s="28"/>
       <c r="I47" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J47" s="28">
         <v>12</v>
@@ -25169,7 +25146,7 @@
         <v>634</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="C48" s="28">
         <v>78.040000000000006</v>
@@ -25186,7 +25163,7 @@
       </c>
       <c r="H48" s="28"/>
       <c r="I48" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J48" s="28">
         <v>12</v>
@@ -25215,7 +25192,7 @@
         <v>636</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="C49" s="28">
         <v>103.52</v>
@@ -25232,7 +25209,7 @@
       </c>
       <c r="H49" s="28"/>
       <c r="I49" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J49" s="28">
         <v>12</v>
@@ -25261,7 +25238,7 @@
         <v>638</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="C50" s="28">
         <v>135.04</v>
@@ -25278,7 +25255,7 @@
       </c>
       <c r="H50" s="28"/>
       <c r="I50" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J50" s="28">
         <v>12</v>
@@ -25307,7 +25284,7 @@
         <v>640</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="C51" s="28">
         <v>147.06</v>
@@ -25324,7 +25301,7 @@
       </c>
       <c r="H51" s="28"/>
       <c r="I51" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J51" s="28">
         <v>12</v>
@@ -25353,7 +25330,7 @@
         <v>641</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="C52" s="28">
         <v>180.06</v>
@@ -25370,7 +25347,7 @@
       </c>
       <c r="H52" s="28"/>
       <c r="I52" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J52" s="28">
         <v>12</v>
@@ -25399,7 +25376,7 @@
         <v>643</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="C53" s="28">
         <v>210.07</v>
@@ -25416,7 +25393,7 @@
       </c>
       <c r="H53" s="28"/>
       <c r="I53" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J53" s="28">
         <v>12</v>
@@ -25445,7 +25422,7 @@
         <v>645</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="C54" s="28">
         <v>223.56</v>
@@ -25462,7 +25439,7 @@
       </c>
       <c r="H54" s="28"/>
       <c r="I54" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J54" s="28">
         <v>12</v>
@@ -25491,7 +25468,7 @@
         <v>647</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="C55" s="28">
         <v>231.08</v>
@@ -25508,7 +25485,7 @@
       </c>
       <c r="H55" s="28"/>
       <c r="I55" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J55" s="28">
         <v>12</v>
@@ -25537,7 +25514,7 @@
         <v>648</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="C56" s="28">
         <v>280.58</v>
@@ -25554,7 +25531,7 @@
       </c>
       <c r="H56" s="28"/>
       <c r="I56" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J56" s="28">
         <v>12</v>
@@ -25583,7 +25560,7 @@
         <v>650</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="C57" s="28">
         <v>267.38</v>
@@ -25600,7 +25577,7 @@
       </c>
       <c r="H57" s="28"/>
       <c r="I57" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J57" s="28">
         <v>12</v>
@@ -25629,7 +25606,7 @@
         <v>652</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="C58" s="28">
         <v>343.62</v>
@@ -25646,7 +25623,7 @@
       </c>
       <c r="H58" s="28"/>
       <c r="I58" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J58" s="28">
         <v>12</v>
@@ -25675,7 +25652,7 @@
         <v>653</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="C59" s="28">
         <v>381.12</v>
@@ -25692,7 +25669,7 @@
       </c>
       <c r="H59" s="28"/>
       <c r="I59" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J59" s="28">
         <v>12</v>
@@ -25721,7 +25698,7 @@
         <v>655</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="C60" s="28">
         <v>435.14</v>
@@ -25738,7 +25715,7 @@
       </c>
       <c r="H60" s="28"/>
       <c r="I60" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J60" s="28">
         <v>12</v>
@@ -25767,7 +25744,7 @@
         <v>657</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="C61" s="28">
         <v>528.16</v>
@@ -25784,7 +25761,7 @@
       </c>
       <c r="H61" s="28"/>
       <c r="I61" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J61" s="28">
         <v>12</v>
@@ -25813,7 +25790,7 @@
         <v>659</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="C62" s="28">
         <v>664.59</v>
@@ -25830,7 +25807,7 @@
       </c>
       <c r="H62" s="28"/>
       <c r="I62" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J62" s="28">
         <v>12</v>
@@ -25859,7 +25836,7 @@
         <v>661</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="C63" s="28">
         <v>20.71</v>
@@ -25876,7 +25853,7 @@
       </c>
       <c r="H63" s="28"/>
       <c r="I63" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J63" s="28">
         <v>12</v>
@@ -25905,7 +25882,7 @@
         <v>662</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="C64" s="28">
         <v>22.05</v>
@@ -25922,7 +25899,7 @@
       </c>
       <c r="H64" s="28"/>
       <c r="I64" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J64" s="28">
         <v>12</v>
@@ -25951,7 +25928,7 @@
         <v>664</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="C65" s="28">
         <v>27.31</v>
@@ -25968,7 +25945,7 @@
       </c>
       <c r="H65" s="28"/>
       <c r="I65" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J65" s="28">
         <v>12</v>
@@ -25994,10 +25971,10 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="C66" s="28">
         <v>177.29</v>
@@ -26014,7 +25991,7 @@
       </c>
       <c r="H66" s="28"/>
       <c r="I66" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J66" s="28">
         <v>12</v>
@@ -26043,7 +26020,7 @@
         <v>667</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="C67" s="28">
         <v>277.01</v>
@@ -26060,7 +26037,7 @@
       </c>
       <c r="H67" s="28"/>
       <c r="I67" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J67" s="28">
         <v>12</v>
@@ -26089,7 +26066,7 @@
         <v>669</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="C68" s="28">
         <v>339.33</v>
@@ -26106,7 +26083,7 @@
       </c>
       <c r="H68" s="28"/>
       <c r="I68" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J68" s="28">
         <v>12</v>
@@ -26135,7 +26112,7 @@
         <v>671</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="C69" s="28">
         <v>427.98</v>
@@ -26152,7 +26129,7 @@
       </c>
       <c r="H69" s="28"/>
       <c r="I69" s="28" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J69" s="28">
         <v>12</v>
@@ -26181,7 +26158,7 @@
         <v>673</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="C70" s="31">
         <v>8.0500000000000007</v>
@@ -26191,14 +26168,14 @@
         <v>63</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G70" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H70" s="31"/>
       <c r="I70" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J70" s="31">
         <v>12</v>
@@ -26227,7 +26204,7 @@
         <v>674</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="C71" s="31">
         <v>11.68</v>
@@ -26237,14 +26214,14 @@
         <v>63</v>
       </c>
       <c r="F71" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G71" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H71" s="31"/>
       <c r="I71" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J71" s="31">
         <v>12</v>
@@ -26273,7 +26250,7 @@
         <v>676</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="C72" s="31">
         <v>23.95</v>
@@ -26283,14 +26260,14 @@
         <v>63</v>
       </c>
       <c r="F72" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G72" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H72" s="31"/>
       <c r="I72" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J72" s="31">
         <v>12</v>
@@ -26319,7 +26296,7 @@
         <v>677</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="C73" s="31">
         <v>13.02</v>
@@ -26329,14 +26306,14 @@
         <v>63</v>
       </c>
       <c r="F73" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G73" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H73" s="31"/>
       <c r="I73" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J73" s="31">
         <v>12</v>
@@ -26365,7 +26342,7 @@
         <v>678</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="C74" s="31">
         <v>20.69</v>
@@ -26375,14 +26352,14 @@
         <v>63</v>
       </c>
       <c r="F74" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G74" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H74" s="31"/>
       <c r="I74" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J74" s="31">
         <v>12</v>
@@ -26411,7 +26388,7 @@
         <v>679</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="C75" s="31">
         <v>21.74</v>
@@ -26421,14 +26398,14 @@
         <v>63</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G75" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H75" s="31"/>
       <c r="I75" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J75" s="31">
         <v>12</v>
@@ -26457,7 +26434,7 @@
         <v>680</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="C76" s="31">
         <v>26.6</v>
@@ -26467,14 +26444,14 @@
         <v>63</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G76" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H76" s="31"/>
       <c r="I76" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J76" s="31">
         <v>12</v>
@@ -26503,7 +26480,7 @@
         <v>681</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="C77" s="31">
         <v>47.04</v>
@@ -26513,14 +26490,14 @@
         <v>63</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H77" s="31"/>
       <c r="I77" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J77" s="31">
         <v>12</v>
@@ -26549,7 +26526,7 @@
         <v>682</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="C78" s="31">
         <v>64.08</v>
@@ -26559,14 +26536,14 @@
         <v>63</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G78" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H78" s="31"/>
       <c r="I78" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J78" s="31">
         <v>12</v>
@@ -26595,7 +26572,7 @@
         <v>683</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="C79" s="31">
         <v>66.31</v>
@@ -26605,14 +26582,14 @@
         <v>63</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G79" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H79" s="31"/>
       <c r="I79" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J79" s="31">
         <v>12</v>
@@ -26641,7 +26618,7 @@
         <v>684</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="C80" s="31">
         <v>95.72</v>
@@ -26651,14 +26628,14 @@
         <v>63</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G80" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H80" s="31"/>
       <c r="I80" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J80" s="31">
         <v>12</v>
@@ -26687,7 +26664,7 @@
         <v>685</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="C81" s="31">
         <v>119.06</v>
@@ -26697,14 +26674,14 @@
         <v>63</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H81" s="31"/>
       <c r="I81" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J81" s="31">
         <v>12</v>
@@ -26733,7 +26710,7 @@
         <v>686</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="C82" s="31">
         <v>152.11000000000001</v>
@@ -26743,14 +26720,14 @@
         <v>63</v>
       </c>
       <c r="F82" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G82" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H82" s="31"/>
       <c r="I82" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J82" s="31">
         <v>12</v>
@@ -26779,7 +26756,7 @@
         <v>687</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="C83" s="31">
         <v>241.3</v>
@@ -26789,14 +26766,14 @@
         <v>63</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H83" s="31"/>
       <c r="I83" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J83" s="31">
         <v>12</v>
@@ -26825,7 +26802,7 @@
         <v>688</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="C84" s="31">
         <v>326.89</v>
@@ -26835,14 +26812,14 @@
         <v>63</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H84" s="31"/>
       <c r="I84" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J84" s="31">
         <v>12</v>
@@ -26871,7 +26848,7 @@
         <v>690</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="C85" s="31">
         <v>329.71</v>
@@ -26881,14 +26858,14 @@
         <v>63</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H85" s="31"/>
       <c r="I85" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J85" s="31">
         <v>12</v>
@@ -26917,7 +26894,7 @@
         <v>691</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="C86" s="31">
         <v>401.55</v>
@@ -26927,14 +26904,14 @@
         <v>63</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G86" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H86" s="31"/>
       <c r="I86" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J86" s="31">
         <v>12</v>
@@ -26963,7 +26940,7 @@
         <v>693</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="C87" s="31">
         <v>542.24</v>
@@ -26973,14 +26950,14 @@
         <v>63</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G87" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H87" s="31"/>
       <c r="I87" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J87" s="31">
         <v>12</v>
@@ -27009,7 +26986,7 @@
         <v>695</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="C88" s="31">
         <v>666.67</v>
@@ -27019,14 +26996,14 @@
         <v>63</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G88" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H88" s="31"/>
       <c r="I88" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J88" s="31">
         <v>12</v>
@@ -27055,7 +27032,7 @@
         <v>697</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="C89" s="31">
         <v>705.47</v>
@@ -27065,14 +27042,14 @@
         <v>63</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G89" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H89" s="31"/>
       <c r="I89" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J89" s="31">
         <v>12</v>
@@ -27101,7 +27078,7 @@
         <v>698</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="C90" s="31">
         <v>18.420000000000002</v>
@@ -27111,14 +27088,14 @@
         <v>63</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G90" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H90" s="31"/>
       <c r="I90" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J90" s="31">
         <v>12</v>
@@ -27147,7 +27124,7 @@
         <v>699</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="C91" s="31">
         <v>22.34</v>
@@ -27157,14 +27134,14 @@
         <v>63</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G91" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H91" s="31"/>
       <c r="I91" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J91" s="31">
         <v>12</v>
@@ -27193,7 +27170,7 @@
         <v>700</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="C92" s="31">
         <v>23.37</v>
@@ -27203,14 +27180,14 @@
         <v>63</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G92" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H92" s="31"/>
       <c r="I92" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J92" s="31">
         <v>12</v>
@@ -27239,7 +27216,7 @@
         <v>701</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="C93" s="31">
         <v>30.08</v>
@@ -27249,14 +27226,14 @@
         <v>63</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G93" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H93" s="31"/>
       <c r="I93" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J93" s="31">
         <v>12</v>
@@ -27285,7 +27262,7 @@
         <v>702</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="C94" s="31">
         <v>29.67</v>
@@ -27295,14 +27272,14 @@
         <v>63</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G94" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H94" s="31"/>
       <c r="I94" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J94" s="31">
         <v>12</v>
@@ -27331,7 +27308,7 @@
         <v>703</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="C95" s="31">
         <v>54.04</v>
@@ -27341,14 +27318,14 @@
         <v>63</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G95" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H95" s="31"/>
       <c r="I95" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J95" s="31">
         <v>12</v>
@@ -27377,7 +27354,7 @@
         <v>704</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="C96" s="31">
         <v>81.180000000000007</v>
@@ -27387,14 +27364,14 @@
         <v>63</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G96" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H96" s="31"/>
       <c r="I96" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J96" s="31">
         <v>12</v>
@@ -27423,7 +27400,7 @@
         <v>705</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="C97" s="31">
         <v>119.73</v>
@@ -27433,14 +27410,14 @@
         <v>63</v>
       </c>
       <c r="F97" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G97" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H97" s="31"/>
       <c r="I97" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J97" s="31">
         <v>12</v>
@@ -27469,7 +27446,7 @@
         <v>706</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="C98" s="31">
         <v>151.78</v>
@@ -27479,14 +27456,14 @@
         <v>63</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G98" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H98" s="31"/>
       <c r="I98" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J98" s="31">
         <v>12</v>
@@ -27515,7 +27492,7 @@
         <v>707</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="C99" s="31">
         <v>181.77</v>
@@ -27525,14 +27502,14 @@
         <v>63</v>
       </c>
       <c r="F99" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G99" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H99" s="31"/>
       <c r="I99" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J99" s="31">
         <v>12</v>
@@ -27561,7 +27538,7 @@
         <v>708</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="C100" s="31">
         <v>244.98</v>
@@ -27571,14 +27548,14 @@
         <v>63</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G100" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H100" s="31"/>
       <c r="I100" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J100" s="31">
         <v>12</v>
@@ -27607,7 +27584,7 @@
         <v>709</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="C101" s="31">
         <v>243.14</v>
@@ -27617,14 +27594,14 @@
         <v>63</v>
       </c>
       <c r="F101" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G101" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H101" s="31"/>
       <c r="I101" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J101" s="31">
         <v>12</v>
@@ -27653,7 +27630,7 @@
         <v>711</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="C102" s="31">
         <v>283.44</v>
@@ -27663,14 +27640,14 @@
         <v>63</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G102" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H102" s="31"/>
       <c r="I102" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J102" s="31">
         <v>12</v>
@@ -27699,7 +27676,7 @@
         <v>713</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="C103" s="31">
         <v>340.64</v>
@@ -27709,14 +27686,14 @@
         <v>63</v>
       </c>
       <c r="F103" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G103" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H103" s="31"/>
       <c r="I103" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J103" s="31">
         <v>12</v>
@@ -27745,7 +27722,7 @@
         <v>715</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="C104" s="31">
         <v>381.82</v>
@@ -27755,14 +27732,14 @@
         <v>63</v>
       </c>
       <c r="F104" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G104" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H104" s="31"/>
       <c r="I104" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J104" s="31">
         <v>12</v>
@@ -27791,7 +27768,7 @@
         <v>717</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="C105" s="31">
         <v>55.26</v>
@@ -27801,14 +27778,14 @@
         <v>63</v>
       </c>
       <c r="F105" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G105" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H105" s="31"/>
       <c r="I105" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J105" s="31">
         <v>12</v>
@@ -27837,7 +27814,7 @@
         <v>718</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="C106" s="31">
         <v>77.36</v>
@@ -27847,14 +27824,14 @@
         <v>63</v>
       </c>
       <c r="F106" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G106" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H106" s="31"/>
       <c r="I106" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J106" s="31">
         <v>12</v>
@@ -27883,7 +27860,7 @@
         <v>719</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="C107" s="31">
         <v>169.46</v>
@@ -27893,14 +27870,14 @@
         <v>63</v>
       </c>
       <c r="F107" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G107" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H107" s="31"/>
       <c r="I107" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J107" s="31">
         <v>12</v>
@@ -27929,7 +27906,7 @@
         <v>720</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="C108" s="31">
         <v>329.71</v>
@@ -27939,14 +27916,14 @@
         <v>63</v>
       </c>
       <c r="F108" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G108" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H108" s="31"/>
       <c r="I108" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J108" s="31">
         <v>12</v>
@@ -27975,7 +27952,7 @@
         <v>722</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="C109" s="31">
         <v>418.13</v>
@@ -27985,14 +27962,14 @@
         <v>63</v>
       </c>
       <c r="F109" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G109" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H109" s="31"/>
       <c r="I109" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J109" s="31">
         <v>12</v>
@@ -28021,7 +27998,7 @@
         <v>724</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="C110" s="31">
         <v>552.59</v>
@@ -28031,14 +28008,14 @@
         <v>63</v>
       </c>
       <c r="F110" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G110" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H110" s="31"/>
       <c r="I110" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J110" s="31">
         <v>12</v>
@@ -28067,7 +28044,7 @@
         <v>726</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>1110</v>
+        <v>1411</v>
       </c>
       <c r="C111" s="31">
         <v>21.07</v>
@@ -28077,14 +28054,14 @@
         <v>63</v>
       </c>
       <c r="F111" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G111" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H111" s="31"/>
       <c r="I111" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J111" s="31">
         <v>12</v>
@@ -28110,10 +28087,10 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="31" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>1117</v>
+        <v>1412</v>
       </c>
       <c r="C112" s="31">
         <v>44.21</v>
@@ -28123,14 +28100,14 @@
         <v>63</v>
       </c>
       <c r="F112" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G112" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H112" s="31"/>
       <c r="I112" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J112" s="31">
         <v>12</v>
@@ -28156,10 +28133,10 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="31" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>1118</v>
+        <v>1413</v>
       </c>
       <c r="C113" s="31">
         <v>61.06</v>
@@ -28169,14 +28146,14 @@
         <v>63</v>
       </c>
       <c r="F113" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G113" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H113" s="31"/>
       <c r="I113" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J113" s="31">
         <v>12</v>
@@ -28202,10 +28179,10 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="31" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>1119</v>
+        <v>1414</v>
       </c>
       <c r="C114" s="31">
         <v>88.41</v>
@@ -28215,14 +28192,14 @@
         <v>63</v>
       </c>
       <c r="F114" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G114" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H114" s="31"/>
       <c r="I114" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J114" s="31">
         <v>12</v>
@@ -28248,10 +28225,10 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>1120</v>
+        <v>1415</v>
       </c>
       <c r="C115" s="31">
         <v>142.57</v>
@@ -28261,14 +28238,14 @@
         <v>63</v>
       </c>
       <c r="F115" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G115" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H115" s="31"/>
       <c r="I115" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J115" s="31">
         <v>12</v>
@@ -28294,10 +28271,10 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="31" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>1121</v>
+        <v>1416</v>
       </c>
       <c r="C116" s="31">
         <v>217.35</v>
@@ -28307,14 +28284,14 @@
         <v>63</v>
       </c>
       <c r="F116" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G116" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H116" s="31"/>
       <c r="I116" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J116" s="31">
         <v>12</v>
@@ -28340,10 +28317,10 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>1122</v>
+        <v>1417</v>
       </c>
       <c r="C117" s="31">
         <v>302.08</v>
@@ -28353,14 +28330,14 @@
         <v>63</v>
       </c>
       <c r="F117" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="G117" s="31" t="s">
-        <v>1420</v>
+        <v>1385</v>
       </c>
       <c r="H117" s="31"/>
       <c r="I117" s="31" t="s">
-        <v>1405</v>
+        <v>1370</v>
       </c>
       <c r="J117" s="31">
         <v>12</v>
@@ -28407,7 +28384,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -28431,7 +28408,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1396</v>
+        <v>1361</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -28483,10 +28460,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C3" s="27">
         <v>15.6</v>
@@ -28503,7 +28480,7 @@
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="1" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J3" s="27">
         <v>24</v>
@@ -28526,10 +28503,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -28544,7 +28521,7 @@
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="1" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J4" s="27">
         <v>24</v>
@@ -28567,10 +28544,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C5" s="27">
         <v>18</v>
@@ -28587,7 +28564,7 @@
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="1" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J5" s="27">
         <v>24</v>
@@ -28610,10 +28587,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C6" s="27">
         <v>27</v>
@@ -28630,7 +28607,7 @@
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="1" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J6" s="27">
         <v>24</v>
@@ -28674,7 +28651,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -28698,7 +28675,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1396</v>
+        <v>1361</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -28776,7 +28753,7 @@
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J3" s="27">
         <v>24</v>
@@ -28826,7 +28803,7 @@
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J4" s="27">
         <v>24</v>
@@ -28876,7 +28853,7 @@
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J5" s="27">
         <v>24</v>
@@ -28926,7 +28903,7 @@
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J6" s="27">
         <v>24</v>
@@ -28976,7 +28953,7 @@
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J7" s="27">
         <v>24</v>
@@ -29024,7 +29001,7 @@
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J8" s="27">
         <v>24</v>
@@ -29070,7 +29047,7 @@
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J9" s="27">
         <v>24</v>
@@ -29116,7 +29093,7 @@
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J10" s="27">
         <v>24</v>
@@ -29164,7 +29141,7 @@
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J11" s="27">
         <v>24</v>
@@ -29212,7 +29189,7 @@
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J12" s="27">
         <v>24</v>
@@ -29260,7 +29237,7 @@
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J13" s="27">
         <v>24</v>
@@ -29308,7 +29285,7 @@
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J14" s="27">
         <v>24</v>
@@ -29369,7 +29346,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -29393,7 +29370,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1396</v>
+        <v>1361</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -29521,11 +29498,11 @@
         <v>784</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J3" s="27">
         <v>12</v>
@@ -29597,11 +29574,11 @@
         <v>784</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J4" s="27">
         <v>12</v>
@@ -29660,7 +29637,7 @@
         <v>783</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C5" s="27">
         <v>118</v>
@@ -29673,11 +29650,11 @@
         <v>782</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J5" s="27">
         <v>12</v>
@@ -29736,7 +29713,7 @@
         <v>781</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C6" s="27">
         <v>190</v>
@@ -29749,11 +29726,11 @@
         <v>780</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J6" s="27">
         <v>12</v>
@@ -29825,11 +29802,11 @@
         <v>777</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J7" s="27">
         <v>12</v>
@@ -29901,11 +29878,11 @@
         <v>777</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J8" s="27">
         <v>12</v>
@@ -29964,7 +29941,7 @@
         <v>776</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C9" s="27">
         <v>157</v>
@@ -29977,11 +29954,11 @@
         <v>775</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J9" s="27">
         <v>12</v>
@@ -30040,7 +30017,7 @@
         <v>774</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C10" s="27">
         <v>190</v>
@@ -30053,11 +30030,11 @@
         <v>773</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J10" s="27">
         <v>12</v>
@@ -30118,7 +30095,7 @@
         <v>772</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C11" s="27">
         <v>220</v>
@@ -30131,11 +30108,11 @@
         <v>771</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J11" s="27">
         <v>12</v>
@@ -30196,7 +30173,7 @@
         <v>770</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C12" s="27">
         <v>252</v>
@@ -30209,11 +30186,11 @@
         <v>769</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J12" s="27">
         <v>12</v>
@@ -30274,7 +30251,7 @@
         <v>768</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C13" s="27">
         <v>283</v>
@@ -30287,11 +30264,11 @@
         <v>767</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J13" s="27">
         <v>12</v>
@@ -30352,7 +30329,7 @@
         <v>766</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C14" s="27">
         <v>315</v>
@@ -30365,11 +30342,11 @@
         <v>765</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J14" s="27">
         <v>12</v>
@@ -30430,7 +30407,7 @@
         <v>764</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C15" s="27">
         <v>421</v>
@@ -30443,11 +30420,11 @@
         <v>763</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J15" s="27">
         <v>12</v>
@@ -30508,7 +30485,7 @@
         <v>762</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C16" s="27">
         <v>298</v>
@@ -30521,11 +30498,11 @@
         <v>761</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27" t="s">
-        <v>1410</v>
+        <v>1375</v>
       </c>
       <c r="J16" s="27">
         <v>12</v>
@@ -30595,7 +30572,7 @@
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J17" s="27">
         <v>60</v>
@@ -30638,7 +30615,7 @@
         <v>759</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C18" s="27">
         <v>240</v>
@@ -30653,7 +30630,7 @@
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J18" s="27">
         <v>60</v>
@@ -30711,7 +30688,7 @@
       </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27" t="s">
-        <v>1409</v>
+        <v>1374</v>
       </c>
       <c r="J19" s="27">
         <v>60</v>
@@ -30788,7 +30765,7 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -30812,7 +30789,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1396</v>
+        <v>1361</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -30897,7 +30874,7 @@
         <v>823</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C3" s="27">
         <v>297</v>
@@ -30910,11 +30887,11 @@
         <v>822</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J3" s="27">
         <v>12</v>
@@ -30949,7 +30926,7 @@
         <v>821</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C4" s="27">
         <v>297</v>
@@ -30962,11 +30939,11 @@
         <v>820</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J4" s="27">
         <v>12</v>
@@ -31001,7 +30978,7 @@
         <v>819</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C5" s="27">
         <v>335</v>
@@ -31014,11 +30991,11 @@
         <v>818</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J5" s="27">
         <v>12</v>
@@ -31053,7 +31030,7 @@
         <v>817</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C6" s="27">
         <v>335</v>
@@ -31066,11 +31043,11 @@
         <v>816</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J6" s="27">
         <v>12</v>
@@ -31145,7 +31122,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -31169,7 +31146,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1396</v>
+        <v>1361</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -31248,7 +31225,7 @@
         <v>844</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C3" s="27">
         <v>244</v>
@@ -31261,11 +31238,11 @@
         <v>843</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27" t="s">
-        <v>1408</v>
+        <v>1373</v>
       </c>
       <c r="J3" s="27">
         <v>12</v>
@@ -31341,8 +31318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31354,7 +31331,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>48</v>
@@ -31378,7 +31355,7 @@
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>1396</v>
+        <v>1361</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>55</v>
@@ -31436,7 +31413,7 @@
         <v>876</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C3" s="27">
         <v>190</v>
@@ -31449,11 +31426,11 @@
         <v>875</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="27" t="s">
-        <v>1411</v>
+        <v>1376</v>
       </c>
       <c r="J3" s="27">
         <v>12</v>
@@ -31498,7 +31475,7 @@
         <v>873</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C4" s="27">
         <v>290</v>
@@ -31511,11 +31488,11 @@
         <v>872</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="27" t="s">
-        <v>1411</v>
+        <v>1376</v>
       </c>
       <c r="J4" s="27">
         <v>12</v>
@@ -31560,7 +31537,7 @@
         <v>871</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C5" s="27">
         <v>308</v>
@@ -31573,11 +31550,11 @@
         <v>867</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H5" s="27"/>
       <c r="I5" s="27" t="s">
-        <v>1411</v>
+        <v>1376</v>
       </c>
       <c r="J5" s="27">
         <v>12</v>
@@ -31622,7 +31599,7 @@
         <v>870</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C6" s="27">
         <v>650</v>
@@ -31635,11 +31612,11 @@
         <v>867</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="27" t="s">
-        <v>1411</v>
+        <v>1376</v>
       </c>
       <c r="J6" s="27">
         <v>12</v>
@@ -31684,7 +31661,7 @@
         <v>869</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C7" s="27">
         <v>305</v>
@@ -31697,11 +31674,11 @@
         <v>867</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>1411</v>
+        <v>1376</v>
       </c>
       <c r="J7" s="27">
         <v>12</v>
@@ -31746,7 +31723,7 @@
         <v>868</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C8" s="27">
         <v>290</v>
@@ -31759,11 +31736,11 @@
         <v>867</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>1411</v>
+        <v>1376</v>
       </c>
       <c r="J8" s="27">
         <v>12</v>
@@ -31808,7 +31785,7 @@
         <v>865</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C9" s="27">
         <v>426</v>
@@ -31821,11 +31798,11 @@
         <v>863</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27" t="s">
-        <v>1412</v>
+        <v>1377</v>
       </c>
       <c r="J9" s="27">
         <v>12</v>
@@ -31870,7 +31847,7 @@
         <v>864</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C10" s="27">
         <v>487</v>
@@ -31883,11 +31860,11 @@
         <v>863</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27" t="s">
-        <v>1413</v>
+        <v>1378</v>
       </c>
       <c r="J10" s="27">
         <v>12</v>
@@ -31932,7 +31909,7 @@
         <v>861</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C11" s="27">
         <v>457</v>
@@ -31945,11 +31922,11 @@
         <v>860</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>1412</v>
+        <v>1377</v>
       </c>
       <c r="J11" s="27">
         <v>12</v>
@@ -31994,7 +31971,7 @@
         <v>859</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C12" s="27">
         <v>586</v>
@@ -32007,11 +31984,11 @@
         <v>858</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>1429</v>
+        <v>1394</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>1413</v>
+        <v>1378</v>
       </c>
       <c r="J12" s="27">
         <v>12</v>

--- a/src/WebMarket/WebMarket/App_Data/Products.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="avr" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4239" uniqueCount="1616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="1617">
   <si>
     <t>DisplayName</t>
   </si>
@@ -3112,9 +3112,6 @@
     <t>LX613-1.3Ah</t>
   </si>
   <si>
-    <t>LX 613</t>
-  </si>
-  <si>
     <t>agm</t>
   </si>
   <si>
@@ -3130,7 +3127,7 @@
     <t>LX645-4.5Ah</t>
   </si>
   <si>
-    <t>LX 645</t>
+    <t>Luxeon-LX645-4.5Ah</t>
   </si>
   <si>
     <t>70 x 45 x 105</t>
@@ -3142,7 +3139,7 @@
     <t>LX645B-4.5Ah</t>
   </si>
   <si>
-    <t>LX 645B</t>
+    <t>Luxeon-LX645B-4.5Ah</t>
   </si>
   <si>
     <t>70 x 45 x 100</t>
@@ -3154,7 +3151,7 @@
     <t>LX670-7.0Ah</t>
   </si>
   <si>
-    <t>LX 670</t>
+    <t>Luxeon-LX670-7.0Ah</t>
   </si>
   <si>
     <t>15 x 33 x 90</t>
@@ -3166,25 +3163,19 @@
     <t>LX1213-1.3Ah</t>
   </si>
   <si>
-    <t>LX 1213</t>
-  </si>
-  <si>
     <t>LX 6120 12Ah</t>
   </si>
   <si>
     <t>LX6120-12Ah</t>
   </si>
   <si>
-    <t xml:space="preserve">LX6120 </t>
-  </si>
-  <si>
     <t>LX 1250E 5Аh</t>
   </si>
   <si>
     <t>LX1250E-5Ah</t>
   </si>
   <si>
-    <t>LX 1250E</t>
+    <t>Luxeon-LX1250E-5Ah</t>
   </si>
   <si>
     <t>90 x 70 x 105</t>
@@ -3196,7 +3187,7 @@
     <t>LX1270E-7Ah</t>
   </si>
   <si>
-    <t>LX 1270E</t>
+    <t>Luxeon-LX1270E-7Ah</t>
   </si>
   <si>
     <t>151 x 65 x 111</t>
@@ -3208,7 +3199,7 @@
     <t>LX1272-7.2Ah</t>
   </si>
   <si>
-    <t>LX 1272</t>
+    <t>Luxeon-LX1272-7.2Ah</t>
   </si>
   <si>
     <t>LX 1290 9Ah</t>
@@ -3217,7 +3208,7 @@
     <t>LX1290-9Ah</t>
   </si>
   <si>
-    <t>LX 1290</t>
+    <t>Luxeon-LX1290-9Ah</t>
   </si>
   <si>
     <t>LX 12120MG 12Ah</t>
@@ -3226,7 +3217,7 @@
     <t>LX12120MG-12Ah</t>
   </si>
   <si>
-    <t>LX 12-12MG</t>
+    <t>Luxeon-LX12120MG-12Ah</t>
   </si>
   <si>
     <t>gel</t>
@@ -3241,7 +3232,7 @@
     <t>LX12200MG-20Ah</t>
   </si>
   <si>
-    <t>LX 12-20MG</t>
+    <t>Luxeon-LX12200MG-20Ah</t>
   </si>
   <si>
     <t>181 x 77 x 167</t>
@@ -3253,7 +3244,7 @@
     <t>LX12-26MG-26Ah</t>
   </si>
   <si>
-    <t>LX 12-26MG</t>
+    <t>Luxeon-LX12-26MG-26Ah</t>
   </si>
   <si>
     <t>166 x 175 x 125</t>
@@ -3265,7 +3256,7 @@
     <t>LX12260G-26Ah</t>
   </si>
   <si>
-    <t>LX 12-26G</t>
+    <t>Luxeon-LX12260G-26Ah</t>
   </si>
   <si>
     <t>LX 12-60G 60Ah</t>
@@ -3274,7 +3265,7 @@
     <t>LX12-60G-60Ah</t>
   </si>
   <si>
-    <t>LX 12-60G</t>
+    <t>Luxeon-LX12-60G-60Ah</t>
   </si>
   <si>
     <t xml:space="preserve"> 260 x 169 x 210</t>
@@ -3286,7 +3277,7 @@
     <t>LX12-65MG-65Ah</t>
   </si>
   <si>
-    <t>LX 12-65MG</t>
+    <t>Luxeon-LX12-65MG-65Ah</t>
   </si>
   <si>
     <t>350 x 167 x 182</t>
@@ -3298,7 +3289,7 @@
     <t>LX12-100MG-100Ah</t>
   </si>
   <si>
-    <t>LX 12-100MG</t>
+    <t>Luxeon-LX12-100MG-100Ah</t>
   </si>
   <si>
     <t xml:space="preserve"> 328 x 172 x 214</t>
@@ -3310,6 +3301,9 @@
     <t>LX12-105FG</t>
   </si>
   <si>
+    <t>Luxeon-LX12-105FG</t>
+  </si>
+  <si>
     <t>508 x 111 x 236</t>
   </si>
   <si>
@@ -3319,13 +3313,16 @@
     <t>LX12-105FMG</t>
   </si>
   <si>
+    <t>Luxeon-LX12-105FMG</t>
+  </si>
+  <si>
     <t>LX 12-100G 100Ah</t>
   </si>
   <si>
     <t>LX12-100G-100Ah</t>
   </si>
   <si>
-    <t>LX 12-100G</t>
+    <t>Luxeon-LX12-100G-100Ah</t>
   </si>
   <si>
     <t>328 x 172 x 214</t>
@@ -3337,7 +3334,7 @@
     <t>LX12-120G-120Ah</t>
   </si>
   <si>
-    <t>LX 12-120G</t>
+    <t>Luxeon-LX12-120G-120Ah</t>
   </si>
   <si>
     <t>409 x 177 x 225</t>
@@ -3349,7 +3346,7 @@
     <t>LX12-200G-200Ah</t>
   </si>
   <si>
-    <t>LX 12-200G</t>
+    <t>Luxeon-LX12-200G-200Ah</t>
   </si>
   <si>
     <t>522 x 240 x 240</t>
@@ -3361,19 +3358,19 @@
     <t>B5-6-6B-5Ah</t>
   </si>
   <si>
-    <t>VIMAR B5-6 6В 5Ah</t>
-  </si>
-  <si>
     <t>Vimar</t>
   </si>
   <si>
+    <t>Vimar-B5-6-6B-5Ah</t>
+  </si>
+  <si>
     <t>B12-6 6В 12АЧ</t>
   </si>
   <si>
     <t>B12-6-6B-12Ah</t>
   </si>
   <si>
-    <t>VIMAR B12-6 6В 12АЧ</t>
+    <t>Vimar-B12-6-6B-12Ah</t>
   </si>
   <si>
     <t>B7.5-12 7,5Ач</t>
@@ -3382,7 +3379,7 @@
     <t>B7.5-12-7.5Ah</t>
   </si>
   <si>
-    <t>VIMAR B7_5-12 7_5Ач</t>
+    <t>Vimar-B7.5-12-7.5Ah</t>
   </si>
   <si>
     <t>BG25-12 12В 25АЧ</t>
@@ -3391,7 +3388,7 @@
     <t>BG25-12-12B-25Ah</t>
   </si>
   <si>
-    <t>VIMAR BG25-12 12В 25АЧ</t>
+    <t>Vimar-BG25-12-12B-25Ah</t>
   </si>
   <si>
     <t>BG55-12 12В 55АЧ</t>
@@ -3400,7 +3397,7 @@
     <t>BG55-12-12B-55Ah</t>
   </si>
   <si>
-    <t>VIMAR BG55-12 12В 55АЧ</t>
+    <t>Vimar-BG55-12-12B-55Ah</t>
   </si>
   <si>
     <t>B70-12 12В 70АЧ</t>
@@ -3409,7 +3406,7 @@
     <t>B70-12-12B-70Ah</t>
   </si>
   <si>
-    <t>VIMAR B70-12 12В 70АЧ</t>
+    <t>Vimar-B70-12-12B-70Ah</t>
   </si>
   <si>
     <t>B100-12 12В 100АЧ</t>
@@ -3418,7 +3415,7 @@
     <t>B100-12-12B-100Ah</t>
   </si>
   <si>
-    <t>VIMAR B100-12 12В 100АЧ</t>
+    <t>Vimar-B100-12-12B-100Ah</t>
   </si>
   <si>
     <t>BG110-12 12В 110АЧ</t>
@@ -3427,7 +3424,7 @@
     <t>BG110-12-12B-110Ah</t>
   </si>
   <si>
-    <t>VIMAR BG110-12 12В 110АЧ</t>
+    <t>Vimar-BG110-12-12B-110Ah</t>
   </si>
   <si>
     <t>B160-12 12В 160АЧ</t>
@@ -3436,7 +3433,7 @@
     <t>B160-12-12B-160Ah</t>
   </si>
   <si>
-    <t>VIMAR B160-12 12В 160АЧ</t>
+    <t>Vimar-B160-12-12B-160Ah</t>
   </si>
   <si>
     <t>Ventura GP 6-1,3</t>
@@ -3448,6 +3445,9 @@
     <t>Ventura</t>
   </si>
   <si>
+    <t>Ventura-GP-6-1.3</t>
+  </si>
+  <si>
     <t>97 x 25 x 56</t>
   </si>
   <si>
@@ -4871,6 +4871,9 @@
   </si>
   <si>
     <t>не більше 0,03 В</t>
+  </si>
+  <si>
+    <t>Volter-UPS-300-offline</t>
   </si>
 </sst>
 </file>
@@ -5673,7 +5676,7 @@
   <dimension ref="A1:AN268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -21315,8 +21318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -23403,7 +23406,7 @@
         <v>47</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>1016</v>
+        <v>1616</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>420</v>
@@ -23490,7 +23493,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -23498,14 +23501,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111:B117"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23604,15 +23608,13 @@
       <c r="E3" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>1029</v>
-      </c>
+      <c r="F3" s="31"/>
       <c r="G3" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J3" s="31">
         <v>24</v>
@@ -23621,13 +23623,13 @@
         <v>5</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
       <c r="O3" s="31"/>
       <c r="P3" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q3" s="31">
         <v>6</v>
@@ -23638,10 +23640,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="31" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>1033</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>1034</v>
       </c>
       <c r="C4" s="31">
         <v>7.02</v>
@@ -23653,14 +23655,14 @@
         <v>47</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="31" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J4" s="31">
         <v>24</v>
@@ -23669,13 +23671,13 @@
         <v>5</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
       <c r="O4" s="31"/>
       <c r="P4" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q4" s="31">
         <v>6</v>
@@ -23686,10 +23688,10 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="31" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>1037</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>1038</v>
       </c>
       <c r="C5" s="31">
         <v>7.02</v>
@@ -23701,14 +23703,14 @@
         <v>47</v>
       </c>
       <c r="F5" s="31" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H5" s="31"/>
       <c r="I5" s="31" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J5" s="31">
         <v>24</v>
@@ -23717,13 +23719,13 @@
         <v>5</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
       <c r="O5" s="31"/>
       <c r="P5" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q5" s="31">
         <v>6</v>
@@ -23734,10 +23736,10 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="31" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>1041</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>1042</v>
       </c>
       <c r="C6" s="31">
         <v>11.375</v>
@@ -23749,14 +23751,14 @@
         <v>47</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J6" s="31">
         <v>24</v>
@@ -23765,13 +23767,13 @@
         <v>5</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
       <c r="O6" s="31"/>
       <c r="P6" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q6" s="31">
         <v>6</v>
@@ -23782,10 +23784,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="31" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>1045</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>1046</v>
       </c>
       <c r="C7" s="31">
         <v>10.79</v>
@@ -23796,15 +23798,13 @@
       <c r="E7" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="31" t="s">
-        <v>1047</v>
-      </c>
+      <c r="F7" s="31"/>
       <c r="G7" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J7" s="31">
         <v>24</v>
@@ -23817,7 +23817,7 @@
       <c r="N7" s="31"/>
       <c r="O7" s="31"/>
       <c r="P7" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q7" s="31">
         <v>12</v>
@@ -23828,10 +23828,10 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="31" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C8" s="31">
         <v>18.2</v>
@@ -23842,15 +23842,13 @@
       <c r="E8" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>1050</v>
-      </c>
+      <c r="F8" s="31"/>
       <c r="G8" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J8" s="31">
         <v>24</v>
@@ -23863,7 +23861,7 @@
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
       <c r="P8" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q8" s="31">
         <v>12</v>
@@ -23874,10 +23872,10 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="31" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C9" s="31">
         <v>14.04</v>
@@ -23889,14 +23887,14 @@
         <v>47</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J9" s="31">
         <v>24</v>
@@ -23905,13 +23903,13 @@
         <v>5</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
       <c r="O9" s="31"/>
       <c r="P9" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q9" s="31">
         <v>12</v>
@@ -23922,10 +23920,10 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="31" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C10" s="31">
         <v>16.38</v>
@@ -23937,14 +23935,14 @@
         <v>47</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J10" s="31">
         <v>24</v>
@@ -23953,7 +23951,7 @@
         <v>5</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="M10" s="31">
         <v>2.2999999999999998</v>
@@ -23961,7 +23959,7 @@
       <c r="N10" s="31"/>
       <c r="O10" s="31"/>
       <c r="P10" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q10" s="31">
         <v>12</v>
@@ -23972,10 +23970,10 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="31" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C11" s="31">
         <v>19.239999999999998</v>
@@ -23987,14 +23985,14 @@
         <v>47</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J11" s="31">
         <v>24</v>
@@ -24003,7 +24001,7 @@
         <v>5</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="M11" s="31">
         <v>2.2999999999999998</v>
@@ -24011,7 +24009,7 @@
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q11" s="31">
         <v>12</v>
@@ -24022,10 +24020,10 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="31" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="C12" s="31">
         <v>22.62</v>
@@ -24037,14 +24035,14 @@
         <v>47</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J12" s="31">
         <v>24</v>
@@ -24053,7 +24051,7 @@
         <v>5</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="M12" s="31">
         <v>2.2999999999999998</v>
@@ -24061,7 +24059,7 @@
       <c r="N12" s="31"/>
       <c r="O12" s="31"/>
       <c r="P12" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q12" s="31">
         <v>12</v>
@@ -24072,10 +24070,10 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="31" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="C13" s="31">
         <v>32.76</v>
@@ -24087,14 +24085,14 @@
         <v>47</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J13" s="31">
         <v>24</v>
@@ -24103,7 +24101,7 @@
         <v>5</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="M13" s="31">
         <v>3.5</v>
@@ -24111,7 +24109,7 @@
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
       <c r="P13" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q13" s="31">
         <v>12</v>
@@ -24122,10 +24120,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="31" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C14" s="31">
         <v>53.04</v>
@@ -24137,14 +24135,14 @@
         <v>47</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J14" s="31">
         <v>24</v>
@@ -24153,7 +24151,7 @@
         <v>5</v>
       </c>
       <c r="L14" s="31" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="M14" s="31">
         <v>8.5</v>
@@ -24161,7 +24159,7 @@
       <c r="N14" s="31"/>
       <c r="O14" s="31"/>
       <c r="P14" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q14" s="31">
         <v>12</v>
@@ -24172,10 +24170,10 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="31" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="C15" s="31">
         <v>75.400000000000006</v>
@@ -24187,14 +24185,14 @@
         <v>47</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J15" s="31">
         <v>24</v>
@@ -24203,7 +24201,7 @@
         <v>5</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="M15" s="31">
         <v>8.5</v>
@@ -24211,7 +24209,7 @@
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
       <c r="P15" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q15" s="31">
         <v>12</v>
@@ -24222,10 +24220,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="31" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C16" s="31">
         <v>78</v>
@@ -24237,14 +24235,14 @@
         <v>47</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J16" s="31">
         <v>24</v>
@@ -24253,7 +24251,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="M16" s="31">
         <v>8.5</v>
@@ -24261,7 +24259,7 @@
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
       <c r="P16" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q16" s="31">
         <v>12</v>
@@ -24272,10 +24270,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="31" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C17" s="31">
         <v>202.8</v>
@@ -24287,14 +24285,14 @@
         <v>47</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J17" s="31">
         <v>24</v>
@@ -24303,7 +24301,7 @@
         <v>5</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="M17" s="31">
         <v>17</v>
@@ -24311,7 +24309,7 @@
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q17" s="31">
         <v>12</v>
@@ -24322,10 +24320,10 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="31" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C18" s="31">
         <v>171.6</v>
@@ -24337,14 +24335,14 @@
         <v>47</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="G18" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J18" s="31">
         <v>24</v>
@@ -24353,7 +24351,7 @@
         <v>5</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="M18" s="31">
         <v>21.4</v>
@@ -24361,7 +24359,7 @@
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
       <c r="P18" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q18" s="31">
         <v>12</v>
@@ -24372,10 +24370,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="31" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C19" s="31">
         <v>241.8</v>
@@ -24387,14 +24385,14 @@
         <v>47</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J19" s="31">
         <v>24</v>
@@ -24403,7 +24401,7 @@
         <v>5</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="M19" s="31">
         <v>30.5</v>
@@ -24411,7 +24409,7 @@
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q19" s="31">
         <v>12</v>
@@ -24422,10 +24420,10 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="31" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="C20" s="31">
         <v>327.60000000000002</v>
@@ -24437,14 +24435,14 @@
         <v>47</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J20" s="31">
         <v>24</v>
@@ -24453,7 +24451,7 @@
         <v>5</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="M20" s="31">
         <v>32.5</v>
@@ -24461,7 +24459,7 @@
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
       <c r="P20" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q20" s="31">
         <v>12</v>
@@ -24472,10 +24470,10 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="31" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C21" s="31">
         <v>257.39999999999998</v>
@@ -24494,7 +24492,7 @@
       </c>
       <c r="H21" s="31"/>
       <c r="I21" s="31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J21" s="31">
         <v>24</v>
@@ -24503,7 +24501,7 @@
         <v>5</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="M21" s="31">
         <v>32.5</v>
@@ -24511,7 +24509,7 @@
       <c r="N21" s="31"/>
       <c r="O21" s="31"/>
       <c r="P21" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q21" s="31">
         <v>12</v>
@@ -24522,10 +24520,10 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="31" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>1098</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>1099</v>
       </c>
       <c r="C22" s="31">
         <v>312</v>
@@ -24537,14 +24535,14 @@
         <v>47</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G22" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J22" s="31">
         <v>24</v>
@@ -24553,7 +24551,7 @@
         <v>5</v>
       </c>
       <c r="L22" s="31" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="M22" s="31">
         <v>30.6</v>
@@ -24561,7 +24559,7 @@
       <c r="N22" s="31"/>
       <c r="O22" s="31"/>
       <c r="P22" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q22" s="31">
         <v>12</v>
@@ -24572,10 +24570,10 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="31" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>1102</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>1103</v>
       </c>
       <c r="C23" s="31">
         <v>351</v>
@@ -24587,14 +24585,14 @@
         <v>47</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G23" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H23" s="31"/>
       <c r="I23" s="31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J23" s="31">
         <v>24</v>
@@ -24603,7 +24601,7 @@
         <v>5</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="M23" s="31">
         <v>36.6</v>
@@ -24611,7 +24609,7 @@
       <c r="N23" s="31"/>
       <c r="O23" s="31"/>
       <c r="P23" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q23" s="31">
         <v>12</v>
@@ -24622,10 +24620,10 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="31" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>1106</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>1107</v>
       </c>
       <c r="C24" s="31">
         <v>546</v>
@@ -24637,14 +24635,14 @@
         <v>47</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G24" s="31" t="s">
         <v>170</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="31" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J24" s="31">
         <v>24</v>
@@ -24653,7 +24651,7 @@
         <v>5</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="M24" s="31">
         <v>60.6</v>
@@ -24661,7 +24659,7 @@
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
       <c r="P24" s="31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="Q24" s="31">
         <v>12</v>
@@ -24672,10 +24670,10 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="30" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B25" s="30" t="s">
         <v>1110</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>1111</v>
       </c>
       <c r="C25" s="30">
         <v>7.28</v>
@@ -24690,11 +24688,11 @@
         <v>1112</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="30" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J25" s="30">
         <v>12</v>
@@ -24716,10 +24714,10 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="30" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>1114</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>1115</v>
       </c>
       <c r="C26" s="30">
         <v>16.25</v>
@@ -24731,14 +24729,14 @@
         <v>47</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J26" s="30">
         <v>12</v>
@@ -24760,10 +24758,10 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="30" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B27" s="30" t="s">
         <v>1117</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>1118</v>
       </c>
       <c r="C27" s="30">
         <v>15.6</v>
@@ -24775,14 +24773,14 @@
         <v>47</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J27" s="30">
         <v>12</v>
@@ -24804,10 +24802,10 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="30" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B28" s="30" t="s">
         <v>1120</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>1121</v>
       </c>
       <c r="C28" s="30">
         <v>80.599999999999994</v>
@@ -24819,14 +24817,14 @@
         <v>47</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H28" s="30"/>
       <c r="I28" s="30" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J28" s="30">
         <v>12</v>
@@ -24848,10 +24846,10 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="30" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>1123</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>1124</v>
       </c>
       <c r="C29" s="30">
         <v>169</v>
@@ -24863,14 +24861,14 @@
         <v>47</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J29" s="30">
         <v>12</v>
@@ -24892,10 +24890,10 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="30" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>1126</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>1127</v>
       </c>
       <c r="C30" s="30">
         <v>162.5</v>
@@ -24907,14 +24905,14 @@
         <v>47</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J30" s="30">
         <v>12</v>
@@ -24936,10 +24934,10 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="30" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>1129</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>1130</v>
       </c>
       <c r="C31" s="30">
         <v>234</v>
@@ -24951,14 +24949,14 @@
         <v>47</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="30" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J31" s="30">
         <v>12</v>
@@ -24980,10 +24978,10 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="30" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>1132</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>1133</v>
       </c>
       <c r="C32" s="30">
         <v>305.5</v>
@@ -24995,14 +24993,14 @@
         <v>47</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="30" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J32" s="30">
         <v>12</v>
@@ -25024,10 +25022,10 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="30" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>1135</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>1136</v>
       </c>
       <c r="C33" s="30">
         <v>364</v>
@@ -25039,14 +25037,14 @@
         <v>47</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="J33" s="30">
         <v>12</v>
@@ -25068,10 +25066,10 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="29" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>1138</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>1139</v>
       </c>
       <c r="C34" s="29">
         <v>5.86</v>
@@ -25084,11 +25082,11 @@
         <v>1140</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J34" s="29">
         <v>12</v>
@@ -25126,15 +25124,13 @@
       <c r="E35" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F35" s="29"/>
       <c r="G35" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J35" s="29">
         <v>12</v>
@@ -25172,15 +25168,13 @@
       <c r="E36" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F36" s="29"/>
       <c r="G36" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J36" s="29">
         <v>12</v>
@@ -25218,15 +25212,13 @@
       <c r="E37" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F37" s="29"/>
       <c r="G37" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J37" s="29">
         <v>12</v>
@@ -25264,15 +25256,13 @@
       <c r="E38" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F38" s="29"/>
       <c r="G38" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J38" s="29">
         <v>12</v>
@@ -25310,15 +25300,13 @@
       <c r="E39" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F39" s="29"/>
       <c r="G39" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J39" s="29">
         <v>12</v>
@@ -25356,15 +25344,13 @@
       <c r="E40" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F40" s="29"/>
       <c r="G40" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J40" s="29">
         <v>12</v>
@@ -25402,15 +25388,13 @@
       <c r="E41" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F41" s="29"/>
       <c r="G41" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J41" s="29">
         <v>12</v>
@@ -25448,15 +25432,13 @@
       <c r="E42" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F42" s="29"/>
       <c r="G42" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J42" s="29">
         <v>12</v>
@@ -25494,15 +25476,13 @@
       <c r="E43" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F43" s="29"/>
       <c r="G43" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H43" s="29"/>
       <c r="I43" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J43" s="29">
         <v>12</v>
@@ -25540,15 +25520,13 @@
       <c r="E44" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F44" s="29"/>
       <c r="G44" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J44" s="29">
         <v>12</v>
@@ -25586,15 +25564,13 @@
       <c r="E45" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F45" s="29"/>
       <c r="G45" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H45" s="29"/>
       <c r="I45" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J45" s="29">
         <v>12</v>
@@ -25632,15 +25608,13 @@
       <c r="E46" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F46" s="29"/>
       <c r="G46" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H46" s="29"/>
       <c r="I46" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J46" s="29">
         <v>12</v>
@@ -25678,15 +25652,13 @@
       <c r="E47" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F47" s="29"/>
       <c r="G47" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H47" s="29"/>
       <c r="I47" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J47" s="29">
         <v>12</v>
@@ -25724,15 +25696,13 @@
       <c r="E48" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F48" s="29"/>
       <c r="G48" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H48" s="29"/>
       <c r="I48" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J48" s="29">
         <v>12</v>
@@ -25770,15 +25740,13 @@
       <c r="E49" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F49" s="29"/>
       <c r="G49" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H49" s="29"/>
       <c r="I49" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J49" s="29">
         <v>12</v>
@@ -25816,15 +25784,13 @@
       <c r="E50" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F50" s="29"/>
       <c r="G50" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J50" s="29">
         <v>12</v>
@@ -25862,15 +25828,13 @@
       <c r="E51" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F51" s="29"/>
       <c r="G51" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H51" s="29"/>
       <c r="I51" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J51" s="29">
         <v>12</v>
@@ -25908,15 +25872,13 @@
       <c r="E52" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F52" s="29"/>
       <c r="G52" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J52" s="29">
         <v>12</v>
@@ -25954,15 +25916,13 @@
       <c r="E53" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F53" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F53" s="29"/>
       <c r="G53" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H53" s="29"/>
       <c r="I53" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J53" s="29">
         <v>12</v>
@@ -26000,15 +25960,13 @@
       <c r="E54" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F54" s="29"/>
       <c r="G54" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J54" s="29">
         <v>12</v>
@@ -26046,15 +26004,13 @@
       <c r="E55" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F55" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F55" s="29"/>
       <c r="G55" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J55" s="29">
         <v>12</v>
@@ -26092,15 +26048,13 @@
       <c r="E56" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F56" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F56" s="29"/>
       <c r="G56" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H56" s="29"/>
       <c r="I56" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J56" s="29">
         <v>12</v>
@@ -26138,15 +26092,13 @@
       <c r="E57" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F57" s="29"/>
       <c r="G57" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H57" s="29"/>
       <c r="I57" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J57" s="29">
         <v>12</v>
@@ -26184,15 +26136,13 @@
       <c r="E58" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F58" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F58" s="29"/>
       <c r="G58" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H58" s="29"/>
       <c r="I58" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J58" s="29">
         <v>12</v>
@@ -26201,7 +26151,7 @@
         <v>5</v>
       </c>
       <c r="L58" s="29" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="M58" s="29">
         <v>38</v>
@@ -26230,15 +26180,13 @@
       <c r="E59" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F59" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F59" s="29"/>
       <c r="G59" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H59" s="29"/>
       <c r="I59" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J59" s="29">
         <v>12</v>
@@ -26276,15 +26224,13 @@
       <c r="E60" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F60" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F60" s="29"/>
       <c r="G60" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H60" s="29"/>
       <c r="I60" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J60" s="29">
         <v>12</v>
@@ -26322,15 +26268,13 @@
       <c r="E61" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F61" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F61" s="29"/>
       <c r="G61" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H61" s="29"/>
       <c r="I61" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J61" s="29">
         <v>12</v>
@@ -26368,15 +26312,13 @@
       <c r="E62" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F62" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F62" s="29"/>
       <c r="G62" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H62" s="29"/>
       <c r="I62" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J62" s="29">
         <v>12</v>
@@ -26414,15 +26356,13 @@
       <c r="E63" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F63" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F63" s="29"/>
       <c r="G63" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H63" s="29"/>
       <c r="I63" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J63" s="29">
         <v>12</v>
@@ -26460,15 +26400,13 @@
       <c r="E64" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F64" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F64" s="29"/>
       <c r="G64" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H64" s="29"/>
       <c r="I64" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J64" s="29">
         <v>12</v>
@@ -26506,15 +26444,13 @@
       <c r="E65" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F65" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F65" s="29"/>
       <c r="G65" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H65" s="29"/>
       <c r="I65" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J65" s="29">
         <v>12</v>
@@ -26552,15 +26488,13 @@
       <c r="E66" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F66" s="29"/>
       <c r="G66" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H66" s="29"/>
       <c r="I66" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J66" s="29">
         <v>12</v>
@@ -26598,15 +26532,13 @@
       <c r="E67" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F67" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F67" s="29"/>
       <c r="G67" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H67" s="29"/>
       <c r="I67" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J67" s="29">
         <v>12</v>
@@ -26644,15 +26576,13 @@
       <c r="E68" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F68" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F68" s="29"/>
       <c r="G68" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H68" s="29"/>
       <c r="I68" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J68" s="29">
         <v>12</v>
@@ -26690,15 +26620,13 @@
       <c r="E69" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="29" t="s">
-        <v>1140</v>
-      </c>
+      <c r="F69" s="29"/>
       <c r="G69" s="29" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H69" s="29"/>
       <c r="I69" s="29" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J69" s="29">
         <v>12</v>
@@ -26744,7 +26672,7 @@
       </c>
       <c r="H70" s="32"/>
       <c r="I70" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J70" s="32">
         <v>12</v>
@@ -26790,7 +26718,7 @@
       </c>
       <c r="H71" s="32"/>
       <c r="I71" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J71" s="32">
         <v>12</v>
@@ -26836,7 +26764,7 @@
       </c>
       <c r="H72" s="32"/>
       <c r="I72" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J72" s="32">
         <v>12</v>
@@ -26882,7 +26810,7 @@
       </c>
       <c r="H73" s="32"/>
       <c r="I73" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J73" s="32">
         <v>12</v>
@@ -26928,7 +26856,7 @@
       </c>
       <c r="H74" s="32"/>
       <c r="I74" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J74" s="32">
         <v>12</v>
@@ -26974,7 +26902,7 @@
       </c>
       <c r="H75" s="32"/>
       <c r="I75" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J75" s="32">
         <v>12</v>
@@ -27020,7 +26948,7 @@
       </c>
       <c r="H76" s="32"/>
       <c r="I76" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J76" s="32">
         <v>12</v>
@@ -27066,7 +26994,7 @@
       </c>
       <c r="H77" s="32"/>
       <c r="I77" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J77" s="32">
         <v>12</v>
@@ -27112,7 +27040,7 @@
       </c>
       <c r="H78" s="32"/>
       <c r="I78" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J78" s="32">
         <v>12</v>
@@ -27158,7 +27086,7 @@
       </c>
       <c r="H79" s="32"/>
       <c r="I79" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J79" s="32">
         <v>12</v>
@@ -27204,7 +27132,7 @@
       </c>
       <c r="H80" s="32"/>
       <c r="I80" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J80" s="32">
         <v>12</v>
@@ -27250,7 +27178,7 @@
       </c>
       <c r="H81" s="32"/>
       <c r="I81" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J81" s="32">
         <v>12</v>
@@ -27296,7 +27224,7 @@
       </c>
       <c r="H82" s="32"/>
       <c r="I82" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J82" s="32">
         <v>12</v>
@@ -27342,7 +27270,7 @@
       </c>
       <c r="H83" s="32"/>
       <c r="I83" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J83" s="32">
         <v>12</v>
@@ -27388,7 +27316,7 @@
       </c>
       <c r="H84" s="32"/>
       <c r="I84" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J84" s="32">
         <v>12</v>
@@ -27434,7 +27362,7 @@
       </c>
       <c r="H85" s="32"/>
       <c r="I85" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J85" s="32">
         <v>12</v>
@@ -27480,7 +27408,7 @@
       </c>
       <c r="H86" s="32"/>
       <c r="I86" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J86" s="32">
         <v>12</v>
@@ -27526,7 +27454,7 @@
       </c>
       <c r="H87" s="32"/>
       <c r="I87" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J87" s="32">
         <v>12</v>
@@ -27572,7 +27500,7 @@
       </c>
       <c r="H88" s="32"/>
       <c r="I88" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J88" s="32">
         <v>12</v>
@@ -27618,7 +27546,7 @@
       </c>
       <c r="H89" s="32"/>
       <c r="I89" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J89" s="32">
         <v>12</v>
@@ -27627,7 +27555,7 @@
         <v>5</v>
       </c>
       <c r="L89" s="32" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="M89" s="32">
         <v>72.5</v>
@@ -27664,7 +27592,7 @@
       </c>
       <c r="H90" s="32"/>
       <c r="I90" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J90" s="32">
         <v>12</v>
@@ -27710,7 +27638,7 @@
       </c>
       <c r="H91" s="32"/>
       <c r="I91" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J91" s="32">
         <v>12</v>
@@ -27756,7 +27684,7 @@
       </c>
       <c r="H92" s="32"/>
       <c r="I92" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J92" s="32">
         <v>12</v>
@@ -27802,7 +27730,7 @@
       </c>
       <c r="H93" s="32"/>
       <c r="I93" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J93" s="32">
         <v>12</v>
@@ -27848,7 +27776,7 @@
       </c>
       <c r="H94" s="32"/>
       <c r="I94" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J94" s="32">
         <v>12</v>
@@ -27894,7 +27822,7 @@
       </c>
       <c r="H95" s="32"/>
       <c r="I95" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J95" s="32">
         <v>12</v>
@@ -27940,7 +27868,7 @@
       </c>
       <c r="H96" s="32"/>
       <c r="I96" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J96" s="32">
         <v>12</v>
@@ -27986,7 +27914,7 @@
       </c>
       <c r="H97" s="32"/>
       <c r="I97" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J97" s="32">
         <v>12</v>
@@ -28032,7 +27960,7 @@
       </c>
       <c r="H98" s="32"/>
       <c r="I98" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J98" s="32">
         <v>12</v>
@@ -28078,7 +28006,7 @@
       </c>
       <c r="H99" s="32"/>
       <c r="I99" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J99" s="32">
         <v>12</v>
@@ -28124,7 +28052,7 @@
       </c>
       <c r="H100" s="32"/>
       <c r="I100" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J100" s="32">
         <v>12</v>
@@ -28170,7 +28098,7 @@
       </c>
       <c r="H101" s="32"/>
       <c r="I101" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J101" s="32">
         <v>12</v>
@@ -28216,7 +28144,7 @@
       </c>
       <c r="H102" s="32"/>
       <c r="I102" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J102" s="32">
         <v>12</v>
@@ -28262,7 +28190,7 @@
       </c>
       <c r="H103" s="32"/>
       <c r="I103" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J103" s="32">
         <v>12</v>
@@ -28308,7 +28236,7 @@
       </c>
       <c r="H104" s="32"/>
       <c r="I104" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J104" s="32">
         <v>12</v>
@@ -28354,7 +28282,7 @@
       </c>
       <c r="H105" s="32"/>
       <c r="I105" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J105" s="32">
         <v>12</v>
@@ -28400,7 +28328,7 @@
       </c>
       <c r="H106" s="32"/>
       <c r="I106" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J106" s="32">
         <v>12</v>
@@ -28446,7 +28374,7 @@
       </c>
       <c r="H107" s="32"/>
       <c r="I107" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J107" s="32">
         <v>12</v>
@@ -28492,7 +28420,7 @@
       </c>
       <c r="H108" s="32"/>
       <c r="I108" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J108" s="32">
         <v>12</v>
@@ -28538,7 +28466,7 @@
       </c>
       <c r="H109" s="32"/>
       <c r="I109" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J109" s="32">
         <v>12</v>
@@ -28584,7 +28512,7 @@
       </c>
       <c r="H110" s="32"/>
       <c r="I110" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J110" s="32">
         <v>12</v>
@@ -28630,7 +28558,7 @@
       </c>
       <c r="H111" s="32"/>
       <c r="I111" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J111" s="32">
         <v>12</v>
@@ -28676,7 +28604,7 @@
       </c>
       <c r="H112" s="32"/>
       <c r="I112" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J112" s="32">
         <v>12</v>
@@ -28722,7 +28650,7 @@
       </c>
       <c r="H113" s="32"/>
       <c r="I113" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J113" s="32">
         <v>12</v>
@@ -28768,7 +28696,7 @@
       </c>
       <c r="H114" s="32"/>
       <c r="I114" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J114" s="32">
         <v>12</v>
@@ -28814,7 +28742,7 @@
       </c>
       <c r="H115" s="32"/>
       <c r="I115" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J115" s="32">
         <v>12</v>
@@ -28860,7 +28788,7 @@
       </c>
       <c r="H116" s="32"/>
       <c r="I116" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J116" s="32">
         <v>12</v>
@@ -28906,7 +28834,7 @@
       </c>
       <c r="H117" s="32"/>
       <c r="I117" s="32" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J117" s="32">
         <v>12</v>
@@ -28932,7 +28860,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/WebMarket/WebMarket/App_Data/Products.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="avr" sheetId="1" r:id="rId1"/>
@@ -5711,7 +5711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN268"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
@@ -31617,7 +31617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>

--- a/src/WebMarket/WebMarket/App_Data/Products.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="avr" sheetId="1" r:id="rId1"/>
@@ -4959,8 +4959,8 @@
   <dimension ref="A1:AN268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F142" sqref="F142"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -5193,7 +5193,7 @@
       <c r="AM2" s="13"/>
       <c r="AN2" s="13"/>
     </row>
-    <row r="3" spans="1:40" s="16" customFormat="1" outlineLevel="1">
+    <row r="3" spans="1:40" s="16" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A3" s="14" t="s">
         <v>45</v>
       </c>
@@ -5287,7 +5287,7 @@
       <c r="AM3" s="14"/>
       <c r="AN3" s="14"/>
     </row>
-    <row r="4" spans="1:40" s="14" customFormat="1" outlineLevel="1">
+    <row r="4" spans="1:40" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A4" s="14" t="s">
         <v>56</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="14" customFormat="1" outlineLevel="1">
+    <row r="5" spans="1:40" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A5" s="14" t="s">
         <v>59</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="14" customFormat="1" outlineLevel="1">
+    <row r="6" spans="1:40" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="14" customFormat="1" outlineLevel="1">
+    <row r="7" spans="1:40" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A7" s="14" t="s">
         <v>67</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="14" customFormat="1" outlineLevel="1">
+    <row r="8" spans="1:40" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A8" s="14" t="s">
         <v>69</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="14" customFormat="1" outlineLevel="1">
+    <row r="9" spans="1:40" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A9" s="14" t="s">
         <v>72</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="14" customFormat="1" outlineLevel="1">
+    <row r="10" spans="1:40" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A10" s="14" t="s">
         <v>74</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="14" customFormat="1" outlineLevel="1">
+    <row r="11" spans="1:40" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A11" s="14" t="s">
         <v>77</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="14" customFormat="1" outlineLevel="1">
+    <row r="12" spans="1:40" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A12" s="14" t="s">
         <v>79</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="14" customFormat="1" outlineLevel="1">
+    <row r="13" spans="1:40" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A13" s="14" t="s">
         <v>81</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="14" customFormat="1" outlineLevel="1">
+    <row r="14" spans="1:40" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A14" s="14" t="s">
         <v>83</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="14" customFormat="1" outlineLevel="1">
+    <row r="15" spans="1:40" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A15" s="14" t="s">
         <v>85</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="14" customFormat="1" outlineLevel="1">
+    <row r="16" spans="1:40" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A16" s="14" t="s">
         <v>88</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="17" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A17" s="14" t="s">
         <v>90</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="18" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A18" s="14" t="s">
         <v>93</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="19" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A19" s="14" t="s">
         <v>95</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="20" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A20" s="14" t="s">
         <v>97</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="21" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A21" s="14" t="s">
         <v>99</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="22" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A22" s="14" t="s">
         <v>101</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="23" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A23" s="14" t="s">
         <v>103</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="24" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A24" s="14" t="s">
         <v>105</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="25" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A25" s="14" t="s">
         <v>108</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="26" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A26" s="14" t="s">
         <v>111</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="27" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A27" s="14" t="s">
         <v>114</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="28" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A28" s="14" t="s">
         <v>117</v>
       </c>
@@ -6837,7 +6837,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="29" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A29" s="14" t="s">
         <v>119</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="30" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A30" s="14" t="s">
         <v>121</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="31" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A31" s="14" t="s">
         <v>123</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="32" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A32" s="14" t="s">
         <v>125</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="33" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A33" s="14" t="s">
         <v>127</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="34" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A34" s="14" t="s">
         <v>129</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="35" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A35" s="14" t="s">
         <v>131</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="36" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A36" s="14" t="s">
         <v>133</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="37" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A37" s="14" t="s">
         <v>135</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="38" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A38" s="14" t="s">
         <v>137</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="39" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A39" s="14" t="s">
         <v>139</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="40" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A40" s="14" t="s">
         <v>141</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="41" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A41" s="14" t="s">
         <v>143</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="42" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A42" s="14" t="s">
         <v>145</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="43" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A43" s="14" t="s">
         <v>147</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="44" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A44" s="14" t="s">
         <v>149</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="45" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A45" s="14" t="s">
         <v>151</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="46" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A46" s="14" t="s">
         <v>153</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="47" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A47" s="14" t="s">
         <v>155</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:24" s="14" customFormat="1" outlineLevel="1">
+    <row r="48" spans="1:24" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A48" s="14" t="s">
         <v>157</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:36" s="14" customFormat="1" outlineLevel="1">
+    <row r="49" spans="1:36" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A49" s="14" t="s">
         <v>159</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="50" spans="1:36" s="14" customFormat="1" outlineLevel="1">
+    <row r="50" spans="1:36" s="14" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A50" s="14" t="s">
         <v>161</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:36" s="14" customFormat="1">
+    <row r="51" spans="1:36" s="14" customFormat="1" collapsed="1">
       <c r="A51" s="14" t="s">
         <v>163</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>95.2</v>
       </c>
       <c r="D52" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>47</v>
@@ -8339,7 +8339,7 @@
         <v>105</v>
       </c>
       <c r="D53" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>47</v>
@@ -8664,7 +8664,7 @@
         <v>25.2</v>
       </c>
       <c r="D58" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>47</v>
@@ -8717,7 +8717,7 @@
         <v>25.2</v>
       </c>
       <c r="D59" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>47</v>
@@ -8770,7 +8770,7 @@
         <v>25.2</v>
       </c>
       <c r="D60" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>47</v>
@@ -8823,7 +8823,7 @@
         <v>36.4</v>
       </c>
       <c r="D61" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>47</v>
@@ -8885,7 +8885,7 @@
         <v>47.25</v>
       </c>
       <c r="D62" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>47</v>
@@ -9003,7 +9003,7 @@
         <v>26.6</v>
       </c>
       <c r="D64" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>47</v>
@@ -9056,7 +9056,7 @@
         <v>26.6</v>
       </c>
       <c r="D65" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>47</v>
@@ -9109,7 +9109,7 @@
         <v>30.8</v>
       </c>
       <c r="D66" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>47</v>
@@ -9162,7 +9162,7 @@
         <v>29.4</v>
       </c>
       <c r="D67" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>47</v>
@@ -9215,7 +9215,7 @@
         <v>33.6</v>
       </c>
       <c r="D68" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>47</v>
@@ -9268,7 +9268,7 @@
         <v>30.8</v>
       </c>
       <c r="D69" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>47</v>
@@ -9315,7 +9315,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="D70" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>47</v>
@@ -9362,7 +9362,7 @@
         <v>30.8</v>
       </c>
       <c r="D71" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>47</v>
@@ -9412,7 +9412,7 @@
         <v>32.200000000000003</v>
       </c>
       <c r="D72" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>47</v>
@@ -9459,7 +9459,7 @@
         <v>35</v>
       </c>
       <c r="D73" s="10">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>47</v>
@@ -9512,7 +9512,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="D74" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>47</v>
@@ -9562,7 +9562,7 @@
         <v>39.9</v>
       </c>
       <c r="D75" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>47</v>
@@ -9612,7 +9612,7 @@
         <v>42</v>
       </c>
       <c r="D76" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>47</v>
@@ -9665,7 +9665,7 @@
         <v>49</v>
       </c>
       <c r="D77" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>47</v>
@@ -11048,7 +11048,7 @@
         <v>49</v>
       </c>
       <c r="D104" s="10">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E104" s="10" t="s">
         <v>47</v>
@@ -11098,7 +11098,7 @@
         <v>75.599999999999994</v>
       </c>
       <c r="D105" s="10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E105" s="10" t="s">
         <v>47</v>
@@ -12251,7 +12251,7 @@
       <c r="C127" s="28">
         <v>3360</v>
       </c>
-      <c r="D127" s="28">
+      <c r="D127" s="34">
         <v>5</v>
       </c>
       <c r="E127" s="28" t="s">
@@ -12307,7 +12307,7 @@
       <c r="C128" s="28">
         <v>3360</v>
       </c>
-      <c r="D128" s="28">
+      <c r="D128" s="34">
         <v>5</v>
       </c>
       <c r="E128" s="28" t="s">
@@ -12363,7 +12363,7 @@
       <c r="C129" s="28">
         <v>3360</v>
       </c>
-      <c r="D129" s="28">
+      <c r="D129" s="34">
         <v>5</v>
       </c>
       <c r="E129" s="28" t="s">
@@ -12419,7 +12419,7 @@
       <c r="C130" s="28">
         <v>3840</v>
       </c>
-      <c r="D130" s="28">
+      <c r="D130" s="34">
         <v>5</v>
       </c>
       <c r="E130" s="28" t="s">
@@ -12475,7 +12475,7 @@
       <c r="C131" s="28">
         <v>3840</v>
       </c>
-      <c r="D131" s="28">
+      <c r="D131" s="34">
         <v>5</v>
       </c>
       <c r="E131" s="28" t="s">
@@ -12531,7 +12531,7 @@
       <c r="C132" s="28">
         <v>5550</v>
       </c>
-      <c r="D132" s="28">
+      <c r="D132" s="34">
         <v>5</v>
       </c>
       <c r="E132" s="28" t="s">
@@ -19660,7 +19660,7 @@
         <v>35</v>
       </c>
       <c r="D260" s="27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E260" s="27" t="s">
         <v>47</v>
@@ -19716,7 +19716,7 @@
         <v>44.8</v>
       </c>
       <c r="D261" s="27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E261" s="27" t="s">
         <v>47</v>
@@ -19769,7 +19769,7 @@
         <v>64.400000000000006</v>
       </c>
       <c r="D262" s="27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E262" s="27" t="s">
         <v>47</v>
@@ -20041,7 +20041,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20601,8 +20601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -20698,9 +20698,7 @@
       <c r="C3" s="19">
         <v>25.2</v>
       </c>
-      <c r="D3" s="19">
-        <v>14</v>
-      </c>
+      <c r="D3" s="19"/>
       <c r="E3" s="19" t="s">
         <v>47</v>
       </c>
@@ -20752,9 +20750,7 @@
       <c r="C4" s="19">
         <v>34.799999999999997</v>
       </c>
-      <c r="D4" s="19">
-        <v>14</v>
-      </c>
+      <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
         <v>47</v>
       </c>
@@ -20804,9 +20800,7 @@
       <c r="C5" s="19">
         <v>31.2</v>
       </c>
-      <c r="D5" s="19">
-        <v>14</v>
-      </c>
+      <c r="D5" s="19"/>
       <c r="E5" s="19" t="s">
         <v>47</v>
       </c>
@@ -20856,9 +20850,7 @@
       <c r="C6" s="19">
         <v>48</v>
       </c>
-      <c r="D6" s="19">
-        <v>14</v>
-      </c>
+      <c r="D6" s="19"/>
       <c r="E6" s="19" t="s">
         <v>47</v>
       </c>
@@ -20908,9 +20900,7 @@
       <c r="C7" s="19">
         <v>15.6</v>
       </c>
-      <c r="D7" s="19">
-        <v>14</v>
-      </c>
+      <c r="D7" s="19"/>
       <c r="E7" s="19" t="s">
         <v>47</v>
       </c>
@@ -20960,9 +20950,7 @@
       <c r="C8" s="19">
         <v>19.8</v>
       </c>
-      <c r="D8" s="19">
-        <v>14</v>
-      </c>
+      <c r="D8" s="19"/>
       <c r="E8" s="19" t="s">
         <v>47</v>
       </c>
@@ -21012,9 +21000,7 @@
       <c r="C9" s="19">
         <v>25.5</v>
       </c>
-      <c r="D9" s="19">
-        <v>14</v>
-      </c>
+      <c r="D9" s="19"/>
       <c r="E9" s="19" t="s">
         <v>47</v>
       </c>
@@ -21064,9 +21050,7 @@
       <c r="C10" s="18">
         <v>49.2</v>
       </c>
-      <c r="D10" s="18">
-        <v>14</v>
-      </c>
+      <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
         <v>47</v>
       </c>
@@ -21121,7 +21105,7 @@
         <v>55.2</v>
       </c>
       <c r="D11" s="18">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>47</v>
@@ -21177,7 +21161,7 @@
         <v>62.4</v>
       </c>
       <c r="D12" s="18">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>47</v>
@@ -21233,7 +21217,7 @@
         <v>64.8</v>
       </c>
       <c r="D13" s="18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>47</v>
@@ -22784,8 +22768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22885,9 +22869,7 @@
       <c r="C3" s="34">
         <v>6.24</v>
       </c>
-      <c r="D3" s="34">
-        <v>20</v>
-      </c>
+      <c r="D3" s="34"/>
       <c r="E3" s="34" t="s">
         <v>47</v>
       </c>
@@ -22931,9 +22913,7 @@
       <c r="C4" s="34">
         <v>7.02</v>
       </c>
-      <c r="D4" s="34">
-        <v>20</v>
-      </c>
+      <c r="D4" s="34"/>
       <c r="E4" s="34" t="s">
         <v>47</v>
       </c>
@@ -22979,9 +22959,7 @@
       <c r="C5" s="34">
         <v>7.02</v>
       </c>
-      <c r="D5" s="34">
-        <v>20</v>
-      </c>
+      <c r="D5" s="34"/>
       <c r="E5" s="34" t="s">
         <v>47</v>
       </c>
@@ -23027,9 +23005,7 @@
       <c r="C6" s="34">
         <v>11.375</v>
       </c>
-      <c r="D6" s="34">
-        <v>20</v>
-      </c>
+      <c r="D6" s="34"/>
       <c r="E6" s="34" t="s">
         <v>47</v>
       </c>
@@ -23075,9 +23051,7 @@
       <c r="C7" s="34">
         <v>10.79</v>
       </c>
-      <c r="D7" s="34">
-        <v>20</v>
-      </c>
+      <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
         <v>47</v>
       </c>
@@ -23119,9 +23093,7 @@
       <c r="C8" s="34">
         <v>18.2</v>
       </c>
-      <c r="D8" s="34">
-        <v>20</v>
-      </c>
+      <c r="D8" s="34"/>
       <c r="E8" s="34" t="s">
         <v>47</v>
       </c>
@@ -23163,9 +23135,7 @@
       <c r="C9" s="34">
         <v>14.04</v>
       </c>
-      <c r="D9" s="34">
-        <v>20</v>
-      </c>
+      <c r="D9" s="34"/>
       <c r="E9" s="34" t="s">
         <v>47</v>
       </c>
@@ -23211,9 +23181,7 @@
       <c r="C10" s="34">
         <v>16.38</v>
       </c>
-      <c r="D10" s="34">
-        <v>20</v>
-      </c>
+      <c r="D10" s="34"/>
       <c r="E10" s="34" t="s">
         <v>47</v>
       </c>
@@ -23261,9 +23229,7 @@
       <c r="C11" s="34">
         <v>19.239999999999998</v>
       </c>
-      <c r="D11" s="34">
-        <v>20</v>
-      </c>
+      <c r="D11" s="34"/>
       <c r="E11" s="34" t="s">
         <v>47</v>
       </c>
@@ -23312,7 +23278,7 @@
         <v>22.62</v>
       </c>
       <c r="D12" s="34">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>47</v>
@@ -23362,7 +23328,7 @@
         <v>32.76</v>
       </c>
       <c r="D13" s="34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E13" s="34" t="s">
         <v>47</v>
@@ -23412,7 +23378,7 @@
         <v>53.04</v>
       </c>
       <c r="D14" s="34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>47</v>
@@ -23462,7 +23428,7 @@
         <v>75.400000000000006</v>
       </c>
       <c r="D15" s="34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>47</v>
@@ -23512,7 +23478,7 @@
         <v>78</v>
       </c>
       <c r="D16" s="34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E16" s="34" t="s">
         <v>47</v>
@@ -23562,7 +23528,7 @@
         <v>202.8</v>
       </c>
       <c r="D17" s="34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>47</v>
@@ -23612,7 +23578,7 @@
         <v>171.6</v>
       </c>
       <c r="D18" s="34">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E18" s="34" t="s">
         <v>47</v>
@@ -23662,7 +23628,7 @@
         <v>241.8</v>
       </c>
       <c r="D19" s="34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>47</v>
@@ -23712,7 +23678,7 @@
         <v>327.60000000000002</v>
       </c>
       <c r="D20" s="34">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>47</v>
@@ -23762,7 +23728,7 @@
         <v>257.39999999999998</v>
       </c>
       <c r="D21" s="34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21" s="34" t="s">
         <v>47</v>
@@ -23812,7 +23778,7 @@
         <v>312</v>
       </c>
       <c r="D22" s="34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E22" s="34" t="s">
         <v>47</v>
@@ -23862,7 +23828,7 @@
         <v>351</v>
       </c>
       <c r="D23" s="34">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E23" s="34" t="s">
         <v>47</v>
@@ -23912,7 +23878,7 @@
         <v>546</v>
       </c>
       <c r="D24" s="34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E24" s="34" t="s">
         <v>47</v>
@@ -23961,9 +23927,7 @@
       <c r="C25" s="33">
         <v>7.28</v>
       </c>
-      <c r="D25" s="33">
-        <v>20</v>
-      </c>
+      <c r="D25" s="33"/>
       <c r="E25" s="33" t="s">
         <v>47</v>
       </c>
@@ -24005,9 +23969,7 @@
       <c r="C26" s="33">
         <v>16.25</v>
       </c>
-      <c r="D26" s="33">
-        <v>20</v>
-      </c>
+      <c r="D26" s="33"/>
       <c r="E26" s="33" t="s">
         <v>47</v>
       </c>
@@ -24049,9 +24011,7 @@
       <c r="C27" s="33">
         <v>15.6</v>
       </c>
-      <c r="D27" s="33">
-        <v>20</v>
-      </c>
+      <c r="D27" s="33"/>
       <c r="E27" s="33" t="s">
         <v>47</v>
       </c>
@@ -24094,7 +24054,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="D28" s="33">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E28" s="33" t="s">
         <v>47</v>
@@ -24138,7 +24098,7 @@
         <v>169</v>
       </c>
       <c r="D29" s="33">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>47</v>
@@ -24182,7 +24142,7 @@
         <v>162.5</v>
       </c>
       <c r="D30" s="33">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>47</v>
@@ -24226,7 +24186,7 @@
         <v>234</v>
       </c>
       <c r="D31" s="33">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>47</v>
@@ -24270,7 +24230,7 @@
         <v>305.5</v>
       </c>
       <c r="D32" s="33">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>47</v>
@@ -24314,7 +24274,7 @@
         <v>364</v>
       </c>
       <c r="D33" s="33">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E33" s="33" t="s">
         <v>47</v>
@@ -28143,7 +28103,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -30864,7 +30824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
